--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{360505E9-10E6-4D61-AAD7-A36905F26274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2523338E-A1C9-4BC3-A122-4C9F956D32BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{379A5B81-CFC8-4ADD-8A14-07511FE6B63D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="165">
   <si>
     <t>Pin #</t>
   </si>
@@ -221,12 +221,6 @@
     <t>MIO-15</t>
   </si>
   <si>
-    <t>UART96_HOLO_TX_1V8</t>
-  </si>
-  <si>
-    <t>UART96_HOLO_RX_1V8</t>
-  </si>
-  <si>
     <t>IMU Header</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>IMU</t>
   </si>
   <si>
-    <t>ESP32</t>
-  </si>
-  <si>
     <t>Ultrasons</t>
   </si>
   <si>
@@ -323,18 +314,9 @@
     <t>BUS_I2C_SCL_IMU</t>
   </si>
   <si>
-    <t>UART96_GSM_TX_1V8</t>
-  </si>
-  <si>
-    <t>UART96_GSM_RX_1V8</t>
-  </si>
-  <si>
     <t>GSM</t>
   </si>
   <si>
-    <t>WIFI</t>
-  </si>
-  <si>
     <t>Ultra_Trig_1</t>
   </si>
   <si>
@@ -419,17 +401,140 @@
     <t>Configurable GPIO / IO32</t>
   </si>
   <si>
-    <t>BUS_I2C_SDA_ESP32_B</t>
-  </si>
-  <si>
-    <t>BUS_I2C_SCL_ESP32_B</t>
+    <t>BUS_I2C_SDA_Balises</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SCL__Balises</t>
+  </si>
+  <si>
+    <t>SS_UART_IHM</t>
+  </si>
+  <si>
+    <t>RXD_UART_IHM</t>
+  </si>
+  <si>
+    <t>TXD_UART_IHM</t>
+  </si>
+  <si>
+    <t>CTS_UART_IHM</t>
+  </si>
+  <si>
+    <t>INT_IHM</t>
+  </si>
+  <si>
+    <t>EN_IHM</t>
+  </si>
+  <si>
+    <t>SEL_IHM</t>
+  </si>
+  <si>
+    <t>GPIO_IHM</t>
+  </si>
+  <si>
+    <t>IHM</t>
+  </si>
+  <si>
+    <t>Balises</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SCL_Balises</t>
+  </si>
+  <si>
+    <t>UART96_GSM_TX</t>
+  </si>
+  <si>
+    <t>UART96_GSM_RX</t>
+  </si>
+  <si>
+    <t>UART96_HOLO_RX</t>
+  </si>
+  <si>
+    <t>UART96_HOLO_TX</t>
+  </si>
+  <si>
+    <t>LANE0_N</t>
+  </si>
+  <si>
+    <t>LANE0_P</t>
+  </si>
+  <si>
+    <t>LANE1_N</t>
+  </si>
+  <si>
+    <t>LANE1_P</t>
+  </si>
+  <si>
+    <t>MIPI_CLK_N</t>
+  </si>
+  <si>
+    <t>MIPI_CLK_P</t>
+  </si>
+  <si>
+    <t>PWUP</t>
+  </si>
+  <si>
+    <t>MIPI_LANE0_N</t>
+  </si>
+  <si>
+    <t>MIPI_LANE0_P</t>
+  </si>
+  <si>
+    <t>MIPI_LANE1_N</t>
+  </si>
+  <si>
+    <t>MIPI_LANE1_P</t>
+  </si>
+  <si>
+    <t>GPIO_PWUP_CAM</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SCL_CAM</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SDA_CAM</t>
+  </si>
+  <si>
+    <t>PCAM 5C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légende : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signaux en paire différentielle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signaux de bus de communication </t>
+  </si>
+  <si>
+    <t>Pin de POWER</t>
+  </si>
+  <si>
+    <t>Signaux classique GPIO</t>
+  </si>
+  <si>
+    <t>XXX_XX_P</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SCL_XXX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>XXXXX_XXX</t>
+  </si>
+  <si>
+    <t>XXX_XX_N</t>
+  </si>
+  <si>
+    <t>BUS_I2C_SDA_XXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,8 +551,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="3"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -503,8 +637,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,13 +737,34 @@
         <bgColor rgb="FF9BC2E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,105 +860,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20 % - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40 % - Accent2" xfId="3" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="4" builtinId="39"/>
-    <cellStyle name="40 % - Accent4" xfId="5" builtinId="43"/>
-    <cellStyle name="40 % - Accent6" xfId="6" builtinId="51"/>
+  <cellStyles count="8">
+    <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="40 % - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40 % - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="40 % - Accent4" xfId="6" builtinId="43"/>
+    <cellStyle name="40 % - Accent6" xfId="7" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vérification" xfId="1" builtinId="23"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Vérification" xfId="2" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -820,13 +1194,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>596611</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:colOff>492702</xdr:colOff>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>30307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -873,13 +1247,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1887684</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>545525</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:colOff>441616</xdr:colOff>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>157595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -926,13 +1300,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -985,13 +1359,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>17317</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>640772</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>5327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1044,14 +1418,14 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>155600</xdr:rowOff>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>155599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,14 +1462,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>311726</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>809685</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>209285</xdr:rowOff>
+      <xdr:colOff>480640</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>209284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1120,6 +1494,49 @@
         <a:xfrm>
           <a:off x="19517590" y="47070817"/>
           <a:ext cx="6438095" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>424297</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>112567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>649434</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>77931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF63EBE2-2E53-4FFE-B2F8-2C90454822C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="15463" t="23607" r="28872" b="6846"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="21630410" y="45338999"/>
+          <a:ext cx="3117273" cy="1887682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1401,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED655676-4956-4463-8FEE-D5F09937871C}">
-  <dimension ref="A2:X193"/>
+  <dimension ref="A1:X202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1417,161 +1834,260 @@
     <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="9" width="11" style="3"/>
     <col min="10" max="10" width="25.75" style="3" customWidth="1"/>
-    <col min="11" max="21" width="11" style="3"/>
+    <col min="11" max="13" width="11" style="3"/>
+    <col min="14" max="14" width="12.375" style="3" customWidth="1"/>
+    <col min="15" max="16" width="11" style="3"/>
+    <col min="17" max="17" width="14.625" style="3" customWidth="1"/>
+    <col min="18" max="20" width="11" style="3"/>
+    <col min="21" max="21" width="15.125" style="3" customWidth="1"/>
     <col min="22" max="22" width="23.5" style="3" customWidth="1"/>
     <col min="23" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44"/>
+    </row>
+    <row r="2" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="47"/>
+    </row>
+    <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23">
+      <c r="K3" s="45"/>
+      <c r="L3" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="S3" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="52"/>
+      <c r="U3" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="63"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
+      <c r="K4" s="45"/>
+      <c r="L4" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="55"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="S4" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="T4" s="46"/>
+      <c r="U4" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="67"/>
+    </row>
+    <row r="5" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>3</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+    </row>
+    <row r="6" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="51"/>
+    </row>
+    <row r="7" spans="2:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+    <row r="8" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="26"/>
+      <c r="C8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+    <row r="9" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+    <row r="11" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+    <row r="12" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+    <row r="13" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+    <row r="14" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <v>11</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+    <row r="15" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <v>12</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1580,163 +2096,163 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="23">
+      <c r="A19" s="18"/>
+      <c r="B19" s="22">
         <v>1</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="23">
+      <c r="A20" s="18"/>
+      <c r="B20" s="22">
         <v>2</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="23">
-        <v>3</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22">
+        <v>3</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="23">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22">
         <v>4</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="23">
+      <c r="A23" s="18"/>
+      <c r="B23" s="22">
         <v>5</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="26"/>
+      <c r="C23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="23">
+      <c r="A24" s="18"/>
+      <c r="B24" s="22">
         <v>6</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23">
+      <c r="A25" s="18"/>
+      <c r="B25" s="22">
         <v>7</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="23">
+      <c r="A26" s="18"/>
+      <c r="B26" s="22">
         <v>8</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="23">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22">
         <v>9</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="23">
+      <c r="A28" s="18"/>
+      <c r="B28" s="22">
         <v>10</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="23">
+      <c r="A29" s="18"/>
+      <c r="B29" s="22">
         <v>11</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="26"/>
+      <c r="C29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="23">
+      <c r="A30" s="18"/>
+      <c r="B30" s="22">
         <v>12</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1745,178 +2261,178 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="23">
+      <c r="A34" s="18"/>
+      <c r="B34" s="22">
         <v>1</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="12" t="s">
-        <v>62</v>
+        <v>138</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="23">
+      <c r="A35" s="18"/>
+      <c r="B35" s="22">
         <v>2</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="23">
-        <v>3</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="22">
+        <v>3</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="12" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="23">
+      <c r="A37" s="18"/>
+      <c r="B37" s="22">
         <v>4</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="12" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="23">
+      <c r="A38" s="18"/>
+      <c r="B38" s="22">
         <v>5</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="26"/>
+      <c r="C38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="25"/>
       <c r="E38" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="23">
+      <c r="A39" s="18"/>
+      <c r="B39" s="22">
         <v>6</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="23">
+      <c r="A40" s="18"/>
+      <c r="B40" s="22">
         <v>7</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="23">
+      <c r="A41" s="18"/>
+      <c r="B41" s="22">
         <v>8</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="23">
+      <c r="A42" s="18"/>
+      <c r="B42" s="22">
         <v>9</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="23">
+      <c r="A43" s="18"/>
+      <c r="B43" s="22">
         <v>10</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="23">
+      <c r="A44" s="18"/>
+      <c r="B44" s="22">
         <v>11</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="26"/>
+      <c r="C44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="25"/>
       <c r="E44" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="23">
+      <c r="A45" s="18"/>
+      <c r="B45" s="22">
         <v>12</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="27"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
@@ -1925,16 +2441,19 @@
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="30"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="10" t="s">
         <v>2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -1945,16 +2464,16 @@
       <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="23">
+      <c r="A49" s="18"/>
+      <c r="B49" s="22">
         <v>1</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="12" t="s">
-        <v>100</v>
+      <c r="D49" s="21"/>
+      <c r="E49" s="65" t="s">
+        <v>94</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -1965,16 +2484,16 @@
       <c r="Q49" s="11"/>
     </row>
     <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="23">
+      <c r="A50" s="18"/>
+      <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="12" t="s">
-        <v>101</v>
+      <c r="D50" s="21"/>
+      <c r="E50" s="65" t="s">
+        <v>95</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -1985,16 +2504,16 @@
       <c r="Q50" s="11"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="23">
-        <v>3</v>
-      </c>
-      <c r="C51" s="24" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="22">
+        <v>3</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="12" t="s">
-        <v>102</v>
+      <c r="D51" s="21"/>
+      <c r="E51" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -2005,197 +2524,197 @@
       <c r="Q51" s="11"/>
     </row>
     <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="23">
+      <c r="A52" s="18"/>
+      <c r="B52" s="22">
         <v>4</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="12" t="s">
-        <v>103</v>
+      <c r="D52" s="21"/>
+      <c r="E52" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
       <c r="Q52" s="11"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="23">
+      <c r="A53" s="18"/>
+      <c r="B53" s="22">
         <v>5</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="26"/>
+      <c r="C53" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="25"/>
       <c r="E53" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
       <c r="Q53" s="11"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="23">
+      <c r="A54" s="18"/>
+      <c r="B54" s="22">
         <v>6</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="39"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
       <c r="Q54" s="11"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="23">
+      <c r="A55" s="18"/>
+      <c r="B55" s="22">
         <v>7</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="12" t="s">
-        <v>104</v>
+      <c r="D55" s="21"/>
+      <c r="E55" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
       <c r="Q55" s="11"/>
     </row>
     <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="23">
+      <c r="A56" s="18"/>
+      <c r="B56" s="22">
         <v>8</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="12" t="s">
-        <v>105</v>
+      <c r="D56" s="21"/>
+      <c r="E56" s="65" t="s">
+        <v>99</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
       <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="23">
+      <c r="A57" s="18"/>
+      <c r="B57" s="22">
         <v>9</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="12" t="s">
-        <v>106</v>
+      <c r="D57" s="21"/>
+      <c r="E57" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
       <c r="Q57" s="11"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="23">
+      <c r="A58" s="18"/>
+      <c r="B58" s="22">
         <v>10</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="12" t="s">
-        <v>107</v>
+      <c r="D58" s="25"/>
+      <c r="E58" s="65" t="s">
+        <v>101</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
       <c r="Q58" s="11"/>
     </row>
     <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="23">
+      <c r="A59" s="18"/>
+      <c r="B59" s="22">
         <v>11</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="26"/>
+      <c r="C59" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
       <c r="Q59" s="11"/>
     </row>
     <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="23">
+      <c r="A60" s="18"/>
+      <c r="B60" s="22">
         <v>12</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="27"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
       <c r="Q60" s="11"/>
     </row>
     <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="A61" s="18"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
       <c r="Q61" s="11"/>
     </row>
     <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
@@ -2204,255 +2723,255 @@
       <c r="E62" s="2"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
       <c r="Q62" s="11"/>
     </row>
     <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="28" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="30"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
       <c r="Q63" s="11"/>
     </row>
     <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="23">
+      <c r="A64" s="18"/>
+      <c r="B64" s="22">
         <v>1</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="22"/>
+      <c r="D64" s="21"/>
       <c r="E64" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
       <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="23">
+      <c r="A65" s="18"/>
+      <c r="B65" s="22">
         <v>2</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="22"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="39"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
       <c r="Q65" s="11"/>
     </row>
     <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="23">
-        <v>3</v>
-      </c>
-      <c r="C66" s="24" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="22">
+        <v>3</v>
+      </c>
+      <c r="C66" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
       <c r="E66" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="39"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
       <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="23">
+      <c r="A67" s="18"/>
+      <c r="B67" s="22">
         <v>4</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="22"/>
+      <c r="D67" s="21"/>
       <c r="E67" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
       <c r="Q67" s="11"/>
     </row>
     <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="23">
+      <c r="A68" s="18"/>
+      <c r="B68" s="22">
         <v>5</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="26"/>
+      <c r="C68" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="25"/>
       <c r="E68" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
       <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="23">
+      <c r="A69" s="18"/>
+      <c r="B69" s="22">
         <v>6</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="22"/>
+      <c r="D69" s="21"/>
       <c r="E69" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
       <c r="Q69" s="11"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="23">
+      <c r="A70" s="18"/>
+      <c r="B70" s="22">
         <v>7</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="22"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
       <c r="Q70" s="11"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="23">
+      <c r="A71" s="18"/>
+      <c r="B71" s="22">
         <v>8</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="21"/>
       <c r="E71" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
       <c r="Q71" s="11"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="23">
+      <c r="A72" s="18"/>
+      <c r="B72" s="22">
         <v>9</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="23">
+      <c r="A73" s="18"/>
+      <c r="B73" s="22">
         <v>10</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="12" t="s">
-        <v>109</v>
+      <c r="D73" s="25"/>
+      <c r="E73" s="65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="23">
+      <c r="A74" s="18"/>
+      <c r="B74" s="22">
         <v>11</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="26"/>
+      <c r="C74" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="25"/>
       <c r="E74" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="23">
+      <c r="A75" s="18"/>
+      <c r="B75" s="22">
         <v>12</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="27"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2463,931 +2982,1209 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="30"/>
+      <c r="D78" s="29"/>
       <c r="E78" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="B79" s="22">
         <v>1</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="B80" s="22">
         <v>2</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
-        <v>3</v>
-      </c>
-      <c r="C81" s="24" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="22">
+        <v>3</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="23">
+      <c r="D81" s="21"/>
+      <c r="E81" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="22">
         <v>4</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="23">
+      <c r="D82" s="21"/>
+      <c r="E82" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="22">
         <v>5</v>
       </c>
-      <c r="C83" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="26"/>
+      <c r="C83" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="25"/>
       <c r="E83" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="23">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="22">
         <v>6</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="22"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="22">
         <v>7</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="23">
+      <c r="D85" s="21"/>
+      <c r="E85" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="22">
         <v>8</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="23">
+      <c r="D86" s="21"/>
+      <c r="E86" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="22">
         <v>9</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="23">
+      <c r="D87" s="21"/>
+      <c r="E87" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="22">
         <v>10</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="23">
+      <c r="D88" s="25"/>
+      <c r="E88" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="22">
         <v>11</v>
       </c>
-      <c r="C89" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="26"/>
+      <c r="C89" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="25"/>
       <c r="E89" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="23">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="22">
         <v>12</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="27"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="28" t="s">
+    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="30"/>
+      <c r="D93" s="29"/>
       <c r="E93" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="23">
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="22">
         <v>1</v>
       </c>
-      <c r="C94" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="26"/>
+      <c r="C94" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="25"/>
       <c r="E94" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="23">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="22">
         <v>2</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="21"/>
+      <c r="E95" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="22">
+        <v>3</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="21"/>
+      <c r="E96" s="58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="22">
+        <v>4</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="22">
+        <v>5</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="22">
+        <v>6</v>
+      </c>
+      <c r="C99" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="23">
-        <v>3</v>
-      </c>
-      <c r="C96" s="24" t="s">
+      <c r="D99" s="21"/>
+      <c r="E99" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="22">
+        <v>7</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="22">
+        <v>8</v>
+      </c>
+      <c r="C101" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="23">
+      <c r="D101" s="21"/>
+      <c r="E101" s="58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="22">
+        <v>9</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" s="21"/>
+      <c r="E102" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="22">
+        <v>10</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="22">
+        <v>11</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="22">
+        <v>12</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="22">
+        <v>13</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="25"/>
+      <c r="E106" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="22">
+        <v>14</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="25"/>
+      <c r="E107" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="22">
+        <v>15</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="26"/>
+      <c r="E108" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="17"/>
+    </row>
+    <row r="119" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" s="37"/>
+      <c r="J119" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S119" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="17"/>
+    </row>
+    <row r="120" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="22">
+        <v>1</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" s="32"/>
+      <c r="J120" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S120" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T120" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U120" s="37"/>
+      <c r="V120" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="22">
+        <v>2</v>
+      </c>
+      <c r="H121" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" s="40"/>
+      <c r="J121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S121" s="22">
+        <v>1</v>
+      </c>
+      <c r="T121" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U121" s="32"/>
+      <c r="V121" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="22">
+        <v>3</v>
+      </c>
+      <c r="H122" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="40"/>
+      <c r="J122" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="S122" s="22">
+        <v>2</v>
+      </c>
+      <c r="T122" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="U122" s="40"/>
+      <c r="V122" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="22">
         <v>4</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="23">
+      <c r="H123" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123" s="40"/>
+      <c r="J123" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S123" s="22">
+        <v>3</v>
+      </c>
+      <c r="T123" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="U123" s="40"/>
+      <c r="V123" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S124" s="22">
+        <v>4</v>
+      </c>
+      <c r="T124" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="U124" s="40"/>
+      <c r="V124" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S131" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+      <c r="V131" s="17"/>
+    </row>
+    <row r="132" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S132" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T132" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U132" s="37"/>
+      <c r="V132" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S133" s="22">
+        <v>1</v>
+      </c>
+      <c r="T133" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U133" s="40"/>
+      <c r="V133" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S134" s="22">
+        <v>2</v>
+      </c>
+      <c r="T134" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U134" s="40"/>
+      <c r="V134" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S135" s="22">
+        <v>3</v>
+      </c>
+      <c r="T135" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U135" s="40"/>
+      <c r="V135" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S136" s="22">
+        <v>4</v>
+      </c>
+      <c r="T136" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U136" s="40"/>
+      <c r="V136" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S137" s="22">
         <v>5</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="23">
+      <c r="T137" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U137" s="40"/>
+      <c r="V137" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S138" s="22">
         <v>6</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="T138" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U138" s="40"/>
+      <c r="V138" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S139" s="22">
+        <v>7</v>
+      </c>
+      <c r="T139" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="U139" s="40"/>
+      <c r="V139" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S140" s="22">
+        <v>8</v>
+      </c>
+      <c r="T140" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U140" s="32"/>
+      <c r="V140" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S141" s="22">
+        <v>9</v>
+      </c>
+      <c r="T141" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U141" s="32"/>
+      <c r="V141" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S142" s="22">
+        <v>10</v>
+      </c>
+      <c r="T142" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U142" s="40"/>
+      <c r="V142" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S143" s="22">
+        <v>11</v>
+      </c>
+      <c r="T143" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U143" s="40"/>
+      <c r="V143" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S144" s="22">
+        <v>12</v>
+      </c>
+      <c r="T144" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U144" s="40"/>
+      <c r="V144" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S145" s="22">
+        <v>13</v>
+      </c>
+      <c r="T145" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U145" s="40"/>
+      <c r="V145" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S146" s="22">
+        <v>14</v>
+      </c>
+      <c r="T146" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U146" s="40"/>
+      <c r="V146" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S147" s="22">
+        <v>15</v>
+      </c>
+      <c r="T147" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="U147" s="40"/>
+      <c r="V147" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W147" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S148" s="22">
+        <v>16</v>
+      </c>
+      <c r="T148" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U148" s="40"/>
+      <c r="V148" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="17"/>
+      <c r="S159" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="T159" s="16"/>
+      <c r="U159" s="16"/>
+      <c r="V159" s="17"/>
+    </row>
+    <row r="160" spans="7:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H160" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="I160" s="39"/>
+      <c r="J160" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S160" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T160" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U160" s="37"/>
+      <c r="V160" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="22">
+        <v>1</v>
+      </c>
+      <c r="H161" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" s="32"/>
+      <c r="J161" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S161" s="22">
+        <v>1</v>
+      </c>
+      <c r="T161" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="U161" s="40"/>
+      <c r="V161" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X161" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="22">
+        <v>2</v>
+      </c>
+      <c r="H162" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I162" s="40"/>
+      <c r="J162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S162" s="22">
+        <v>2</v>
+      </c>
+      <c r="T162" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="U162" s="40"/>
+      <c r="V162" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="X162" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="22">
+        <v>3</v>
+      </c>
+      <c r="H163" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I163" s="40"/>
+      <c r="J163" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="S163" s="22">
+        <v>3</v>
+      </c>
+      <c r="T163" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="U163" s="40"/>
+      <c r="V163" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X163" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="22">
+        <v>4</v>
+      </c>
+      <c r="H164" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="40"/>
+      <c r="J164" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="S164" s="22">
+        <v>4</v>
+      </c>
+      <c r="T164" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="U164" s="40"/>
+      <c r="V164" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X164" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S165" s="22">
+        <v>5</v>
+      </c>
+      <c r="T165" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U165" s="32"/>
+      <c r="V165" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S166" s="22">
+        <v>6</v>
+      </c>
+      <c r="T166" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="U166" s="40"/>
+      <c r="V166" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S167" s="22">
+        <v>7</v>
+      </c>
+      <c r="T167" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="U167" s="40"/>
+      <c r="V167" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X167" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S168" s="22">
+        <v>8</v>
+      </c>
+      <c r="T168" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="U168" s="40"/>
+      <c r="V168" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X168" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S169" s="22">
+        <v>9</v>
+      </c>
+      <c r="T169" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="U169" s="40"/>
+      <c r="V169" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X169" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S170" s="22">
+        <v>10</v>
+      </c>
+      <c r="T170" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="23">
+      <c r="U170" s="40"/>
+      <c r="V170" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X170" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S171" s="22">
+        <v>11</v>
+      </c>
+      <c r="T171" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U171" s="32"/>
+      <c r="V171" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S172" s="22">
+        <v>12</v>
+      </c>
+      <c r="T172" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="U172" s="40"/>
+      <c r="V172" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="186" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S186" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T186" s="16"/>
+      <c r="U186" s="16"/>
+      <c r="V186" s="17"/>
+    </row>
+    <row r="187" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S187" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="T187" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U187" s="37"/>
+      <c r="V187" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S188" s="22">
+        <v>1</v>
+      </c>
+      <c r="T188" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U188" s="40"/>
+      <c r="V188" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S189" s="22">
+        <v>2</v>
+      </c>
+      <c r="T189" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="U189" s="40"/>
+      <c r="V189" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S190" s="22">
+        <v>3</v>
+      </c>
+      <c r="T190" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="U190" s="40"/>
+      <c r="V190" s="58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S191" s="22">
+        <v>4</v>
+      </c>
+      <c r="T191" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U191" s="40"/>
+      <c r="V191" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S192" s="22">
+        <v>5</v>
+      </c>
+      <c r="T192" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="U192" s="40"/>
+      <c r="V192" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S193" s="22">
+        <v>6</v>
+      </c>
+      <c r="T193" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="U193" s="40"/>
+      <c r="V193" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="194" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S194" s="22">
         <v>7</v>
       </c>
-      <c r="C100" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="23">
+      <c r="T194" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U194" s="40"/>
+      <c r="V194" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S195" s="22">
         <v>8</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="23">
+      <c r="T195" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="U195" s="32"/>
+      <c r="V195" s="58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="196" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S196" s="22">
         <v>9</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="103" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="23">
+      <c r="T196" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="U196" s="32"/>
+      <c r="V196" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S197" s="22">
         <v>10</v>
       </c>
-      <c r="C103" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="23">
+      <c r="T197" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U197" s="40"/>
+      <c r="V197" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S198" s="22">
         <v>11</v>
       </c>
-      <c r="C104" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="23">
+      <c r="T198" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="U198" s="40"/>
+      <c r="V198" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S199" s="22">
         <v>12</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="23">
+      <c r="T199" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="U199" s="40"/>
+      <c r="V199" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S200" s="22">
         <v>13</v>
       </c>
-      <c r="C106" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="23">
+      <c r="T200" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="U200" s="40"/>
+      <c r="V200" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S201" s="22">
         <v>14</v>
       </c>
-      <c r="C107" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="23">
+      <c r="T201" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="U201" s="40"/>
+      <c r="V201" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S202" s="22">
         <v>15</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="T202" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="27"/>
-      <c r="E108" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G139" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G140" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I140" s="30"/>
-      <c r="J140" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S140" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T140" s="2"/>
-      <c r="U140" s="2"/>
-      <c r="V140" s="2"/>
-    </row>
-    <row r="141" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G141" s="23">
-        <v>1</v>
-      </c>
-      <c r="H141" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I141" s="22"/>
-      <c r="J141" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S141" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="T141" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="U141" s="30"/>
-      <c r="V141" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G142" s="23">
-        <v>2</v>
-      </c>
-      <c r="H142" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I142" s="26"/>
-      <c r="J142" s="8" t="s">
+      <c r="U202" s="40"/>
+      <c r="V202" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S142" s="23">
-        <v>1</v>
-      </c>
-      <c r="T142" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U142" s="22"/>
-      <c r="V142" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G143" s="23">
-        <v>3</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I143" s="22"/>
-      <c r="J143" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="S143" s="23">
-        <v>2</v>
-      </c>
-      <c r="T143" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="U143" s="26"/>
-      <c r="V143" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="7:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G144" s="23">
-        <v>4</v>
-      </c>
-      <c r="H144" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" s="22"/>
-      <c r="J144" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S144" s="23">
-        <v>3</v>
-      </c>
-      <c r="T144" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="U144" s="22"/>
-      <c r="V144" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="145" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S145" s="23">
-        <v>4</v>
-      </c>
-      <c r="T145" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="U145" s="22"/>
-      <c r="V145" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S152" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-    </row>
-    <row r="153" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S153" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="T153" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="U153" s="30"/>
-      <c r="V153" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S154" s="23">
-        <v>1</v>
-      </c>
-      <c r="T154" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U154" s="22"/>
-      <c r="V154" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="155" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S155" s="23">
-        <v>2</v>
-      </c>
-      <c r="T155" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U155" s="26"/>
-      <c r="V155" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S156" s="23">
-        <v>3</v>
-      </c>
-      <c r="T156" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U156" s="22"/>
-      <c r="V156" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="157" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S157" s="23">
-        <v>4</v>
-      </c>
-      <c r="T157" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U157" s="22"/>
-      <c r="V157" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="158" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S158" s="23">
-        <v>5</v>
-      </c>
-      <c r="T158" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U158" s="22"/>
-      <c r="V158" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="159" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S159" s="23">
-        <v>6</v>
-      </c>
-      <c r="T159" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U159" s="26"/>
-      <c r="V159" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S160" s="23">
-        <v>7</v>
-      </c>
-      <c r="T160" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="U160" s="22"/>
-      <c r="V160" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="161" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S161" s="23">
-        <v>8</v>
-      </c>
-      <c r="T161" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U161" s="22"/>
-      <c r="V161" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S162" s="23">
-        <v>9</v>
-      </c>
-      <c r="T162" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U162" s="22"/>
-      <c r="V162" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S163" s="23">
-        <v>10</v>
-      </c>
-      <c r="T163" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U163" s="26"/>
-      <c r="V163" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="164" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S164" s="23">
-        <v>11</v>
-      </c>
-      <c r="T164" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="U164" s="22"/>
-      <c r="V164" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="165" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S165" s="23">
-        <v>12</v>
-      </c>
-      <c r="T165" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="U165" s="22"/>
-      <c r="V165" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="166" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S166" s="23">
-        <v>13</v>
-      </c>
-      <c r="T166" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U166" s="22"/>
-      <c r="V166" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="167" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S167" s="23">
-        <v>14</v>
-      </c>
-      <c r="T167" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U167" s="26"/>
-      <c r="V167" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="168" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S168" s="23">
-        <v>15</v>
-      </c>
-      <c r="T168" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="U168" s="22"/>
-      <c r="V168" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W168" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="169" spans="19:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S169" s="23">
-        <v>16</v>
-      </c>
-      <c r="T169" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U169" s="22"/>
-      <c r="V169" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G180" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="18"/>
-      <c r="S180" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-    </row>
-    <row r="181" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G181" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H181" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I181" s="33"/>
-      <c r="J181" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S181" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="T181" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="U181" s="30"/>
-      <c r="V181" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G182" s="23">
-        <v>1</v>
-      </c>
-      <c r="H182" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I182" s="35"/>
-      <c r="J182" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S182" s="23">
-        <v>1</v>
-      </c>
-      <c r="T182" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="U182" s="22"/>
-      <c r="V182" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X182" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="183" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G183" s="23">
-        <v>2</v>
-      </c>
-      <c r="H183" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I183" s="37"/>
-      <c r="J183" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S183" s="23">
-        <v>2</v>
-      </c>
-      <c r="T183" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="U183" s="26"/>
-      <c r="V183" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X183" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="184" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G184" s="23">
-        <v>3</v>
-      </c>
-      <c r="H184" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I184" s="27"/>
-      <c r="J184" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="S184" s="23">
-        <v>3</v>
-      </c>
-      <c r="T184" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="U184" s="22"/>
-      <c r="V184" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X184" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="185" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G185" s="23">
-        <v>4</v>
-      </c>
-      <c r="H185" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I185" s="27"/>
-      <c r="J185" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S185" s="23">
-        <v>4</v>
-      </c>
-      <c r="T185" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="U185" s="22"/>
-      <c r="V185" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X185" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="186" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S186" s="23">
-        <v>5</v>
-      </c>
-      <c r="T186" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U186" s="22"/>
-      <c r="V186" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S187" s="23">
-        <v>6</v>
-      </c>
-      <c r="T187" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="U187" s="26"/>
-      <c r="V187" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="188" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S188" s="23">
-        <v>7</v>
-      </c>
-      <c r="T188" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="U188" s="22"/>
-      <c r="V188" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X188" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="189" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S189" s="23">
-        <v>8</v>
-      </c>
-      <c r="T189" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="U189" s="22"/>
-      <c r="V189" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X189" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="190" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S190" s="23">
-        <v>9</v>
-      </c>
-      <c r="T190" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U190" s="22"/>
-      <c r="V190" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X190" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="191" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S191" s="23">
-        <v>10</v>
-      </c>
-      <c r="T191" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="U191" s="26"/>
-      <c r="V191" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X191" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="192" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S192" s="23">
-        <v>11</v>
-      </c>
-      <c r="T192" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U192" s="22"/>
-      <c r="V192" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="19:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S193" s="23">
-        <v>12</v>
-      </c>
-      <c r="T193" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="U193" s="22"/>
-      <c r="V193" s="8" t="s">
-        <v>73</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="T181:U181"/>
+  <mergeCells count="171">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="T198:U198"/>
+    <mergeCell ref="T199:U199"/>
+    <mergeCell ref="T200:U200"/>
+    <mergeCell ref="T201:U201"/>
+    <mergeCell ref="T202:U202"/>
+    <mergeCell ref="T172:U172"/>
+    <mergeCell ref="S186:V186"/>
+    <mergeCell ref="T194:U194"/>
+    <mergeCell ref="T195:U195"/>
+    <mergeCell ref="T196:U196"/>
+    <mergeCell ref="T197:U197"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="T170:U170"/>
+    <mergeCell ref="T171:U171"/>
+    <mergeCell ref="T137:U137"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="S159:V159"/>
+    <mergeCell ref="S131:V131"/>
+    <mergeCell ref="S119:V119"/>
+    <mergeCell ref="T121:U121"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="T124:U124"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="T136:U136"/>
     <mergeCell ref="T191:U191"/>
     <mergeCell ref="T192:U192"/>
     <mergeCell ref="T193:U193"/>
-    <mergeCell ref="T185:U185"/>
-    <mergeCell ref="T186:U186"/>
-    <mergeCell ref="T187:U187"/>
     <mergeCell ref="T188:U188"/>
     <mergeCell ref="T189:U189"/>
     <mergeCell ref="T190:U190"/>
     <mergeCell ref="C108:D108"/>
-    <mergeCell ref="T184:U184"/>
-    <mergeCell ref="T182:U182"/>
-    <mergeCell ref="T183:U183"/>
-    <mergeCell ref="S180:V180"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="C104:D104"/>
@@ -3406,38 +4203,18 @@
     <mergeCell ref="T167:U167"/>
     <mergeCell ref="T168:U168"/>
     <mergeCell ref="T169:U169"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="T159:U159"/>
-    <mergeCell ref="T160:U160"/>
     <mergeCell ref="T161:U161"/>
     <mergeCell ref="T162:U162"/>
     <mergeCell ref="T163:U163"/>
-    <mergeCell ref="S152:V152"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="T154:U154"/>
-    <mergeCell ref="T155:U155"/>
-    <mergeCell ref="T156:U156"/>
-    <mergeCell ref="T157:U157"/>
-    <mergeCell ref="S140:V140"/>
     <mergeCell ref="T141:U141"/>
     <mergeCell ref="T142:U142"/>
     <mergeCell ref="T143:U143"/>
     <mergeCell ref="T144:U144"/>
     <mergeCell ref="T145:U145"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="G159:J159"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="C94:D94"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE3BD6-BDB6-4C64-AD91-363B3F17BB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1365" windowWidth="21600" windowHeight="11580" activeTab="1" xr2:uid="{379A5B81-CFC8-4ADD-8A14-07511FE6B63D}"/>
+    <workbookView xWindow="1380" yWindow="1365" windowWidth="21600" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -22,10 +16,11 @@
     <sheet name="NFC" sheetId="5" r:id="rId7"/>
     <sheet name="ESP_IHM" sheetId="6" r:id="rId8"/>
     <sheet name="PCAM_5C" sheetId="7" r:id="rId9"/>
+    <sheet name="Feuil2" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="226">
   <si>
     <t>Pin #</t>
   </si>
@@ -635,13 +630,97 @@
   </si>
   <si>
     <t>DIFF</t>
+  </si>
+  <si>
+    <t>HOLO32</t>
+  </si>
+  <si>
+    <t>HOLO_I2C_SDA</t>
+  </si>
+  <si>
+    <t>HOLO_I2C_SCL</t>
+  </si>
+  <si>
+    <t>HOLO_LED_PWR</t>
+  </si>
+  <si>
+    <t>HOLO_LED_DEBUG</t>
+  </si>
+  <si>
+    <t>MODULE GSM</t>
+  </si>
+  <si>
+    <t>GSM_PWR_5VIN</t>
+  </si>
+  <si>
+    <t>GSM_UART_VDD</t>
+  </si>
+  <si>
+    <t>GSM_PWR_GND</t>
+  </si>
+  <si>
+    <t>GSM_UART_GND</t>
+  </si>
+  <si>
+    <t>CAPTEUR ULTRASON N°X</t>
+  </si>
+  <si>
+    <t>US_X_TRIG</t>
+  </si>
+  <si>
+    <t>US_X_ECHO</t>
+  </si>
+  <si>
+    <t>US_X_VDD</t>
+  </si>
+  <si>
+    <t>US_X_GND</t>
+  </si>
+  <si>
+    <t>NFC_PWR_3V3</t>
+  </si>
+  <si>
+    <t>NFC_PWR_GND</t>
+  </si>
+  <si>
+    <t>NFC_FD</t>
+  </si>
+  <si>
+    <t>MODULE NFC</t>
+  </si>
+  <si>
+    <t>IMU_PWR_GND</t>
+  </si>
+  <si>
+    <t>IMU_PWR_5V</t>
+  </si>
+  <si>
+    <t>BALISE</t>
+  </si>
+  <si>
+    <t>BALISE_PWR_GND</t>
+  </si>
+  <si>
+    <t>BALISE_PWR_3V3</t>
+  </si>
+  <si>
+    <t>ALIMENTAION 12V</t>
+  </si>
+  <si>
+    <t>INT_PWR_12V</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,8 +832,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +939,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6E5FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9F85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFEB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1262,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1207,10 +1311,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,11 +1385,8 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,47 +1397,15 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -1311,9 +1421,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD6E5FE"/>
-      <color rgb="FF66CCFF"/>
+      <color rgb="FFFFFEB4"/>
+      <color rgb="FFFF6565"/>
+      <color rgb="FFFF1D1D"/>
+      <color rgb="FFFF5B5B"/>
+      <color rgb="FFA5A5A5"/>
       <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9F85"/>
+      <color rgb="FFFFAF8F"/>
+      <color rgb="FFFF575B"/>
+      <color rgb="FFFFCC99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1329,6 +1446,58 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="904875"/>
+          <a:ext cx="14411325" cy="19164300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1342,7 +1511,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1549,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1395,7 +1564,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1602,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1448,7 +1617,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,10 +1626,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1478,7 +1647,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1492,7 +1661,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1507,7 +1676,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,10 +1685,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1537,7 +1706,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1551,7 +1720,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1566,7 +1735,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1605,7 +1774,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1634,7 +1803,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1649,7 +1818,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1827,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect l="15463" t="23607" r="28872" b="6846"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -1720,7 +1889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Intégral">
       <a:majorFont>
-        <a:latin typeface="Tw Cen MT Condensed" panose="020B0606020104020203"/>
+        <a:latin typeface="Tw Cen MT Condensed"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Grek" typeface="Calibri"/>
@@ -1757,7 +1926,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Tw Cen MT" panose="020B0602020104020603"/>
+        <a:latin typeface="Tw Cen MT"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Grek" typeface="Calibri"/>
@@ -1939,1975 +2108,1169 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD353F5-CF30-43FE-852A-5D0FC77F5C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185F01E-5A35-4D44-9ED6-2399E3E6C761}">
-  <dimension ref="A1:I107"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="11" style="2"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="43" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="D7" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="69" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="57"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="57"/>
-      <c r="D13" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="69" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="43" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="13">
         <v>8</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="13">
         <v>10</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="13">
         <v>12</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
+      <c r="A31" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="43" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="13">
         <v>1</v>
       </c>
-      <c r="B33" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="13">
         <v>2</v>
       </c>
-      <c r="B34" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="13">
         <v>3</v>
       </c>
-      <c r="B35" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="13">
         <v>4</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="13">
         <v>5</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="13">
         <v>6</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="13">
         <v>7</v>
       </c>
-      <c r="B39" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="13">
         <v>8</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="13">
         <v>9</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="13">
         <v>10</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>28</v>
+      <c r="B42" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="C42" s="57"/>
-      <c r="D42" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="13">
         <v>11</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="57"/>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="13">
         <v>12</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="60"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="6" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="71" t="s">
+      <c r="G47" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="H47" s="71" t="s">
+      <c r="H47" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="I47" s="71" t="s">
+      <c r="I47" s="43" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="13">
         <v>1</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="57"/>
+      <c r="D48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="13">
         <v>2</v>
       </c>
-      <c r="B49" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="13">
         <v>3</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="F50" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="13">
         <v>4</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="13">
         <v>5</v>
       </c>
-      <c r="B52" s="53" t="s">
-        <v>3</v>
+      <c r="B52" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="C52" s="57"/>
-      <c r="D52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="13">
         <v>6</v>
       </c>
-      <c r="B53" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="13">
         <v>7</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="13">
         <v>8</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="13">
         <v>9</v>
       </c>
-      <c r="B56" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="13">
         <v>10</v>
       </c>
-      <c r="B57" s="53" t="s">
-        <v>37</v>
+      <c r="B57" s="56" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="57"/>
-      <c r="D57" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="13">
         <v>11</v>
       </c>
-      <c r="B58" s="53" t="s">
-        <v>3</v>
+      <c r="B58" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="13">
         <v>12</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="13">
+        <v>13</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="13">
+        <v>14</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="13">
+        <v>15</v>
+      </c>
+      <c r="B62" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70" t="s">
+      <c r="C62" s="58"/>
+      <c r="D62" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="G62" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H62" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="I62" s="71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>1</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F63" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>2</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>3</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F65" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G65" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>4</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G66" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>5</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>6</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>7</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F69" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G69" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>8</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F70" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="G70" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>9</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>10</v>
-      </c>
-      <c r="B72" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="57"/>
-      <c r="D72" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>11</v>
-      </c>
-      <c r="B73" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>12</v>
-      </c>
-      <c r="B74" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F77" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="G77" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H77" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="I77" s="71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>1</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>2</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>3</v>
-      </c>
-      <c r="B80" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="56"/>
-      <c r="D80" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>4</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="56"/>
-      <c r="D81" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>5</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="57"/>
-      <c r="D82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>6</v>
-      </c>
-      <c r="B83" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="56"/>
-      <c r="D83" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>7</v>
-      </c>
-      <c r="B84" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="56"/>
-      <c r="D84" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="70"/>
-      <c r="I84" s="70"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>8</v>
-      </c>
-      <c r="B85" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="56"/>
-      <c r="D85" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>9</v>
-      </c>
-      <c r="B86" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>10</v>
-      </c>
-      <c r="B87" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="57"/>
-      <c r="D87" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>11</v>
-      </c>
-      <c r="B88" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="57"/>
-      <c r="D88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>12</v>
-      </c>
-      <c r="B89" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F92" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="G92" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="H92" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="I92" s="71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>1</v>
-      </c>
-      <c r="B93" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>2</v>
-      </c>
-      <c r="B94" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="56"/>
-      <c r="D94" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>3</v>
-      </c>
-      <c r="B95" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="56"/>
-      <c r="D95" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>4</v>
-      </c>
-      <c r="B96" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>5</v>
-      </c>
-      <c r="B97" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="57"/>
-      <c r="D97" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>6</v>
-      </c>
-      <c r="B98" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="56"/>
-      <c r="D98" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>7</v>
-      </c>
-      <c r="B99" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>8</v>
-      </c>
-      <c r="B100" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H100" s="70"/>
-      <c r="I100" s="70"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>9</v>
-      </c>
-      <c r="B101" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="70"/>
-      <c r="I101" s="70"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
-        <v>10</v>
-      </c>
-      <c r="B102" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
-        <v>11</v>
-      </c>
-      <c r="B103" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
-      <c r="I103" s="70"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>12</v>
-      </c>
-      <c r="B104" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>13</v>
-      </c>
-      <c r="B105" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
-        <v>14</v>
-      </c>
-      <c r="B106" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="H106" s="70"/>
-      <c r="I106" s="70"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
-        <v>15</v>
-      </c>
-      <c r="B107" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+  <mergeCells count="59">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
@@ -3915,27 +3278,28 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -3945,26 +3309,1943 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="3" width="11" style="2"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11" style="2"/>
+    <col min="14" max="14" width="22.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="K1" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="55"/>
+      <c r="N3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="K4" s="13">
+        <v>2</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="55"/>
+      <c r="N4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q4" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="K5" s="13">
+        <v>3</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="55"/>
+      <c r="N5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="K6" s="13">
+        <v>4</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="55"/>
+      <c r="N6" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="K8" s="13">
+        <v>6</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="K9" s="13">
+        <v>7</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="K10" s="13">
+        <v>8</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="55"/>
+      <c r="N10" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="13">
+        <v>9</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="55"/>
+      <c r="N11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="K12" s="13">
+        <v>10</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="57"/>
+      <c r="N12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="K13" s="13">
+        <v>11</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="57"/>
+      <c r="N13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="K14" s="13">
+        <v>12</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="13">
+        <v>4</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="13">
+        <v>5</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="K16" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="13">
+        <v>6</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="K17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="55"/>
+      <c r="N18" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="K19" s="13">
+        <v>2</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="55"/>
+      <c r="N19" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="K20" s="13">
+        <v>3</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="55"/>
+      <c r="N20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="13">
+        <v>4</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="55"/>
+      <c r="N21" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="13">
+        <v>1</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="K22" s="13">
+        <v>5</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="57"/>
+      <c r="N22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="13">
+        <v>2</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="K23" s="13">
+        <v>6</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="55"/>
+      <c r="N23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="13">
+        <v>3</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="K24" s="13">
+        <v>7</v>
+      </c>
+      <c r="L24" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="55"/>
+      <c r="N24" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="13">
+        <v>4</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="K25" s="13">
+        <v>8</v>
+      </c>
+      <c r="L25" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="55"/>
+      <c r="N25" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="K26" s="13">
+        <v>9</v>
+      </c>
+      <c r="L26" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="55"/>
+      <c r="N26" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="K27" s="13">
+        <v>10</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="57"/>
+      <c r="N27" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="13">
+        <v>11</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="57"/>
+      <c r="N28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="13">
+        <v>1</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="K29" s="13">
+        <v>12</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="58"/>
+      <c r="N29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="13">
+        <v>2</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="13">
+        <v>3</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="K31" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="13">
+        <v>4</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="K32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="53"/>
+      <c r="N32" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R32" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S32" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="13">
+        <v>5</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="55"/>
+      <c r="N33" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="P33" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="13">
+        <v>6</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="K34" s="13">
+        <v>2</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="55"/>
+      <c r="N34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q34" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="K35" s="13">
+        <v>3</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="55"/>
+      <c r="N35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P35" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q35" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="K36" s="13">
+        <v>4</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="13">
+        <v>5</v>
+      </c>
+      <c r="L37" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="57"/>
+      <c r="N37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="13">
+        <v>1</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="K38" s="13">
+        <v>6</v>
+      </c>
+      <c r="L38" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="55"/>
+      <c r="N38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="13">
+        <v>2</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="K39" s="13">
+        <v>7</v>
+      </c>
+      <c r="L39" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="55"/>
+      <c r="N39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="P39" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="13">
+        <v>3</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="K40" s="13">
+        <v>8</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" s="55"/>
+      <c r="N40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P40" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q40" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="13">
+        <v>4</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="K41" s="13">
+        <v>9</v>
+      </c>
+      <c r="L41" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="55"/>
+      <c r="N41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="K42" s="13">
+        <v>10</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="57"/>
+      <c r="N42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="K43" s="13">
+        <v>11</v>
+      </c>
+      <c r="L43" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="57"/>
+      <c r="N43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="13">
+        <v>12</v>
+      </c>
+      <c r="L44" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="58"/>
+      <c r="N44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="13">
+        <v>1</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="13">
+        <v>2</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="K46" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="13">
+        <v>3</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="K47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="53"/>
+      <c r="N47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R47" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="S47" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="13">
+        <v>4</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="K48" s="13">
+        <v>1</v>
+      </c>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="K49" s="13">
+        <v>2</v>
+      </c>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q49" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="13">
+        <v>1</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="O52" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED655676-4956-4463-8FEE-D5F09937871C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.75" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" style="2"/>
@@ -3984,7 +5265,7 @@
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18.75" customHeight="1" thickTop="1">
       <c r="K1" s="23"/>
       <c r="L1" s="24" t="s">
         <v>131</v>
@@ -4000,13 +5281,13 @@
       <c r="U1" s="25"/>
       <c r="V1" s="26"/>
     </row>
-    <row r="2" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -4020,104 +5301,104 @@
       <c r="U2" s="28"/>
       <c r="V2" s="29"/>
     </row>
-    <row r="3" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="18.75" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="56"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="S3" s="39" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="S3" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="36" t="s">
+      <c r="T3" s="64"/>
+      <c r="U3" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="37"/>
-    </row>
-    <row r="4" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="60"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.75" customHeight="1">
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="10" t="s">
         <v>74</v>
       </c>
       <c r="K4" s="27"/>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
       <c r="S4" s="35" t="s">
         <v>138</v>
       </c>
       <c r="T4" s="28"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="V4" s="64"/>
-    </row>
-    <row r="5" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="62"/>
+    </row>
+    <row r="5" spans="2:22" ht="18.75" customHeight="1">
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="10" t="s">
         <v>74</v>
       </c>
       <c r="K5" s="27"/>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="71"/>
       <c r="N5" s="28"/>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="42"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
@@ -4134,23 +5415,23 @@
       <c r="U6" s="32"/>
       <c r="V6" s="33"/>
     </row>
-    <row r="7" spans="2:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="18.75" customHeight="1" thickTop="1">
       <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="18.75" customHeight="1">
       <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="57"/>
@@ -4158,59 +5439,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" ht="18.75" customHeight="1">
       <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="56"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="18.75" customHeight="1">
       <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="56"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="18.75" customHeight="1">
       <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="18.75" customHeight="1">
       <c r="B12" s="13">
         <v>9</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="56"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="18.75" customHeight="1">
       <c r="B13" s="13">
         <v>10</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="56" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="57"/>
@@ -4218,11 +5499,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="18.75" customHeight="1">
       <c r="B14" s="13">
         <v>11</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="57"/>
@@ -4230,98 +5511,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="18.75" customHeight="1">
       <c r="B15" s="13">
         <v>12</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="56"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="13">
         <v>2</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="13">
         <v>5</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="57"/>
@@ -4329,64 +5610,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="13">
         <v>6</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="13">
         <v>7</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="13">
         <v>8</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="13">
         <v>9</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="13">
         <v>10</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="56" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="57"/>
@@ -4394,12 +5675,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="13">
         <v>11</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="57"/>
@@ -4407,54 +5688,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="13">
         <v>12</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="13">
         <v>1</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="8" t="s">
         <v>142</v>
       </c>
@@ -4462,28 +5743,28 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="13">
         <v>2</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="8" t="s">
         <v>144</v>
       </c>
@@ -4491,25 +5772,25 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="13">
         <v>4</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="13">
         <v>5</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="57"/>
@@ -4517,64 +5798,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="13">
         <v>6</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="13">
         <v>7</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="65" t="s">
+      <c r="D40" s="55"/>
+      <c r="E40" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="13">
         <v>8</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="62" t="s">
+      <c r="D41" s="55"/>
+      <c r="E41" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="13">
         <v>9</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="62" t="s">
+      <c r="D42" s="55"/>
+      <c r="E42" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="13">
         <v>10</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="57"/>
@@ -4582,12 +5863,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="13">
         <v>11</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="57"/>
@@ -4595,40 +5876,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="13">
         <v>12</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="54"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="60"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="6" t="s">
         <v>2</v>
       </c>
@@ -4643,16 +5924,16 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="13">
         <v>1</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="62" t="s">
+      <c r="D49" s="55"/>
+      <c r="E49" s="36" t="s">
         <v>149</v>
       </c>
       <c r="K49" s="7"/>
@@ -4663,16 +5944,16 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="13">
         <v>2</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="62" t="s">
+      <c r="D50" s="55"/>
+      <c r="E50" s="36" t="s">
         <v>150</v>
       </c>
       <c r="K50" s="7"/>
@@ -4683,16 +5964,16 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="13">
         <v>3</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="62" t="s">
+      <c r="D51" s="55"/>
+      <c r="E51" s="36" t="s">
         <v>151</v>
       </c>
       <c r="K51" s="7"/>
@@ -4703,16 +5984,16 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="13">
         <v>4</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="62" t="s">
+      <c r="D52" s="55"/>
+      <c r="E52" s="36" t="s">
         <v>152</v>
       </c>
       <c r="K52" s="7"/>
@@ -4723,12 +6004,12 @@
       <c r="P52" s="17"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="13">
         <v>5</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="57"/>
@@ -4743,15 +6024,15 @@
       <c r="P53" s="17"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="13">
         <v>6</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="56"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="5" t="s">
         <v>86</v>
       </c>
@@ -4763,16 +6044,16 @@
       <c r="P54" s="17"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="13">
         <v>7</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="62" t="s">
+      <c r="D55" s="55"/>
+      <c r="E55" s="36" t="s">
         <v>153</v>
       </c>
       <c r="K55" s="7"/>
@@ -4783,16 +6064,16 @@
       <c r="P55" s="17"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="13">
         <v>8</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="62" t="s">
+      <c r="D56" s="55"/>
+      <c r="E56" s="36" t="s">
         <v>154</v>
       </c>
       <c r="K56" s="7"/>
@@ -4803,16 +6084,16 @@
       <c r="P56" s="17"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="13">
         <v>9</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="62" t="s">
+      <c r="D57" s="55"/>
+      <c r="E57" s="36" t="s">
         <v>155</v>
       </c>
       <c r="K57" s="7"/>
@@ -4823,16 +6104,16 @@
       <c r="P57" s="17"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="13">
         <v>10</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="56" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="57"/>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="36" t="s">
         <v>156</v>
       </c>
       <c r="K58" s="7"/>
@@ -4843,12 +6124,12 @@
       <c r="P58" s="17"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="13">
         <v>11</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="57"/>
@@ -4863,15 +6144,15 @@
       <c r="P59" s="17"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="13">
         <v>12</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="54"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="5" t="s">
         <v>86</v>
       </c>
@@ -4883,7 +6164,7 @@
       <c r="P60" s="17"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="11"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4893,14 +6174,14 @@
       <c r="P61" s="17"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="11"/>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="16"/>
@@ -4909,15 +6190,15 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="60"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="6" t="s">
         <v>2</v>
       </c>
@@ -4929,15 +6210,15 @@
       <c r="P63" s="17"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="13">
         <v>1</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="56"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="8" t="s">
         <v>157</v>
       </c>
@@ -4952,15 +6233,15 @@
       <c r="P64" s="17"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="13">
         <v>2</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="56"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="8" t="s">
         <v>158</v>
       </c>
@@ -4972,15 +6253,15 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="13">
         <v>3</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="56"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="8" t="s">
         <v>159</v>
       </c>
@@ -4995,15 +6276,15 @@
       <c r="P66" s="17"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="13">
         <v>4</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="56"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="8" t="s">
         <v>160</v>
       </c>
@@ -5015,12 +6296,12 @@
       <c r="P67" s="17"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="13">
         <v>5</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="57"/>
@@ -5035,15 +6316,15 @@
       <c r="P68" s="17"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="13">
         <v>6</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="56"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="5" t="s">
         <v>86</v>
       </c>
@@ -5055,15 +6336,15 @@
       <c r="P69" s="17"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="13">
         <v>7</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="56"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="8" t="s">
         <v>161</v>
       </c>
@@ -5078,15 +6359,15 @@
       <c r="P70" s="17"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="13">
         <v>8</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="56"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="8" t="s">
         <v>162</v>
       </c>
@@ -5098,15 +6379,15 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="13">
         <v>9</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="56"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="10" t="s">
         <v>74</v>
       </c>
@@ -5115,12 +6396,12 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="13">
         <v>10</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D73" s="57"/>
@@ -5128,12 +6409,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="13">
         <v>11</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="57"/>
@@ -5141,95 +6422,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="13">
         <v>12</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="54"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="58" t="s">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
+      <c r="B77" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="B78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="60"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="B79" s="13">
         <v>1</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="56"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="B80" s="13">
         <v>2</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="56"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="18.75" customHeight="1">
       <c r="B81" s="13">
         <v>3</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C81" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="56"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="18.75" customHeight="1">
       <c r="B82" s="13">
         <v>4</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="56"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="18.75" customHeight="1">
       <c r="B83" s="13">
         <v>5</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="57"/>
@@ -5237,59 +6518,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="18.75" customHeight="1">
       <c r="B84" s="13">
         <v>6</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="56"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="18.75" customHeight="1">
       <c r="B85" s="13">
         <v>7</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="56"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="18.75" customHeight="1">
       <c r="B86" s="13">
         <v>8</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="56"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="18.75" customHeight="1">
       <c r="B87" s="13">
         <v>9</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="56"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="18.75" customHeight="1">
       <c r="B88" s="13">
         <v>10</v>
       </c>
-      <c r="C88" s="53" t="s">
+      <c r="C88" s="56" t="s">
         <v>61</v>
       </c>
       <c r="D88" s="57"/>
@@ -5297,11 +6578,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="18.75" customHeight="1">
       <c r="B89" s="13">
         <v>11</v>
       </c>
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="57"/>
@@ -5309,44 +6590,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="18.75" customHeight="1">
       <c r="B90" s="13">
         <v>12</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="C90" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="54"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="58" t="s">
+    <row r="92" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B92" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="58"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="58"/>
-    </row>
-    <row r="93" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+    </row>
+    <row r="93" spans="2:9" ht="18.75" customHeight="1">
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="60"/>
+      <c r="D93" s="53"/>
       <c r="E93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="18.75" customHeight="1">
       <c r="B94" s="13">
         <v>1</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="57"/>
@@ -5354,35 +6635,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="18.75" customHeight="1">
       <c r="B95" s="13">
         <v>2</v>
       </c>
-      <c r="C95" s="55" t="s">
+      <c r="C95" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="56"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="18.75" customHeight="1">
       <c r="B96" s="13">
         <v>3</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="56"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" ht="18.75" customHeight="1">
       <c r="B97" s="13">
         <v>4</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="57"/>
@@ -5390,11 +6671,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" ht="18.75" customHeight="1">
       <c r="B98" s="13">
         <v>5</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="56" t="s">
         <v>81</v>
       </c>
       <c r="D98" s="57"/>
@@ -5402,23 +6683,23 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" ht="18.75" customHeight="1">
       <c r="B99" s="13">
         <v>6</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="56"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" ht="18.75" customHeight="1">
       <c r="B100" s="13">
         <v>7</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="57"/>
@@ -5426,35 +6707,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" ht="18.75" customHeight="1">
       <c r="B101" s="13">
         <v>8</v>
       </c>
-      <c r="C101" s="55" t="s">
+      <c r="C101" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="56"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" ht="18.75" customHeight="1">
       <c r="B102" s="13">
         <v>9</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="56"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" ht="18.75" customHeight="1">
       <c r="B103" s="13">
         <v>10</v>
       </c>
-      <c r="C103" s="53" t="s">
+      <c r="C103" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="57"/>
@@ -5462,35 +6743,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" ht="18.75" customHeight="1">
       <c r="B104" s="13">
         <v>11</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="56" t="s">
         <v>85</v>
       </c>
       <c r="D104" s="57"/>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" ht="18.75" customHeight="1">
       <c r="B105" s="13">
         <v>12</v>
       </c>
-      <c r="C105" s="53" t="s">
+      <c r="C105" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="54"/>
+      <c r="D105" s="58"/>
       <c r="E105" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" ht="18.75" customHeight="1">
       <c r="B106" s="13">
         <v>13</v>
       </c>
-      <c r="C106" s="53" t="s">
+      <c r="C106" s="56" t="s">
         <v>71</v>
       </c>
       <c r="D106" s="57"/>
@@ -5498,11 +6779,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" ht="18.75" customHeight="1">
       <c r="B107" s="13">
         <v>14</v>
       </c>
-      <c r="C107" s="53" t="s">
+      <c r="C107" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D107" s="57"/>
@@ -5510,14 +6791,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" ht="18.75" customHeight="1">
       <c r="B108" s="13">
         <v>15</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="54"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="5" t="s">
         <v>7</v>
       </c>
@@ -5641,19 +6922,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5583429C-5B1F-4CD8-A06D-7D7E7D438528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5667,7 +6948,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5681,7 +6962,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5695,7 +6976,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5709,7 +6990,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5723,14 +7004,14 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="2"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5739,7 +7020,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="14" t="s">
         <v>0</v>
@@ -5759,15 +7040,15 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="52"/>
+      <c r="C8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="77"/>
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
@@ -5779,15 +7060,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5799,15 +7080,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="8" t="s">
         <v>159</v>
       </c>
@@ -5819,15 +7100,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="8" t="s">
         <v>160</v>
       </c>
@@ -5839,7 +7120,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5853,7 +7134,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -5867,7 +7148,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -5881,7 +7162,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -5895,7 +7176,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5909,7 +7190,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -5923,7 +7204,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -5937,7 +7218,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5951,7 +7232,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5965,7 +7246,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -5979,7 +7260,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -5993,7 +7274,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6007,7 +7288,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6021,7 +7302,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6035,7 +7316,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6049,7 +7330,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6063,7 +7344,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6077,7 +7358,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6091,7 +7372,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6105,7 +7386,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6119,7 +7400,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6133,7 +7414,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6147,7 +7428,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6161,7 +7442,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6189,19 +7470,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBBFF06-A772-4EE2-ADA8-D7D4406ED241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6217,7 +7498,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6233,7 +7514,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6249,7 +7530,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6265,15 +7546,15 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6283,7 +7564,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
@@ -6305,16 +7586,16 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="52"/>
+      <c r="D7" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="77"/>
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6327,16 +7608,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
@@ -6349,16 +7630,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="8" t="s">
         <v>161</v>
       </c>
@@ -6371,16 +7652,16 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="8" t="s">
         <v>162</v>
       </c>
@@ -6393,7 +7674,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6409,7 +7690,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6425,7 +7706,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6441,7 +7722,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6457,7 +7738,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6473,7 +7754,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6489,7 +7770,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6505,7 +7786,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6521,7 +7802,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6537,7 +7818,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6553,7 +7834,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6569,7 +7850,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6585,7 +7866,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6601,7 +7882,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6617,7 +7898,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6633,7 +7914,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6649,7 +7930,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6665,7 +7946,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6681,7 +7962,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6697,7 +7978,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6713,7 +7994,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6729,7 +8010,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6745,7 +8026,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6761,7 +8042,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6777,7 +8058,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6793,7 +8074,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6809,7 +8090,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6825,7 +8106,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6841,7 +8122,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -6857,7 +8138,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -6873,7 +8154,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -6903,19 +8184,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A462FC0-0281-49EE-A550-9AD7F0F68CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6929,7 +8210,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6943,14 +8224,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -6959,7 +8240,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="14" t="s">
         <v>0</v>
@@ -6979,15 +8260,15 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="52"/>
+      <c r="D8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="77"/>
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
@@ -6999,15 +8280,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="5" t="s">
         <v>68</v>
       </c>
@@ -7019,16 +8300,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="62" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="36" t="s">
         <v>163</v>
       </c>
       <c r="G10" s="2"/>
@@ -7039,16 +8320,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="36" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="2"/>
@@ -7059,7 +8340,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7073,7 +8354,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7087,7 +8368,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7101,7 +8382,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7129,19 +8410,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C752803-28CA-4B3A-9575-B771CAC3EC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7158,7 +8439,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7175,7 +8456,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7192,7 +8473,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7209,15 +8490,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -7228,7 +8509,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="14" t="s">
@@ -7251,16 +8532,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="10" t="s">
         <v>74</v>
       </c>
@@ -7274,16 +8555,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="10" t="s">
         <v>74</v>
       </c>
@@ -7297,16 +8578,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="10" t="s">
         <v>74</v>
       </c>
@@ -7320,16 +8601,16 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="13">
         <v>4</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="10" t="s">
         <v>74</v>
       </c>
@@ -7343,16 +8624,16 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="10" t="s">
         <v>74</v>
       </c>
@@ -7366,16 +8647,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13">
         <v>6</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="10" t="s">
         <v>74</v>
       </c>
@@ -7389,16 +8670,16 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="13">
         <v>7</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="5" t="s">
         <v>68</v>
       </c>
@@ -7412,16 +8693,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="13">
         <v>8</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="52"/>
+      <c r="E15" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="77"/>
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
@@ -7435,16 +8716,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13">
         <v>9</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="52"/>
+      <c r="E16" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="77"/>
       <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
@@ -7458,16 +8739,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="13">
         <v>10</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="10" t="s">
         <v>74</v>
       </c>
@@ -7481,16 +8762,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="13">
         <v>11</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="8" t="s">
         <v>157</v>
       </c>
@@ -7504,16 +8785,16 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="13">
         <v>12</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="8" t="s">
         <v>158</v>
       </c>
@@ -7527,16 +8808,16 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13">
         <v>13</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="10" t="s">
         <v>74</v>
       </c>
@@ -7550,16 +8831,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="13">
         <v>14</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="10" t="s">
         <v>74</v>
       </c>
@@ -7573,16 +8854,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="13">
         <v>15</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="9" t="s">
         <v>77</v>
       </c>
@@ -7598,16 +8879,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="13">
         <v>16</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="48"/>
+      <c r="F23" s="78"/>
       <c r="G23" s="10" t="s">
         <v>74</v>
       </c>
@@ -7621,7 +8902,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -7638,7 +8919,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -7655,7 +8936,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -7672,7 +8953,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -7689,7 +8970,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7706,7 +8987,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -7723,7 +9004,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7740,7 +9021,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -7757,7 +9038,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7774,7 +9055,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -7802,6 +9083,7 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E9:F9"/>
@@ -7809,7 +9091,6 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7817,19 +9098,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3764B2-4AF5-4EAF-BFDA-1F2595883899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7849,7 +9130,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7869,7 +9150,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7889,7 +9170,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -7909,7 +9190,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -7929,15 +9210,15 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -7951,7 +9232,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="14" t="s">
@@ -7977,16 +9258,16 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="9" t="s">
         <v>106</v>
       </c>
@@ -8005,16 +9286,16 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="9" t="s">
         <v>107</v>
       </c>
@@ -8033,16 +9314,16 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="9" t="s">
         <v>108</v>
       </c>
@@ -8061,16 +9342,16 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="9" t="s">
         <v>109</v>
       </c>
@@ -8089,16 +9370,16 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="13">
         <v>5</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="52"/>
+      <c r="E15" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="77"/>
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
@@ -8115,16 +9396,16 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13">
         <v>6</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="5" t="s">
         <v>68</v>
       </c>
@@ -8141,16 +9422,16 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="9" t="s">
         <v>110</v>
       </c>
@@ -8169,16 +9450,16 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="13">
         <v>8</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="9" t="s">
         <v>111</v>
       </c>
@@ -8197,16 +9478,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="13">
         <v>9</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="9" t="s">
         <v>112</v>
       </c>
@@ -8225,16 +9506,16 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13">
         <v>10</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="9" t="s">
         <v>113</v>
       </c>
@@ -8253,16 +9534,16 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="13">
         <v>11</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="52"/>
+      <c r="E21" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="77"/>
       <c r="G21" s="4" t="s">
         <v>3</v>
       </c>
@@ -8279,16 +9560,16 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="13">
         <v>12</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="5" t="s">
         <v>68</v>
       </c>
@@ -8305,7 +9586,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -8325,7 +9606,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -8345,7 +9626,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -8365,7 +9646,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -8385,7 +9666,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8405,7 +9686,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8425,7 +9706,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -8445,7 +9726,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -8465,7 +9746,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8485,7 +9766,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8505,7 +9786,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -8525,7 +9806,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" ht="15.75">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -8567,19 +9848,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07BF930-BAEB-453A-875E-890164BD1638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8593,7 +9874,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8607,7 +9888,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -8621,15 +9902,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8637,7 +9918,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="14" t="s">
@@ -8657,16 +9938,16 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="48"/>
+      <c r="E8" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="78"/>
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
@@ -8677,16 +9958,16 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="34" t="s">
         <v>123</v>
       </c>
@@ -8697,16 +9978,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="34" t="s">
         <v>124</v>
       </c>
@@ -8717,16 +9998,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="13">
         <v>4</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="48"/>
+      <c r="E11" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="78"/>
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
@@ -8737,16 +10018,16 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="13">
         <v>5</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="34" t="s">
         <v>125</v>
       </c>
@@ -8757,16 +10038,16 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="13">
         <v>6</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="34" t="s">
         <v>126</v>
       </c>
@@ -8777,16 +10058,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="13">
         <v>7</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="48"/>
+      <c r="E14" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="78"/>
       <c r="G14" s="4" t="s">
         <v>3</v>
       </c>
@@ -8797,16 +10078,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="13">
         <v>8</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="34" t="s">
         <v>120</v>
       </c>
@@ -8817,16 +10098,16 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="13">
         <v>9</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="34" t="s">
         <v>121</v>
       </c>
@@ -8837,16 +10118,16 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="13">
         <v>10</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="48"/>
+      <c r="E17" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="78"/>
       <c r="G17" s="4" t="s">
         <v>3</v>
       </c>
@@ -8857,16 +10138,16 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="13">
         <v>11</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="48"/>
+      <c r="F18" s="78"/>
       <c r="G18" s="9" t="s">
         <v>127</v>
       </c>
@@ -8877,16 +10158,16 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="13">
         <v>12</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="48"/>
+      <c r="F19" s="78"/>
       <c r="G19" s="10" t="s">
         <v>74</v>
       </c>
@@ -8897,16 +10178,16 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="13">
         <v>13</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="9" t="s">
         <v>128</v>
       </c>
@@ -8917,16 +10198,16 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="13">
         <v>14</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="78"/>
       <c r="G21" s="9" t="s">
         <v>129</v>
       </c>
@@ -8937,16 +10218,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="13">
         <v>15</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="48"/>
+      <c r="F22" s="78"/>
       <c r="G22" s="5" t="s">
         <v>7</v>
       </c>
@@ -8957,7 +10238,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -8971,7 +10252,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -8985,7 +10266,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9001,12 +10282,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -9017,6 +10292,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="236">
   <si>
     <t>Pin #</t>
   </si>
@@ -665,15 +665,6 @@
     <t>CAPTEUR ULTRASON N°X</t>
   </si>
   <si>
-    <t>US_X_TRIG</t>
-  </si>
-  <si>
-    <t>US_X_ECHO</t>
-  </si>
-  <si>
-    <t>US_X_VDD</t>
-  </si>
-  <si>
     <t>US_X_GND</t>
   </si>
   <si>
@@ -714,6 +705,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>US_X_ECHO_5V</t>
+  </si>
+  <si>
+    <t>US_X_TRIG_5V</t>
+  </si>
+  <si>
+    <t>US_X_VDD_5V</t>
+  </si>
+  <si>
+    <t>US_5_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_5_ECHO_3V3</t>
+  </si>
+  <si>
+    <t>US_1_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_1_ECHO_3V3</t>
+  </si>
+  <si>
+    <t>US_2_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_2_ECHO_3V3</t>
+  </si>
+  <si>
+    <t>US_3_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_3_ECHO_3V3</t>
+  </si>
+  <si>
+    <t>US_4_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_4_ECHO_3V3</t>
   </si>
 </sst>
 </file>
@@ -1326,6 +1356,10 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1333,10 +1367,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1449,19 +1479,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:colOff>163606</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1475,8 +1505,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="904875"/>
-          <a:ext cx="14411325" cy="19164300"/>
+          <a:off x="851647" y="179294"/>
+          <a:ext cx="14439900" cy="18808513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2140,12 +2170,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2156,10 +2186,10 @@
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
@@ -2183,10 +2213,10 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="39" t="s">
         <v>74</v>
       </c>
@@ -2200,10 +2230,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="39" t="s">
         <v>74</v>
       </c>
@@ -2217,10 +2247,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="39" t="s">
         <v>74</v>
       </c>
@@ -2234,10 +2264,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="39" t="s">
         <v>74</v>
       </c>
@@ -2268,10 +2298,10 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="41" t="s">
         <v>86</v>
       </c>
@@ -2285,10 +2315,10 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="39" t="s">
         <v>74</v>
       </c>
@@ -2302,10 +2332,10 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="39" t="s">
         <v>74</v>
       </c>
@@ -2319,10 +2349,10 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="39" t="s">
         <v>74</v>
       </c>
@@ -2395,12 +2425,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2411,10 +2441,10 @@
       <c r="A17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="6" t="s">
         <v>165</v>
       </c>
@@ -2438,10 +2468,10 @@
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="10" t="s">
         <v>74</v>
       </c>
@@ -2455,10 +2485,10 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="10" t="s">
         <v>74</v>
       </c>
@@ -2472,10 +2502,10 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="10" t="s">
         <v>74</v>
       </c>
@@ -2489,10 +2519,10 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="10" t="s">
         <v>74</v>
       </c>
@@ -2523,10 +2553,10 @@
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="5" t="s">
         <v>86</v>
       </c>
@@ -2540,10 +2570,10 @@
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="10" t="s">
         <v>74</v>
       </c>
@@ -2557,10 +2587,10 @@
       <c r="A25" s="13">
         <v>8</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10" t="s">
         <v>74</v>
       </c>
@@ -2574,10 +2604,10 @@
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10" t="s">
         <v>74</v>
       </c>
@@ -2639,12 +2669,12 @@
       <c r="I29" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2656,10 +2686,10 @@
       <c r="A32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="6" t="s">
         <v>165</v>
       </c>
@@ -2684,10 +2714,10 @@
       <c r="A33" s="13">
         <v>1</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="9" t="s">
         <v>106</v>
       </c>
@@ -2702,10 +2732,10 @@
       <c r="A34" s="13">
         <v>2</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="9" t="s">
         <v>107</v>
       </c>
@@ -2720,10 +2750,10 @@
       <c r="A35" s="13">
         <v>3</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="9" t="s">
         <v>108</v>
       </c>
@@ -2738,10 +2768,10 @@
       <c r="A36" s="13">
         <v>4</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="9" t="s">
         <v>109</v>
       </c>
@@ -2774,10 +2804,10 @@
       <c r="A38" s="13">
         <v>6</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="55"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="5" t="s">
         <v>68</v>
       </c>
@@ -2792,10 +2822,10 @@
       <c r="A39" s="13">
         <v>7</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="55"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="9" t="s">
         <v>110</v>
       </c>
@@ -2810,10 +2840,10 @@
       <c r="A40" s="13">
         <v>8</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="9" t="s">
         <v>111</v>
       </c>
@@ -2828,10 +2858,10 @@
       <c r="A41" s="13">
         <v>9</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="55"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="9" t="s">
         <v>112</v>
       </c>
@@ -2909,12 +2939,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2926,10 +2956,10 @@
       <c r="A47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="6" t="s">
         <v>165</v>
       </c>
@@ -2974,10 +3004,10 @@
       <c r="A49" s="13">
         <v>2</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="55"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="34" t="s">
         <v>123</v>
       </c>
@@ -2994,10 +3024,10 @@
       <c r="A50" s="13">
         <v>3</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="55"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="34" t="s">
         <v>124</v>
       </c>
@@ -3054,10 +3084,10 @@
       <c r="A53" s="13">
         <v>6</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="55"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="34" t="s">
         <v>126</v>
       </c>
@@ -3094,10 +3124,10 @@
       <c r="A55" s="13">
         <v>8</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="55"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="34" t="s">
         <v>120</v>
       </c>
@@ -3114,10 +3144,10 @@
       <c r="A56" s="13">
         <v>9</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="55"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="34" t="s">
         <v>121</v>
       </c>
@@ -3328,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3352,27 +3382,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="K1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="K1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="6" t="s">
         <v>165</v>
       </c>
@@ -3394,10 +3424,10 @@
       <c r="K2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="6" t="s">
         <v>165</v>
       </c>
@@ -3421,8 +3451,8 @@
       <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="8" t="s">
         <v>173</v>
       </c>
@@ -3440,10 +3470,10 @@
       <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="8" t="s">
         <v>173</v>
       </c>
@@ -3463,8 +3493,8 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="8" t="s">
         <v>172</v>
       </c>
@@ -3482,10 +3512,10 @@
       <c r="K4" s="13">
         <v>2</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="8" t="s">
         <v>172</v>
       </c>
@@ -3505,8 +3535,8 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="8" t="s">
         <v>199</v>
       </c>
@@ -3524,10 +3554,10 @@
       <c r="K5" s="13">
         <v>3</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="55"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="8" t="s">
         <v>175</v>
       </c>
@@ -3547,8 +3577,8 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="8" t="s">
         <v>200</v>
       </c>
@@ -3566,10 +3596,10 @@
       <c r="K6" s="13">
         <v>4</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="55"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="8" t="s">
         <v>174</v>
       </c>
@@ -3629,8 +3659,8 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="8" t="s">
         <v>202</v>
       </c>
@@ -3648,10 +3678,10 @@
       <c r="K8" s="13">
         <v>6</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="55"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="5" t="s">
         <v>86</v>
       </c>
@@ -3669,10 +3699,10 @@
       <c r="K9" s="13">
         <v>7</v>
       </c>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="55"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="37" t="s">
         <v>178</v>
       </c>
@@ -3689,21 +3719,21 @@
       <c r="S9" s="42"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="K10" s="13">
         <v>8</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="L10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="55"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="36" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="O10" s="36" t="s">
         <v>179</v>
@@ -3721,10 +3751,10 @@
       <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="6" t="s">
         <v>165</v>
       </c>
@@ -3746,12 +3776,12 @@
       <c r="K11" s="13">
         <v>9</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="55"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="36" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="O11" s="36" t="s">
         <v>180</v>
@@ -3769,8 +3799,8 @@
       <c r="A12" s="13">
         <v>1</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="46" t="s">
         <v>204</v>
       </c>
@@ -3805,8 +3835,8 @@
       <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="49" t="s">
         <v>206</v>
       </c>
@@ -3843,8 +3873,8 @@
       <c r="A14" s="13">
         <v>3</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="46" t="s">
         <v>205</v>
       </c>
@@ -3881,8 +3911,8 @@
       <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="8" t="s">
         <v>175</v>
       </c>
@@ -3918,19 +3948,19 @@
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="13">
         <v>6</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="8" t="s">
         <v>207</v>
       </c>
@@ -3946,10 +3976,10 @@
       <c r="K17" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="53"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="6" t="s">
         <v>165</v>
       </c>
@@ -3973,8 +4003,8 @@
       <c r="A18" s="13">
         <v>7</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="8" t="s">
         <v>178</v>
       </c>
@@ -3992,12 +4022,12 @@
       <c r="K18" s="13">
         <v>1</v>
       </c>
-      <c r="L18" s="54" t="s">
+      <c r="L18" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="55"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="36" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="O18" s="36" t="s">
         <v>181</v>
@@ -4015,12 +4045,12 @@
       <c r="K19" s="13">
         <v>2</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="55"/>
+      <c r="M19" s="52"/>
       <c r="N19" s="36" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>182</v>
@@ -4035,21 +4065,21 @@
       <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="K20" s="13">
         <v>3</v>
       </c>
-      <c r="L20" s="54" t="s">
+      <c r="L20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="55"/>
+      <c r="M20" s="52"/>
       <c r="N20" s="36" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="O20" s="36" t="s">
         <v>183</v>
@@ -4067,10 +4097,10 @@
       <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="6" t="s">
         <v>165</v>
       </c>
@@ -4092,12 +4122,12 @@
       <c r="K21" s="13">
         <v>4</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="36" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="O21" s="36" t="s">
         <v>184</v>
@@ -4115,10 +4145,10 @@
       <c r="A22" s="13">
         <v>1</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="47" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>74</v>
@@ -4153,10 +4183,10 @@
       <c r="A23" s="13">
         <v>2</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="36" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>74</v>
@@ -4172,10 +4202,10 @@
       <c r="K23" s="13">
         <v>6</v>
       </c>
-      <c r="L23" s="54" t="s">
+      <c r="L23" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="55"/>
+      <c r="M23" s="52"/>
       <c r="N23" s="5" t="s">
         <v>86</v>
       </c>
@@ -4193,10 +4223,10 @@
       <c r="A24" s="13">
         <v>3</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="36" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>74</v>
@@ -4212,12 +4242,12 @@
       <c r="K24" s="13">
         <v>7</v>
       </c>
-      <c r="L24" s="54" t="s">
+      <c r="L24" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="55"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="36" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="O24" s="36" t="s">
         <v>185</v>
@@ -4235,10 +4265,10 @@
       <c r="A25" s="13">
         <v>4</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>74</v>
@@ -4252,12 +4282,12 @@
       <c r="K25" s="13">
         <v>8</v>
       </c>
-      <c r="L25" s="54" t="s">
+      <c r="L25" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="55"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="36" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="O25" s="36" t="s">
         <v>186</v>
@@ -4275,12 +4305,12 @@
       <c r="K26" s="13">
         <v>9</v>
       </c>
-      <c r="L26" s="54" t="s">
+      <c r="L26" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="55"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="36" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>187</v>
@@ -4295,12 +4325,12 @@
       <c r="S26" s="42"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="K27" s="13">
         <v>10</v>
       </c>
@@ -4309,7 +4339,7 @@
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="36" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="O27" s="36" t="s">
         <v>188</v>
@@ -4327,10 +4357,10 @@
       <c r="A28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="6" t="s">
         <v>165</v>
       </c>
@@ -4373,10 +4403,10 @@
       <c r="A29" s="13">
         <v>1</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>74</v>
@@ -4411,10 +4441,10 @@
       <c r="A30" s="13">
         <v>2</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>74</v>
@@ -4430,10 +4460,10 @@
       <c r="A31" s="13">
         <v>3</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>74</v>
@@ -4446,19 +4476,19 @@
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="13">
         <v>4</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="8" t="s">
         <v>189</v>
       </c>
@@ -4476,10 +4506,10 @@
       <c r="K32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="53"/>
+      <c r="M32" s="55"/>
       <c r="N32" s="6" t="s">
         <v>165</v>
       </c>
@@ -4522,10 +4552,10 @@
       <c r="K33" s="13">
         <v>1</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="L33" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="55"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="8" t="s">
         <v>189</v>
       </c>
@@ -4545,10 +4575,10 @@
       <c r="A34" s="13">
         <v>6</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>74</v>
@@ -4562,10 +4592,10 @@
       <c r="K34" s="13">
         <v>2</v>
       </c>
-      <c r="L34" s="54" t="s">
+      <c r="L34" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="55"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="8" t="s">
         <v>190</v>
       </c>
@@ -4585,10 +4615,10 @@
       <c r="K35" s="13">
         <v>3</v>
       </c>
-      <c r="L35" s="54" t="s">
+      <c r="L35" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="55"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="8" t="s">
         <v>191</v>
       </c>
@@ -4605,19 +4635,19 @@
       <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="K36" s="13">
         <v>4</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="L36" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="55"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="8" t="s">
         <v>192</v>
       </c>
@@ -4637,10 +4667,10 @@
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="6" t="s">
         <v>165</v>
       </c>
@@ -4683,10 +4713,10 @@
       <c r="A38" s="13">
         <v>1</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>74</v>
@@ -4700,10 +4730,10 @@
       <c r="K38" s="13">
         <v>6</v>
       </c>
-      <c r="L38" s="54" t="s">
+      <c r="L38" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="55"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="5" t="s">
         <v>86</v>
       </c>
@@ -4721,10 +4751,10 @@
       <c r="A39" s="13">
         <v>2</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>74</v>
@@ -4738,10 +4768,10 @@
       <c r="K39" s="13">
         <v>7</v>
       </c>
-      <c r="L39" s="54" t="s">
+      <c r="L39" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="55"/>
+      <c r="M39" s="52"/>
       <c r="N39" s="8" t="s">
         <v>194</v>
       </c>
@@ -4761,8 +4791,8 @@
       <c r="A40" s="13">
         <v>3</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="55"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="8" t="s">
         <v>191</v>
       </c>
@@ -4780,10 +4810,10 @@
       <c r="K40" s="13">
         <v>8</v>
       </c>
-      <c r="L40" s="54" t="s">
+      <c r="L40" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="55"/>
+      <c r="M40" s="52"/>
       <c r="N40" s="8" t="s">
         <v>195</v>
       </c>
@@ -4803,8 +4833,8 @@
       <c r="A41" s="13">
         <v>4</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="8" t="s">
         <v>192</v>
       </c>
@@ -4822,10 +4852,10 @@
       <c r="K41" s="13">
         <v>9</v>
       </c>
-      <c r="L41" s="54" t="s">
+      <c r="L41" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="55"/>
+      <c r="M41" s="52"/>
       <c r="N41" s="10" t="s">
         <v>74</v>
       </c>
@@ -4857,12 +4887,12 @@
       <c r="S42" s="42"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
       <c r="K43" s="13">
         <v>11</v>
       </c>
@@ -4887,10 +4917,10 @@
       <c r="A44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="6" t="s">
         <v>165</v>
       </c>
@@ -4933,17 +4963,17 @@
       <c r="A45" s="13">
         <v>1</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="49" t="s">
-        <v>220</v>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
@@ -4952,33 +4982,33 @@
       <c r="A46" s="13">
         <v>2</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="45" t="s">
-        <v>221</v>
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="49" t="s">
+        <v>217</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
-      <c r="K46" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
+      <c r="K46" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="13">
         <v>3</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="8" t="s">
         <v>194</v>
       </c>
@@ -4996,10 +5026,10 @@
       <c r="K47" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="52" t="s">
+      <c r="L47" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="53"/>
+      <c r="M47" s="55"/>
       <c r="N47" s="6" t="s">
         <v>165</v>
       </c>
@@ -5023,8 +5053,8 @@
       <c r="A48" s="13">
         <v>4</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="55"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="8" t="s">
         <v>195</v>
       </c>
@@ -5042,8 +5072,8 @@
       <c r="K48" s="13">
         <v>1</v>
       </c>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="52"/>
       <c r="N48" s="8" t="s">
         <v>199</v>
       </c>
@@ -5063,8 +5093,8 @@
       <c r="K49" s="13">
         <v>2</v>
       </c>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="52"/>
       <c r="N49" s="8" t="s">
         <v>200</v>
       </c>
@@ -5081,21 +5111,21 @@
       <c r="S49" s="42"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="A50" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="6" t="s">
         <v>165</v>
       </c>
@@ -5119,10 +5149,10 @@
       <c r="A52" s="13">
         <v>1</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>74</v>
@@ -5134,39 +5164,34 @@
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
       <c r="O52" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="L23:M23"/>
@@ -5194,10 +5219,6 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -5208,15 +5229,22 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="K46:N46"/>
     <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="B25:C25"/>
@@ -5231,6 +5259,8 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5282,12 +5312,12 @@
       <c r="V1" s="26"/>
     </row>
     <row r="2" spans="2:22" ht="18.75" customHeight="1">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -5308,7 +5338,7 @@
       <c r="C3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5336,10 +5366,10 @@
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="10" t="s">
         <v>74</v>
       </c>
@@ -5367,10 +5397,10 @@
       <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="10" t="s">
         <v>74</v>
       </c>
@@ -5395,10 +5425,10 @@
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="10" t="s">
         <v>74</v>
       </c>
@@ -5419,10 +5449,10 @@
       <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="10" t="s">
         <v>74</v>
       </c>
@@ -5443,10 +5473,10 @@
       <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
@@ -5455,10 +5485,10 @@
       <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="10" t="s">
         <v>74</v>
       </c>
@@ -5467,10 +5497,10 @@
       <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="10" t="s">
         <v>74</v>
       </c>
@@ -5479,10 +5509,10 @@
       <c r="B12" s="13">
         <v>9</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="10" t="s">
         <v>74</v>
       </c>
@@ -5525,22 +5555,22 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5550,10 +5580,10 @@
       <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="10" t="s">
         <v>74</v>
       </c>
@@ -5563,10 +5593,10 @@
       <c r="B20" s="13">
         <v>2</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="10" t="s">
         <v>74</v>
       </c>
@@ -5576,10 +5606,10 @@
       <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="10" t="s">
         <v>74</v>
       </c>
@@ -5589,10 +5619,10 @@
       <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="10" t="s">
         <v>74</v>
       </c>
@@ -5615,10 +5645,10 @@
       <c r="B24" s="13">
         <v>6</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="5" t="s">
         <v>86</v>
       </c>
@@ -5628,10 +5658,10 @@
       <c r="B25" s="13">
         <v>7</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="10" t="s">
         <v>74</v>
       </c>
@@ -5641,10 +5671,10 @@
       <c r="B26" s="13">
         <v>8</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="10" t="s">
         <v>74</v>
       </c>
@@ -5654,10 +5684,10 @@
       <c r="B27" s="13">
         <v>9</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="10" t="s">
         <v>74</v>
       </c>
@@ -5706,22 +5736,22 @@
     </row>
     <row r="32" spans="1:5" ht="18.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
@@ -5732,10 +5762,10 @@
       <c r="B34" s="13">
         <v>1</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="8" t="s">
         <v>142</v>
       </c>
@@ -5748,10 +5778,10 @@
       <c r="B35" s="13">
         <v>2</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="8" t="s">
         <v>143</v>
       </c>
@@ -5761,10 +5791,10 @@
       <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="8" t="s">
         <v>144</v>
       </c>
@@ -5777,10 +5807,10 @@
       <c r="B37" s="13">
         <v>4</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="8" t="s">
         <v>145</v>
       </c>
@@ -5803,10 +5833,10 @@
       <c r="B39" s="13">
         <v>6</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="55"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="5" t="s">
         <v>86</v>
       </c>
@@ -5816,10 +5846,10 @@
       <c r="B40" s="13">
         <v>7</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="37" t="s">
         <v>148</v>
       </c>
@@ -5829,10 +5859,10 @@
       <c r="B41" s="13">
         <v>8</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="36" t="s">
         <v>146</v>
       </c>
@@ -5842,10 +5872,10 @@
       <c r="B42" s="13">
         <v>9</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="55"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="36" t="s">
         <v>147</v>
       </c>
@@ -5894,22 +5924,22 @@
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="11"/>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="53"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="6" t="s">
         <v>2</v>
       </c>
@@ -5929,10 +5959,10 @@
       <c r="B49" s="13">
         <v>1</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="36" t="s">
         <v>149</v>
       </c>
@@ -5949,10 +5979,10 @@
       <c r="B50" s="13">
         <v>2</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="36" t="s">
         <v>150</v>
       </c>
@@ -5969,10 +5999,10 @@
       <c r="B51" s="13">
         <v>3</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="55"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="36" t="s">
         <v>151</v>
       </c>
@@ -5989,10 +6019,10 @@
       <c r="B52" s="13">
         <v>4</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="55"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="36" t="s">
         <v>152</v>
       </c>
@@ -6029,10 +6059,10 @@
       <c r="B54" s="13">
         <v>6</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="55"/>
+      <c r="D54" s="52"/>
       <c r="E54" s="5" t="s">
         <v>86</v>
       </c>
@@ -6049,10 +6079,10 @@
       <c r="B55" s="13">
         <v>7</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="55"/>
+      <c r="D55" s="52"/>
       <c r="E55" s="36" t="s">
         <v>153</v>
       </c>
@@ -6069,10 +6099,10 @@
       <c r="B56" s="13">
         <v>8</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="55"/>
+      <c r="D56" s="52"/>
       <c r="E56" s="36" t="s">
         <v>154</v>
       </c>
@@ -6089,10 +6119,10 @@
       <c r="B57" s="13">
         <v>9</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="36" t="s">
         <v>155</v>
       </c>
@@ -6176,12 +6206,12 @@
     </row>
     <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="11"/>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="16"/>
@@ -6195,10 +6225,10 @@
       <c r="B63" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="53"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="6" t="s">
         <v>2</v>
       </c>
@@ -6215,10 +6245,10 @@
       <c r="B64" s="13">
         <v>1</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="52"/>
       <c r="E64" s="8" t="s">
         <v>157</v>
       </c>
@@ -6238,10 +6268,10 @@
       <c r="B65" s="13">
         <v>2</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="55"/>
+      <c r="D65" s="52"/>
       <c r="E65" s="8" t="s">
         <v>158</v>
       </c>
@@ -6258,10 +6288,10 @@
       <c r="B66" s="13">
         <v>3</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="55"/>
+      <c r="D66" s="52"/>
       <c r="E66" s="8" t="s">
         <v>159</v>
       </c>
@@ -6281,10 +6311,10 @@
       <c r="B67" s="13">
         <v>4</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="55"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="8" t="s">
         <v>160</v>
       </c>
@@ -6321,10 +6351,10 @@
       <c r="B69" s="13">
         <v>6</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="55"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="5" t="s">
         <v>86</v>
       </c>
@@ -6341,10 +6371,10 @@
       <c r="B70" s="13">
         <v>7</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="55"/>
+      <c r="D70" s="52"/>
       <c r="E70" s="8" t="s">
         <v>161</v>
       </c>
@@ -6364,10 +6394,10 @@
       <c r="B71" s="13">
         <v>8</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="55"/>
+      <c r="D71" s="52"/>
       <c r="E71" s="8" t="s">
         <v>162</v>
       </c>
@@ -6384,10 +6414,10 @@
       <c r="B72" s="13">
         <v>9</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="55"/>
+      <c r="D72" s="52"/>
       <c r="E72" s="10" t="s">
         <v>74</v>
       </c>
@@ -6436,12 +6466,12 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="1" t="s">
         <v>114</v>
       </c>
@@ -6450,10 +6480,10 @@
       <c r="B78" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="53"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="6" t="s">
         <v>2</v>
       </c>
@@ -6462,10 +6492,10 @@
       <c r="B79" s="13">
         <v>1</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="55"/>
+      <c r="D79" s="52"/>
       <c r="E79" s="9" t="s">
         <v>106</v>
       </c>
@@ -6474,10 +6504,10 @@
       <c r="B80" s="13">
         <v>2</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="55"/>
+      <c r="D80" s="52"/>
       <c r="E80" s="9" t="s">
         <v>107</v>
       </c>
@@ -6486,10 +6516,10 @@
       <c r="B81" s="13">
         <v>3</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="55"/>
+      <c r="D81" s="52"/>
       <c r="E81" s="9" t="s">
         <v>108</v>
       </c>
@@ -6498,10 +6528,10 @@
       <c r="B82" s="13">
         <v>4</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="55"/>
+      <c r="D82" s="52"/>
       <c r="E82" s="9" t="s">
         <v>109</v>
       </c>
@@ -6522,10 +6552,10 @@
       <c r="B84" s="13">
         <v>6</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="55"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="5" t="s">
         <v>68</v>
       </c>
@@ -6534,10 +6564,10 @@
       <c r="B85" s="13">
         <v>7</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="55"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="9" t="s">
         <v>110</v>
       </c>
@@ -6546,10 +6576,10 @@
       <c r="B86" s="13">
         <v>8</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="55"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="9" t="s">
         <v>111</v>
       </c>
@@ -6558,10 +6588,10 @@
       <c r="B87" s="13">
         <v>9</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="55"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="9" t="s">
         <v>112</v>
       </c>
@@ -6603,21 +6633,21 @@
       </c>
     </row>
     <row r="92" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
     </row>
     <row r="93" spans="2:9" ht="18.75" customHeight="1">
       <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="53"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="6" t="s">
         <v>2</v>
       </c>
@@ -6639,10 +6669,10 @@
       <c r="B95" s="13">
         <v>2</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="55"/>
+      <c r="D95" s="52"/>
       <c r="E95" s="34" t="s">
         <v>123</v>
       </c>
@@ -6651,10 +6681,10 @@
       <c r="B96" s="13">
         <v>3</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="55"/>
+      <c r="D96" s="52"/>
       <c r="E96" s="34" t="s">
         <v>124</v>
       </c>
@@ -6687,10 +6717,10 @@
       <c r="B99" s="13">
         <v>6</v>
       </c>
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="55"/>
+      <c r="D99" s="52"/>
       <c r="E99" s="34" t="s">
         <v>126</v>
       </c>
@@ -6711,10 +6741,10 @@
       <c r="B101" s="13">
         <v>8</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="55"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="34" t="s">
         <v>120</v>
       </c>
@@ -6723,10 +6753,10 @@
       <c r="B102" s="13">
         <v>9</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="55"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="34" t="s">
         <v>121</v>
       </c>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD19C05-EEAB-48EF-8FA1-254D39041844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876833BC-C37A-49DE-B565-BE0CF2C53255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="272">
   <si>
     <t>Pin #</t>
   </si>
@@ -1403,6 +1403,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1423,10 +1449,22 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,6 +1474,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,47 +1509,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -2227,7 +2227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
@@ -2249,12 +2249,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2265,10 +2265,10 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>165</v>
       </c>
@@ -2292,10 +2292,10 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
@@ -2309,10 +2309,10 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
@@ -2326,10 +2326,10 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
@@ -2343,10 +2343,10 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="29" t="s">
         <v>74</v>
       </c>
@@ -2360,10 +2360,10 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="48"/>
+      <c r="B7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="68"/>
       <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
@@ -2377,10 +2377,10 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="31" t="s">
         <v>86</v>
       </c>
@@ -2394,10 +2394,10 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2411,10 +2411,10 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29" t="s">
         <v>74</v>
       </c>
@@ -2428,10 +2428,10 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="29" t="s">
         <v>74</v>
       </c>
@@ -2445,10 +2445,10 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2462,10 +2462,10 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="48"/>
+      <c r="B13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="68"/>
       <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
@@ -2479,10 +2479,10 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="31" t="s">
         <v>86</v>
       </c>
@@ -2504,12 +2504,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2520,10 +2520,10 @@
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="5" t="s">
         <v>165</v>
       </c>
@@ -2547,10 +2547,10 @@
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
@@ -2564,10 +2564,10 @@
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
@@ -2581,10 +2581,10 @@
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2598,10 +2598,10 @@
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
@@ -2615,10 +2615,10 @@
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="48"/>
+      <c r="B22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="68"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2632,10 +2632,10 @@
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2649,10 +2649,10 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
@@ -2666,10 +2666,10 @@
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="43"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
@@ -2700,10 +2700,10 @@
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2717,10 +2717,10 @@
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="48"/>
+      <c r="B28" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,10 +2734,10 @@
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2748,12 +2748,12 @@
       <c r="I29" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2765,10 +2765,10 @@
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
         <v>165</v>
       </c>
@@ -2793,10 +2793,10 @@
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2811,10 +2811,10 @@
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="8" t="s">
         <v>107</v>
       </c>
@@ -2829,10 +2829,10 @@
       <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2847,10 +2847,10 @@
       <c r="A36" s="11">
         <v>4</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
@@ -2865,10 +2865,10 @@
       <c r="A37" s="11">
         <v>5</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="48"/>
+      <c r="B37" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="68"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,10 +2883,10 @@
       <c r="A38" s="11">
         <v>6</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2901,10 +2901,10 @@
       <c r="A39" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2919,10 +2919,10 @@
       <c r="A40" s="11">
         <v>8</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="43"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
@@ -2937,10 +2937,10 @@
       <c r="A41" s="11">
         <v>9</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="8" t="s">
         <v>112</v>
       </c>
@@ -2955,10 +2955,10 @@
       <c r="A42" s="11">
         <v>10</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
@@ -2973,10 +2973,10 @@
       <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="48"/>
+      <c r="B43" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="68"/>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2991,10 +2991,10 @@
       <c r="A44" s="11">
         <v>12</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
@@ -3018,12 +3018,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3035,10 +3035,10 @@
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="5" t="s">
         <v>165</v>
       </c>
@@ -3063,10 +3063,10 @@
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="48"/>
+      <c r="B48" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="68"/>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3083,10 +3083,10 @@
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="25" t="s">
         <v>123</v>
       </c>
@@ -3103,10 +3103,10 @@
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="43"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="25" t="s">
         <v>124</v>
       </c>
@@ -3123,10 +3123,10 @@
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="48"/>
+      <c r="B51" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="68"/>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3143,10 +3143,10 @@
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="48"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="25" t="s">
         <v>125</v>
       </c>
@@ -3163,10 +3163,10 @@
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="43"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="25" t="s">
         <v>126</v>
       </c>
@@ -3183,10 +3183,10 @@
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="48"/>
+      <c r="B54" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="68"/>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3203,10 +3203,10 @@
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="43"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="25" t="s">
         <v>120</v>
       </c>
@@ -3223,10 +3223,10 @@
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="25" t="s">
         <v>121</v>
       </c>
@@ -3243,10 +3243,10 @@
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="48"/>
+      <c r="B57" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="68"/>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3263,10 +3263,10 @@
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="48"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="28" t="s">
         <v>127</v>
       </c>
@@ -3281,10 +3281,10 @@
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="49"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3299,10 +3299,10 @@
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="48"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="34" t="s">
         <v>128</v>
       </c>
@@ -3319,10 +3319,10 @@
       <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="34" t="s">
         <v>129</v>
       </c>
@@ -3339,10 +3339,10 @@
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="49"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="31" t="s">
         <v>7</v>
       </c>
@@ -3369,25 +3369,30 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3404,30 +3409,25 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3461,27 +3461,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="K1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>165</v>
       </c>
@@ -3503,10 +3503,10 @@
       <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="46"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="5" t="s">
         <v>165</v>
       </c>
@@ -3530,8 +3530,8 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7" t="s">
         <v>173</v>
       </c>
@@ -3549,10 +3549,10 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="7" t="s">
         <v>173</v>
       </c>
@@ -3572,8 +3572,8 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="7" t="s">
         <v>172</v>
       </c>
@@ -3591,10 +3591,10 @@
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="7" t="s">
         <v>172</v>
       </c>
@@ -3614,8 +3614,8 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="7" t="s">
         <v>199</v>
       </c>
@@ -3633,10 +3633,10 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="7" t="s">
         <v>175</v>
       </c>
@@ -3656,8 +3656,8 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="7" t="s">
         <v>200</v>
       </c>
@@ -3675,10 +3675,10 @@
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="7" t="s">
         <v>174</v>
       </c>
@@ -3698,8 +3698,8 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="7" t="s">
         <v>201</v>
       </c>
@@ -3717,10 +3717,10 @@
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="48"/>
+      <c r="L7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="68"/>
       <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3738,8 +3738,8 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="7" t="s">
         <v>202</v>
       </c>
@@ -3757,10 +3757,10 @@
       <c r="K8" s="11">
         <v>6</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
@@ -3778,10 +3778,10 @@
       <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="L9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="27" t="s">
         <v>178</v>
       </c>
@@ -3798,19 +3798,19 @@
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="42" t="s">
+      <c r="L10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="43"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="26" t="s">
         <v>226</v>
       </c>
@@ -3830,10 +3830,10 @@
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="5" t="s">
         <v>165</v>
       </c>
@@ -3855,10 +3855,10 @@
       <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="26" t="s">
         <v>227</v>
       </c>
@@ -3878,8 +3878,8 @@
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="36" t="s">
         <v>204</v>
       </c>
@@ -3895,10 +3895,10 @@
       <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3914,8 +3914,8 @@
       <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="39" t="s">
         <v>206</v>
       </c>
@@ -3931,10 +3931,10 @@
       <c r="K13" s="11">
         <v>11</v>
       </c>
-      <c r="L13" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="48"/>
+      <c r="L13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="68"/>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3952,8 +3952,8 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="36" t="s">
         <v>205</v>
       </c>
@@ -3969,10 +3969,10 @@
       <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3990,8 +3990,8 @@
       <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="7" t="s">
         <v>175</v>
       </c>
@@ -4011,8 +4011,8 @@
       <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="7" t="s">
         <v>174</v>
       </c>
@@ -4027,19 +4027,19 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="7" t="s">
         <v>207</v>
       </c>
@@ -4055,10 +4055,10 @@
       <c r="K17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="46"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="5" t="s">
         <v>165</v>
       </c>
@@ -4082,8 +4082,8 @@
       <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
         <v>178</v>
       </c>
@@ -4101,10 +4101,10 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="L18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="26" t="s">
         <v>228</v>
       </c>
@@ -4124,10 +4124,10 @@
       <c r="K19" s="11">
         <v>2</v>
       </c>
-      <c r="L19" s="42" t="s">
+      <c r="L19" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="26" t="s">
         <v>229</v>
       </c>
@@ -4144,19 +4144,19 @@
       <c r="S19" s="32"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="K20" s="11">
         <v>3</v>
       </c>
-      <c r="L20" s="42" t="s">
+      <c r="L20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="26" t="s">
         <v>230</v>
       </c>
@@ -4176,10 +4176,10 @@
       <c r="A21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5" t="s">
         <v>165</v>
       </c>
@@ -4201,10 +4201,10 @@
       <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="42" t="s">
+      <c r="L21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="26" t="s">
         <v>231</v>
       </c>
@@ -4224,8 +4224,8 @@
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="37" t="s">
         <v>225</v>
       </c>
@@ -4241,10 +4241,10 @@
       <c r="K22" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="48"/>
+      <c r="L22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="68"/>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4262,8 +4262,8 @@
       <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="26" t="s">
         <v>224</v>
       </c>
@@ -4281,10 +4281,10 @@
       <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -4302,8 +4302,8 @@
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="26" t="s">
         <v>223</v>
       </c>
@@ -4321,10 +4321,10 @@
       <c r="K24" s="11">
         <v>7</v>
       </c>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="26" t="s">
         <v>232</v>
       </c>
@@ -4344,8 +4344,8 @@
       <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="38" t="s">
         <v>209</v>
       </c>
@@ -4361,10 +4361,10 @@
       <c r="K25" s="11">
         <v>8</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="26" t="s">
         <v>233</v>
       </c>
@@ -4384,10 +4384,10 @@
       <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="26" t="s">
         <v>234</v>
       </c>
@@ -4404,19 +4404,19 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="48"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="26" t="s">
         <v>235</v>
       </c>
@@ -4436,10 +4436,10 @@
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="5" t="s">
         <v>165</v>
       </c>
@@ -4461,10 +4461,10 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="48"/>
+      <c r="L28" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="68"/>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4482,8 +4482,8 @@
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="35" t="s">
         <v>210</v>
       </c>
@@ -4499,10 +4499,10 @@
       <c r="K29" s="11">
         <v>12</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="4" t="s">
         <v>86</v>
       </c>
@@ -4520,8 +4520,8 @@
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="39" t="s">
         <v>211</v>
       </c>
@@ -4539,8 +4539,8 @@
       <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
         <v>212</v>
       </c>
@@ -4555,19 +4555,19 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
         <v>189</v>
       </c>
@@ -4585,10 +4585,10 @@
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="46"/>
+      <c r="M32" s="66"/>
       <c r="N32" s="5" t="s">
         <v>165</v>
       </c>
@@ -4612,8 +4612,8 @@
       <c r="A33" s="11">
         <v>5</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="7" t="s">
         <v>190</v>
       </c>
@@ -4631,10 +4631,10 @@
       <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="7" t="s">
         <v>189</v>
       </c>
@@ -4654,8 +4654,8 @@
       <c r="A34" s="11">
         <v>6</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="39" t="s">
         <v>211</v>
       </c>
@@ -4671,10 +4671,10 @@
       <c r="K34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="42" t="s">
+      <c r="L34" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="7" t="s">
         <v>190</v>
       </c>
@@ -4694,10 +4694,10 @@
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="42" t="s">
+      <c r="L35" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="43"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="7" t="s">
         <v>191</v>
       </c>
@@ -4714,19 +4714,19 @@
       <c r="S35" s="32"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
       <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="L36" s="42" t="s">
+      <c r="L36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="43"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="7" t="s">
         <v>192</v>
       </c>
@@ -4746,10 +4746,10 @@
       <c r="A37" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="46"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="5" t="s">
         <v>165</v>
       </c>
@@ -4771,10 +4771,10 @@
       <c r="K37" s="11">
         <v>5</v>
       </c>
-      <c r="L37" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="48"/>
+      <c r="L37" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="68"/>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4792,8 @@
       <c r="A38" s="11">
         <v>1</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="39" t="s">
         <v>214</v>
       </c>
@@ -4809,10 +4809,10 @@
       <c r="K38" s="11">
         <v>6</v>
       </c>
-      <c r="L38" s="42" t="s">
+      <c r="L38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="43"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="4" t="s">
         <v>86</v>
       </c>
@@ -4830,8 +4830,8 @@
       <c r="A39" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="36" t="s">
         <v>215</v>
       </c>
@@ -4847,10 +4847,10 @@
       <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="42" t="s">
+      <c r="L39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="43"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="7" t="s">
         <v>194</v>
       </c>
@@ -4870,8 +4870,8 @@
       <c r="A40" s="11">
         <v>3</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="7" t="s">
         <v>191</v>
       </c>
@@ -4889,10 +4889,10 @@
       <c r="K40" s="11">
         <v>8</v>
       </c>
-      <c r="L40" s="42" t="s">
+      <c r="L40" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="43"/>
+      <c r="M40" s="63"/>
       <c r="N40" s="7" t="s">
         <v>195</v>
       </c>
@@ -4912,8 +4912,8 @@
       <c r="A41" s="11">
         <v>4</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="7" t="s">
         <v>192</v>
       </c>
@@ -4931,10 +4931,10 @@
       <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="42" t="s">
+      <c r="L41" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="43"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="9" t="s">
         <v>74</v>
       </c>
@@ -4950,10 +4950,10 @@
       <c r="K42" s="11">
         <v>10</v>
       </c>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="48"/>
+      <c r="M42" s="68"/>
       <c r="N42" s="9" t="s">
         <v>74</v>
       </c>
@@ -4966,19 +4966,19 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
       <c r="K43" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="48"/>
+      <c r="L43" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="68"/>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -4996,10 +4996,10 @@
       <c r="A44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="5" t="s">
         <v>165</v>
       </c>
@@ -5021,10 +5021,10 @@
       <c r="K44" s="11">
         <v>12</v>
       </c>
-      <c r="L44" s="47" t="s">
+      <c r="L44" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="49"/>
+      <c r="M44" s="69"/>
       <c r="N44" s="4" t="s">
         <v>86</v>
       </c>
@@ -5042,8 +5042,8 @@
       <c r="A45" s="11">
         <v>1</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="35" t="s">
         <v>218</v>
       </c>
@@ -5061,8 +5061,8 @@
       <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="39" t="s">
         <v>217</v>
       </c>
@@ -5075,19 +5075,19 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="K46" s="44" t="s">
+      <c r="K46" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>3</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="7" t="s">
         <v>194</v>
       </c>
@@ -5105,10 +5105,10 @@
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="45" t="s">
+      <c r="L47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="46"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="5" t="s">
         <v>165</v>
       </c>
@@ -5132,8 +5132,8 @@
       <c r="A48" s="11">
         <v>4</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="7" t="s">
         <v>195</v>
       </c>
@@ -5151,8 +5151,8 @@
       <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="7" t="s">
         <v>199</v>
       </c>
@@ -5172,8 +5172,8 @@
       <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="42"/>
-      <c r="M49" s="43"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="63"/>
       <c r="N49" s="7" t="s">
         <v>200</v>
       </c>
@@ -5190,21 +5190,21 @@
       <c r="S49" s="32"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="46"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="5" t="s">
         <v>165</v>
       </c>
@@ -5228,8 +5228,8 @@
       <c r="A52" s="11">
         <v>1</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="40" t="s">
         <v>220</v>
       </c>
@@ -5248,6 +5248,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="B25:C25"/>
@@ -5264,82 +5340,6 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5350,8 +5350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5376,10 +5376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
       <c r="R1" s="22"/>
       <c r="S1" s="21" t="s">
         <v>131</v>
@@ -5393,59 +5393,59 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="85"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="N2" s="86"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="73"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="50"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
-      <c r="AF2" s="87"/>
+      <c r="AF2" s="59"/>
     </row>
     <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="47" t="s">
         <v>249</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="16" t="s">
         <v>269</v>
       </c>
@@ -5456,11 +5456,11 @@
       </c>
       <c r="S3" s="41"/>
       <c r="T3" s="41"/>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="41" t="s">
         <v>134</v>
@@ -5475,122 +5475,122 @@
       <c r="AE3" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="AF3" s="87"/>
+      <c r="AF3" s="59"/>
     </row>
     <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="69" t="s">
+      <c r="N4" s="58"/>
+      <c r="O4" s="46" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="52" t="s">
+      <c r="R4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="74" t="s">
+      <c r="Y4" s="51" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="79"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="87"/>
+      <c r="AF4" s="59"/>
     </row>
     <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="N5" s="86"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="76"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="52" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="78"/>
       <c r="X5" s="16"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="73"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="50"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
-      <c r="AF5" s="87"/>
+      <c r="AF5" s="59"/>
     </row>
     <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
@@ -5602,24 +5602,24 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="89"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="61"/>
     </row>
     <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -5630,45 +5630,45 @@
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="48"/>
+      <c r="C8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="68"/>
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="71"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -5679,15 +5679,15 @@
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H11" s="11" t="s">
@@ -5698,15 +5698,15 @@
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -5717,15 +5717,15 @@
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="48" t="s">
         <v>248</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -5736,57 +5736,57 @@
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="48"/>
+      <c r="C14" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="68"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="66"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="67" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="47" t="s">
         <v>249</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -5798,15 +5798,15 @@
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="71" t="s">
+      <c r="G19" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -5818,15 +5818,15 @@
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -5838,15 +5838,15 @@
       <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -5858,15 +5858,15 @@
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -5878,15 +5878,15 @@
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="48"/>
+      <c r="C23" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="68"/>
       <c r="E23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="71"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,15 +5894,15 @@
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="71"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,15 +5910,15 @@
       <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H25" s="11" t="s">
@@ -5930,15 +5930,15 @@
       <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H26" s="11" t="s">
@@ -5950,15 +5950,15 @@
       <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H27" s="11" t="s">
@@ -5970,15 +5970,15 @@
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="48" t="s">
         <v>260</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -5990,15 +5990,15 @@
       <c r="B29" s="11">
         <v>11</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="48"/>
+      <c r="C29" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="68"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="71"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,38 +6006,38 @@
       <c r="B30" s="11">
         <v>12</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6062,10 +6062,10 @@
       <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
@@ -6093,10 +6093,10 @@
       <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="43"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
@@ -6121,10 +6121,10 @@
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="43"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
@@ -6152,10 +6152,10 @@
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
@@ -6180,10 +6180,10 @@
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="48"/>
+      <c r="C38" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="68"/>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
@@ -6202,10 +6202,10 @@
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
@@ -6224,10 +6224,10 @@
       <c r="B40" s="11">
         <v>7</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="27" t="s">
         <v>148</v>
       </c>
@@ -6252,10 +6252,10 @@
       <c r="B41" s="11">
         <v>8</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="26" t="s">
         <v>146</v>
       </c>
@@ -6283,10 +6283,10 @@
       <c r="B42" s="11">
         <v>9</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="26" t="s">
         <v>147</v>
       </c>
@@ -6311,10 +6311,10 @@
       <c r="B43" s="11">
         <v>10</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="48"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
@@ -6333,10 +6333,10 @@
       <c r="B44" s="11">
         <v>11</v>
       </c>
-      <c r="C44" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="48"/>
+      <c r="C44" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="68"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6355,18 +6355,18 @@
       <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
         <v>9</v>
@@ -6377,22 +6377,22 @@
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
     </row>
     <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6426,10 +6426,10 @@
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="26" t="s">
         <v>149</v>
       </c>
@@ -6460,10 +6460,10 @@
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
         <v>150</v>
       </c>
@@ -6494,10 +6494,10 @@
       <c r="B51" s="11">
         <v>3</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="43"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="26" t="s">
         <v>151</v>
       </c>
@@ -6528,10 +6528,10 @@
       <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="26" t="s">
         <v>152</v>
       </c>
@@ -6562,10 +6562,10 @@
       <c r="B53" s="11">
         <v>5</v>
       </c>
-      <c r="C53" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="48"/>
+      <c r="C53" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="68"/>
       <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
@@ -6590,10 +6590,10 @@
       <c r="B54" s="11">
         <v>6</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="43"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="4" t="s">
         <v>86</v>
       </c>
@@ -6618,10 +6618,10 @@
       <c r="B55" s="11">
         <v>7</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="43"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="26" t="s">
         <v>153</v>
       </c>
@@ -6652,10 +6652,10 @@
       <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="43"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="26" t="s">
         <v>154</v>
       </c>
@@ -6686,10 +6686,10 @@
       <c r="B57" s="11">
         <v>9</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="43"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="26" t="s">
         <v>155</v>
       </c>
@@ -6720,10 +6720,10 @@
       <c r="B58" s="11">
         <v>10</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="26" t="s">
         <v>156</v>
       </c>
@@ -6754,10 +6754,10 @@
       <c r="B59" s="11">
         <v>11</v>
       </c>
-      <c r="C59" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="48"/>
+      <c r="C59" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="68"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -6782,18 +6782,18 @@
       <c r="B60" s="11">
         <v>12</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="49"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
         <v>9</v>
@@ -6816,12 +6816,12 @@
     </row>
     <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="14"/>
@@ -6834,10 +6834,10 @@
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="46"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
@@ -6868,10 +6868,10 @@
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="43"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="7" t="s">
         <v>157</v>
       </c>
@@ -6905,10 +6905,10 @@
       <c r="B65" s="11">
         <v>2</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="7" t="s">
         <v>158</v>
       </c>
@@ -6939,10 +6939,10 @@
       <c r="B66" s="11">
         <v>3</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="43"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="7" t="s">
         <v>159</v>
       </c>
@@ -6976,10 +6976,10 @@
       <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="7" t="s">
         <v>160</v>
       </c>
@@ -7010,10 +7010,10 @@
       <c r="B68" s="11">
         <v>5</v>
       </c>
-      <c r="C68" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="48"/>
+      <c r="C68" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="68"/>
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
@@ -7038,10 +7038,10 @@
       <c r="B69" s="11">
         <v>6</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="43"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7066,10 +7066,10 @@
       <c r="B70" s="11">
         <v>7</v>
       </c>
-      <c r="C70" s="42" t="s">
+      <c r="C70" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="7" t="s">
         <v>161</v>
       </c>
@@ -7103,10 +7103,10 @@
       <c r="B71" s="11">
         <v>8</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="43"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="7" t="s">
         <v>162</v>
       </c>
@@ -7137,10 +7137,10 @@
       <c r="B72" s="11">
         <v>9</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="43"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="9" t="s">
         <v>74</v>
       </c>
@@ -7162,10 +7162,10 @@
       <c r="B73" s="11">
         <v>10</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="9" t="s">
         <v>74</v>
       </c>
@@ -7184,10 +7184,10 @@
       <c r="B74" s="11">
         <v>11</v>
       </c>
-      <c r="C74" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="48"/>
+      <c r="C74" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="68"/>
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
@@ -7206,30 +7206,30 @@
       <c r="B75" s="11">
         <v>12</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
       <c r="I77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>114</v>
@@ -7239,10 +7239,10 @@
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="45" t="s">
+      <c r="C78" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -7266,10 +7266,10 @@
       <c r="B79" s="11">
         <v>1</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="8" t="s">
         <v>106</v>
       </c>
@@ -7287,10 +7287,10 @@
       <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C80" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
@@ -7310,10 +7310,10 @@
       <c r="B81" s="11">
         <v>3</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C81" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="43"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="8" t="s">
         <v>108</v>
       </c>
@@ -7333,10 +7333,10 @@
       <c r="B82" s="11">
         <v>4</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="8" t="s">
         <v>109</v>
       </c>
@@ -7354,10 +7354,10 @@
       <c r="B83" s="11">
         <v>5</v>
       </c>
-      <c r="C83" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="48"/>
+      <c r="C83" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="68"/>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
@@ -7375,10 +7375,10 @@
       <c r="B84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="43"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="4" t="s">
         <v>68</v>
       </c>
@@ -7396,10 +7396,10 @@
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="D85" s="43"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
@@ -7417,10 +7417,10 @@
       <c r="B86" s="11">
         <v>8</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="43"/>
+      <c r="D86" s="63"/>
       <c r="E86" s="8" t="s">
         <v>111</v>
       </c>
@@ -7440,10 +7440,10 @@
       <c r="B87" s="11">
         <v>9</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="D87" s="43"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
@@ -7463,10 +7463,10 @@
       <c r="B88" s="11">
         <v>10</v>
       </c>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="68"/>
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
@@ -7482,10 +7482,10 @@
       <c r="B89" s="11">
         <v>11</v>
       </c>
-      <c r="C89" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="48"/>
+      <c r="C89" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="68"/>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7503,34 +7503,34 @@
       <c r="B90" s="11">
         <v>12</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="C90" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="49"/>
+      <c r="D90" s="69"/>
       <c r="E90" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
       <c r="I90" s="32"/>
       <c r="J90" s="32" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G91" s="65"/>
+      <c r="G91" s="42"/>
     </row>
     <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="G92" s="65"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="G92" s="42"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
         <v>267</v>
@@ -7543,14 +7543,14 @@
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="46"/>
+      <c r="D93" s="66"/>
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="44" t="s">
         <v>166</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -7572,14 +7572,14 @@
       <c r="B94" s="11">
         <v>1</v>
       </c>
-      <c r="C94" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="48"/>
+      <c r="C94" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="68"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="69" t="s">
+      <c r="F94" s="46" t="s">
         <v>74</v>
       </c>
       <c r="G94" s="11"/>
@@ -7596,14 +7596,14 @@
       <c r="B95" s="11">
         <v>2</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="43"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="45" t="s">
         <v>123</v>
       </c>
       <c r="G95" s="11" t="s">
@@ -7612,7 +7612,9 @@
       <c r="H95" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I95" s="32"/>
+      <c r="I95" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J95" s="32" t="s">
         <v>197</v>
       </c>
@@ -7624,10 +7626,10 @@
       <c r="B96" s="11">
         <v>3</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="43"/>
+      <c r="D96" s="63"/>
       <c r="E96" s="25" t="s">
         <v>124</v>
       </c>
@@ -7640,7 +7642,9 @@
       <c r="H96" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I96" s="32"/>
+      <c r="I96" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J96" s="32" t="s">
         <v>197</v>
       </c>
@@ -7650,10 +7654,10 @@
       <c r="B97" s="11">
         <v>4</v>
       </c>
-      <c r="C97" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="48"/>
+      <c r="C97" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="68"/>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
@@ -7674,10 +7678,10 @@
       <c r="B98" s="11">
         <v>5</v>
       </c>
-      <c r="C98" s="47" t="s">
+      <c r="C98" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="48"/>
+      <c r="D98" s="68"/>
       <c r="E98" s="25" t="s">
         <v>125</v>
       </c>
@@ -7690,7 +7694,9 @@
       <c r="H98" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I98" s="32"/>
+      <c r="I98" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J98" s="32" t="s">
         <v>197</v>
       </c>
@@ -7702,10 +7708,10 @@
       <c r="B99" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="43"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="25" t="s">
         <v>126</v>
       </c>
@@ -7718,7 +7724,9 @@
       <c r="H99" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I99" s="32"/>
+      <c r="I99" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J99" s="32" t="s">
         <v>197</v>
       </c>
@@ -7728,10 +7736,10 @@
       <c r="B100" s="11">
         <v>7</v>
       </c>
-      <c r="C100" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="48"/>
+      <c r="C100" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="68"/>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7752,10 +7760,10 @@
       <c r="B101" s="11">
         <v>8</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="43"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="25" t="s">
         <v>120</v>
       </c>
@@ -7768,7 +7776,9 @@
       <c r="H101" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I101" s="32"/>
+      <c r="I101" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J101" s="32" t="s">
         <v>197</v>
       </c>
@@ -7780,10 +7790,10 @@
       <c r="B102" s="11">
         <v>9</v>
       </c>
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="43"/>
+      <c r="D102" s="63"/>
       <c r="E102" s="25" t="s">
         <v>121</v>
       </c>
@@ -7796,7 +7806,9 @@
       <c r="H102" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="I102" s="32"/>
+      <c r="I102" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="J102" s="32" t="s">
         <v>197</v>
       </c>
@@ -7806,10 +7818,10 @@
       <c r="B103" s="11">
         <v>10</v>
       </c>
-      <c r="C103" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="48"/>
+      <c r="C103" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="68"/>
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
@@ -7830,10 +7842,10 @@
       <c r="B104" s="11">
         <v>11</v>
       </c>
-      <c r="C104" s="47" t="s">
+      <c r="C104" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="48"/>
+      <c r="D104" s="68"/>
       <c r="E104" s="28" t="s">
         <v>127</v>
       </c>
@@ -7863,10 +7875,10 @@
       <c r="B105" s="11">
         <v>12</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C105" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="49"/>
+      <c r="D105" s="69"/>
       <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
@@ -7892,10 +7904,10 @@
       <c r="B106" s="11">
         <v>13</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="48"/>
+      <c r="D106" s="68"/>
       <c r="E106" s="8" t="s">
         <v>128</v>
       </c>
@@ -7922,10 +7934,10 @@
       <c r="B107" s="11">
         <v>14</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="48"/>
+      <c r="D107" s="68"/>
       <c r="E107" s="8" t="s">
         <v>129</v>
       </c>
@@ -7950,10 +7962,10 @@
       <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C108" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="49"/>
+      <c r="D108" s="69"/>
       <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
@@ -7961,7 +7973,7 @@
         <v>74</v>
       </c>
       <c r="G108" s="11"/>
-      <c r="H108" s="66"/>
+      <c r="H108" s="43"/>
       <c r="I108" s="32"/>
       <c r="J108" s="32" t="s">
         <v>9</v>
@@ -7969,6 +7981,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -7993,89 +8088,6 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8167,12 +8179,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8206,10 +8218,10 @@
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="59"/>
+      <c r="C8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="84"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8226,10 +8238,10 @@
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8246,10 +8258,10 @@
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="7" t="s">
         <v>159</v>
       </c>
@@ -8266,10 +8278,10 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
@@ -8710,12 +8722,12 @@
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -8753,10 +8765,10 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="59"/>
+      <c r="D7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="84"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8775,10 +8787,10 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
@@ -8797,10 +8809,10 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
         <v>161</v>
       </c>
@@ -8819,10 +8831,10 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="7" t="s">
         <v>162</v>
       </c>
@@ -9387,12 +9399,12 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9426,10 +9438,10 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="59"/>
+      <c r="D8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="84"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9446,10 +9458,10 @@
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
@@ -9466,10 +9478,10 @@
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="26" t="s">
         <v>163</v>
       </c>
@@ -9486,10 +9498,10 @@
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="26" t="s">
         <v>164</v>
       </c>
@@ -9654,12 +9666,12 @@
     <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9699,10 +9711,10 @@
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="60"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
@@ -9722,10 +9734,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
@@ -9745,10 +9757,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
@@ -9768,10 +9780,10 @@
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
@@ -9791,10 +9803,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
@@ -9814,10 +9826,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
@@ -9837,10 +9849,10 @@
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
@@ -9860,10 +9872,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="59"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -9883,10 +9895,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="59"/>
+      <c r="E16" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="84"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -9906,10 +9918,10 @@
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
@@ -9929,10 +9941,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="7" t="s">
         <v>157</v>
       </c>
@@ -9952,10 +9964,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="7" t="s">
         <v>158</v>
       </c>
@@ -9975,10 +9987,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
@@ -9998,10 +10010,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
@@ -10021,10 +10033,10 @@
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -10046,10 +10058,10 @@
       <c r="D23" s="11">
         <v>16</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="60"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10235,13 +10247,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10252,6 +10257,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10374,12 +10386,12 @@
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10425,10 +10437,10 @@
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
@@ -10453,10 +10465,10 @@
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="8" t="s">
         <v>107</v>
       </c>
@@ -10481,10 +10493,10 @@
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
@@ -10509,10 +10521,10 @@
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -10537,10 +10549,10 @@
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="59"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10563,10 +10575,10 @@
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -10589,10 +10601,10 @@
       <c r="D17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="60"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="8" t="s">
         <v>110</v>
       </c>
@@ -10617,10 +10629,10 @@
       <c r="D18" s="11">
         <v>8</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>111</v>
       </c>
@@ -10645,10 +10657,10 @@
       <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="8" t="s">
         <v>112</v>
       </c>
@@ -10673,10 +10685,10 @@
       <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>113</v>
       </c>
@@ -10701,10 +10713,10 @@
       <c r="D21" s="11">
         <v>11</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="59"/>
+      <c r="E21" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="84"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -10727,10 +10739,10 @@
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
@@ -11065,13 +11077,13 @@
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -11087,10 +11099,10 @@
       <c r="D7" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="64"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
@@ -11109,10 +11121,10 @@
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="60"/>
+      <c r="E8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="85"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -11131,10 +11143,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="25" t="s">
         <v>123</v>
       </c>
@@ -11155,10 +11167,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
@@ -11177,10 +11189,10 @@
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="60"/>
+      <c r="E11" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="85"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -11199,10 +11211,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
@@ -11223,10 +11235,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="25" t="s">
         <v>126</v>
       </c>
@@ -11245,10 +11257,10 @@
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="60"/>
+      <c r="E14" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="85"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -11267,10 +11279,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="25" t="s">
         <v>120</v>
       </c>
@@ -11291,10 +11303,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="25" t="s">
         <v>121</v>
       </c>
@@ -11313,10 +11325,10 @@
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="60"/>
+      <c r="E17" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="85"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -11335,10 +11347,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="60"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
@@ -11359,10 +11371,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="60"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
@@ -11383,10 +11395,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>128</v>
       </c>
@@ -11407,10 +11419,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="8" t="s">
         <v>129</v>
       </c>
@@ -11429,10 +11441,10 @@
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -11487,6 +11499,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11494,16 +11516,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876833BC-C37A-49DE-B565-BE0CF2C53255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23E79B-F618-40F3-A725-FF857AFC9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="246">
   <si>
     <t>Pin #</t>
   </si>
@@ -474,39 +474,9 @@
     <t>GSM_UART_RX_ZYBO</t>
   </si>
   <si>
-    <t>US_5_TRIG_ZYBO</t>
-  </si>
-  <si>
-    <t>US_5_ECHO_ZYBO</t>
-  </si>
-  <si>
     <t>GSM_RST_ZYBO</t>
   </si>
   <si>
-    <t>US_1_TRIG_ZYBO</t>
-  </si>
-  <si>
-    <t>US_1_ECHO_ZYBO</t>
-  </si>
-  <si>
-    <t>US_2_TRIG_ZYBO</t>
-  </si>
-  <si>
-    <t>US_2_ECHO_ZYBO</t>
-  </si>
-  <si>
-    <t>US_3_TRIG_ZYBO</t>
-  </si>
-  <si>
-    <t>US_3_ECHO_ZYBO</t>
-  </si>
-  <si>
-    <t>US_4_TRIG_ZYBO</t>
-  </si>
-  <si>
-    <t>US_4_ECHO_ZYBO</t>
-  </si>
-  <si>
     <t>NFC_I2C_SDA_ZYBO</t>
   </si>
   <si>
@@ -573,36 +543,6 @@
     <t>GSM_RST</t>
   </si>
   <si>
-    <t>US_5_TRIG</t>
-  </si>
-  <si>
-    <t>US_5_ECHO</t>
-  </si>
-  <si>
-    <t>US_1_TRIG</t>
-  </si>
-  <si>
-    <t>US_1_ECHO</t>
-  </si>
-  <si>
-    <t>US_2_TRIG</t>
-  </si>
-  <si>
-    <t>US_2_ECHO</t>
-  </si>
-  <si>
-    <t>US_3_TRIG</t>
-  </si>
-  <si>
-    <t>US_3_ECHO</t>
-  </si>
-  <si>
-    <t>US_4_TRIG</t>
-  </si>
-  <si>
-    <t>US_4_ECHO</t>
-  </si>
-  <si>
     <t>NFC_I2C_SDA</t>
   </si>
   <si>
@@ -714,36 +654,6 @@
     <t>US_X_VDD_5V</t>
   </si>
   <si>
-    <t>US_5_TRIG_3V3</t>
-  </si>
-  <si>
-    <t>US_5_ECHO_3V3</t>
-  </si>
-  <si>
-    <t>US_1_TRIG_3V3</t>
-  </si>
-  <si>
-    <t>US_1_ECHO_3V3</t>
-  </si>
-  <si>
-    <t>US_2_TRIG_3V3</t>
-  </si>
-  <si>
-    <t>US_2_ECHO_3V3</t>
-  </si>
-  <si>
-    <t>US_3_TRIG_3V3</t>
-  </si>
-  <si>
-    <t>US_3_ECHO_3V3</t>
-  </si>
-  <si>
-    <t>US_4_TRIG_3V3</t>
-  </si>
-  <si>
-    <t>US_4_ECHO_3V3</t>
-  </si>
-  <si>
     <t>Pin FPGA</t>
   </si>
   <si>
@@ -840,16 +750,28 @@
     <t>CAM</t>
   </si>
   <si>
-    <t>Ultrason 5</t>
-  </si>
-  <si>
     <t>Aucun signal</t>
   </si>
   <si>
     <t>Ground</t>
   </si>
   <si>
-    <t xml:space="preserve">IN </t>
+    <t>US_TRIG_ZYBO</t>
+  </si>
+  <si>
+    <t>US_ECHO_ZYBO</t>
+  </si>
+  <si>
+    <t>US_ECHO</t>
+  </si>
+  <si>
+    <t>US_TRIG</t>
+  </si>
+  <si>
+    <t>SEL[2]</t>
+  </si>
+  <si>
+    <t>SEL[</t>
   </si>
 </sst>
 </file>
@@ -2270,22 +2192,22 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2525,22 +2447,22 @@
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2770,22 +2692,22 @@
       </c>
       <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -3040,22 +2962,22 @@
       </c>
       <c r="C47" s="66"/>
       <c r="D47" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -3093,7 +3015,7 @@
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
@@ -3113,7 +3035,7 @@
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -3153,7 +3075,7 @@
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
@@ -3173,7 +3095,7 @@
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
@@ -3213,7 +3135,7 @@
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
@@ -3233,7 +3155,7 @@
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
       <c r="G56" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
@@ -3309,7 +3231,7 @@
       <c r="E60" s="32"/>
       <c r="F60" s="32"/>
       <c r="G60" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
@@ -3329,7 +3251,7 @@
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
@@ -3369,30 +3291,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3409,25 +3326,30 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3438,7 +3360,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3462,7 +3384,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -3483,22 +3405,22 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>0</v>
@@ -3508,22 +3430,22 @@
       </c>
       <c r="M2" s="66"/>
       <c r="N2" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3533,16 +3455,16 @@
       <c r="B3" s="62"/>
       <c r="C3" s="63"/>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -3554,16 +3476,16 @@
       </c>
       <c r="M3" s="63"/>
       <c r="N3" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P3" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -3575,16 +3497,16 @@
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
       <c r="D4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -3596,16 +3518,16 @@
       </c>
       <c r="M4" s="63"/>
       <c r="N4" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
@@ -3617,16 +3539,16 @@
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
@@ -3638,16 +3560,16 @@
       </c>
       <c r="M5" s="63"/>
       <c r="N5" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32"/>
@@ -3659,16 +3581,16 @@
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
       <c r="D6" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
@@ -3680,16 +3602,16 @@
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="32"/>
@@ -3701,16 +3623,16 @@
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
       <c r="D7" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -3741,16 +3663,16 @@
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
@@ -3783,23 +3705,23 @@
       </c>
       <c r="M9" s="63"/>
       <c r="N9" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R9" s="32"/>
       <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -3811,17 +3733,15 @@
         <v>28</v>
       </c>
       <c r="M10" s="63"/>
-      <c r="N10" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>171</v>
-      </c>
+      <c r="N10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="Q10" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
@@ -3835,22 +3755,22 @@
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K11" s="11">
         <v>9</v>
@@ -3859,17 +3779,15 @@
         <v>29</v>
       </c>
       <c r="M11" s="63"/>
-      <c r="N11" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R11" s="32"/>
       <c r="S11" s="32"/>
@@ -3881,7 +3799,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
       <c r="D12" s="36" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>74</v>
@@ -3917,7 +3835,7 @@
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
       <c r="D13" s="39" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>74</v>
@@ -3955,14 +3873,14 @@
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
       <c r="D14" s="36" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -3993,16 +3911,16 @@
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
@@ -4014,16 +3932,16 @@
       <c r="B16" s="67"/>
       <c r="C16" s="68"/>
       <c r="D16" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F16" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
@@ -4041,7 +3959,7 @@
       <c r="B17" s="62"/>
       <c r="C17" s="63"/>
       <c r="D17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>74</v>
@@ -4060,22 +3978,22 @@
       </c>
       <c r="M17" s="66"/>
       <c r="N17" s="5" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -4085,16 +4003,16 @@
       <c r="B18" s="62"/>
       <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F18" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -4106,16 +4024,16 @@
       </c>
       <c r="M18" s="63"/>
       <c r="N18" s="26" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
@@ -4129,23 +4047,23 @@
       </c>
       <c r="M19" s="63"/>
       <c r="N19" s="26" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="P19" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q19" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -4158,16 +4076,14 @@
       </c>
       <c r="M20" s="63"/>
       <c r="N20" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>183</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O20" s="26"/>
       <c r="P20" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
@@ -4181,22 +4097,22 @@
       </c>
       <c r="C21" s="66"/>
       <c r="D21" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K21" s="11">
         <v>4</v>
@@ -4206,16 +4122,14 @@
       </c>
       <c r="M21" s="63"/>
       <c r="N21" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>184</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O21" s="26"/>
       <c r="P21" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q21" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
@@ -4227,7 +4141,7 @@
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="37" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>74</v>
@@ -4265,16 +4179,16 @@
       <c r="B23" s="62"/>
       <c r="C23" s="63"/>
       <c r="D23" s="26" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
@@ -4305,16 +4219,16 @@
       <c r="B24" s="62"/>
       <c r="C24" s="63"/>
       <c r="D24" s="26" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -4325,17 +4239,11 @@
         <v>34</v>
       </c>
       <c r="M24" s="63"/>
-      <c r="N24" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="P24" s="32" t="s">
-        <v>171</v>
-      </c>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
@@ -4347,7 +4255,7 @@
       <c r="B25" s="62"/>
       <c r="C25" s="63"/>
       <c r="D25" s="38" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>74</v>
@@ -4365,17 +4273,11 @@
         <v>35</v>
       </c>
       <c r="M25" s="63"/>
-      <c r="N25" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="P25" s="32" t="s">
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
@@ -4388,24 +4290,18 @@
         <v>36</v>
       </c>
       <c r="M26" s="63"/>
-      <c r="N26" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>171</v>
-      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -4417,17 +4313,11 @@
         <v>37</v>
       </c>
       <c r="M27" s="68"/>
-      <c r="N27" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="P27" s="32" t="s">
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
@@ -4441,22 +4331,22 @@
       </c>
       <c r="C28" s="66"/>
       <c r="D28" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K28" s="11">
         <v>11</v>
@@ -4485,7 +4375,7 @@
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
       <c r="D29" s="35" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>74</v>
@@ -4523,7 +4413,7 @@
       <c r="B30" s="62"/>
       <c r="C30" s="63"/>
       <c r="D30" s="39" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>74</v>
@@ -4542,16 +4432,16 @@
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
@@ -4569,16 +4459,16 @@
       <c r="B32" s="62"/>
       <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
@@ -4590,22 +4480,22 @@
       </c>
       <c r="M32" s="66"/>
       <c r="N32" s="5" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P32" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -4615,16 +4505,16 @@
       <c r="B33" s="67"/>
       <c r="C33" s="68"/>
       <c r="D33" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
@@ -4636,16 +4526,16 @@
       </c>
       <c r="M33" s="63"/>
       <c r="N33" s="7" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
@@ -4657,7 +4547,7 @@
       <c r="B34" s="62"/>
       <c r="C34" s="63"/>
       <c r="D34" s="39" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>74</v>
@@ -4676,16 +4566,16 @@
       </c>
       <c r="M34" s="63"/>
       <c r="N34" s="7" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
@@ -4699,16 +4589,16 @@
       </c>
       <c r="M35" s="63"/>
       <c r="N35" s="7" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="P35" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
@@ -4728,16 +4618,16 @@
       </c>
       <c r="M36" s="63"/>
       <c r="N36" s="7" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="P36" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q36" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
@@ -4751,22 +4641,22 @@
       </c>
       <c r="C37" s="66"/>
       <c r="D37" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K37" s="11">
         <v>5</v>
@@ -4795,7 +4685,7 @@
       <c r="B38" s="62"/>
       <c r="C38" s="63"/>
       <c r="D38" s="39" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>74</v>
@@ -4833,7 +4723,7 @@
       <c r="B39" s="62"/>
       <c r="C39" s="63"/>
       <c r="D39" s="36" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>74</v>
@@ -4852,16 +4742,16 @@
       </c>
       <c r="M39" s="63"/>
       <c r="N39" s="7" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="P39" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q39" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
@@ -4873,16 +4763,16 @@
       <c r="B40" s="62"/>
       <c r="C40" s="63"/>
       <c r="D40" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
@@ -4894,16 +4784,16 @@
       </c>
       <c r="M40" s="63"/>
       <c r="N40" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="P40" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q40" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
@@ -4915,16 +4805,16 @@
       <c r="B41" s="62"/>
       <c r="C41" s="63"/>
       <c r="D41" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -4967,7 +4857,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -5001,22 +4891,22 @@
       </c>
       <c r="C44" s="66"/>
       <c r="D44" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K44" s="11">
         <v>12</v>
@@ -5045,7 +4935,7 @@
       <c r="B45" s="62"/>
       <c r="C45" s="63"/>
       <c r="D45" s="35" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>74</v>
@@ -5064,7 +4954,7 @@
       <c r="B46" s="62"/>
       <c r="C46" s="63"/>
       <c r="D46" s="39" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>74</v>
@@ -5076,7 +4966,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="K46" s="64" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
@@ -5089,16 +4979,16 @@
       <c r="B47" s="62"/>
       <c r="C47" s="63"/>
       <c r="D47" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -5110,22 +5000,22 @@
       </c>
       <c r="M47" s="66"/>
       <c r="N47" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P47" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q47" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="R47" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5135,16 +5025,16 @@
       <c r="B48" s="62"/>
       <c r="C48" s="63"/>
       <c r="D48" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -5154,16 +5044,16 @@
       <c r="L48" s="62"/>
       <c r="M48" s="63"/>
       <c r="N48" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="O48" s="9" t="s">
         <v>74</v>
       </c>
       <c r="P48" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q48" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
@@ -5175,23 +5065,23 @@
       <c r="L49" s="62"/>
       <c r="M49" s="63"/>
       <c r="N49" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>74</v>
       </c>
       <c r="P49" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Q49" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
@@ -5206,22 +5096,22 @@
       </c>
       <c r="C51" s="66"/>
       <c r="D51" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -5231,7 +5121,7 @@
       <c r="B52" s="62"/>
       <c r="C52" s="63"/>
       <c r="D52" s="40" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>74</v>
@@ -5243,16 +5133,82 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="O52" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="A10:D10"/>
@@ -5269,77 +5225,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5350,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5437,17 +5327,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="N3" s="58"/>
       <c r="O3" s="16" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -5473,7 +5363,7 @@
       <c r="AC3" s="41"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="AF3" s="59"/>
     </row>
@@ -5490,10 +5380,10 @@
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="N4" s="58"/>
       <c r="O4" s="46" t="s">
@@ -5540,10 +5430,10 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="N5" s="58"/>
       <c r="O5" s="16"/>
@@ -5582,10 +5472,10 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="N6" s="60"/>
       <c r="O6" s="52"/>
@@ -5620,10 +5510,10 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,10 +5559,10 @@
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5688,10 +5578,10 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5707,10 +5597,10 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5726,10 +5616,10 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,13 +5674,13 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,10 +5697,10 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,10 +5717,10 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5847,10 +5737,10 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,10 +5757,10 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,10 +5809,10 @@
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,10 +5829,10 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5959,10 +5849,10 @@
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5979,10 +5869,10 @@
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="48" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,19 +5932,19 @@
         <v>2</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,19 +5960,19 @@
         <v>142</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>63</v>
@@ -6101,19 +5991,19 @@
         <v>143</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I35" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,19 +6019,19 @@
         <v>144</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I36" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>87</v>
@@ -6160,19 +6050,19 @@
         <v>145</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I37" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6229,22 +6119,22 @@
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I40" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6256,27 +6146,19 @@
         <v>28</v>
       </c>
       <c r="D41" s="63"/>
-      <c r="E41" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I41" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="J41" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
@@ -6287,23 +6169,17 @@
         <v>29</v>
       </c>
       <c r="D42" s="63"/>
-      <c r="E42" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>180</v>
-      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>271</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6323,7 +6199,7 @@
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -6397,26 +6273,24 @@
         <v>2</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -6431,22 +6305,22 @@
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="26" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I49" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J49" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -6465,22 +6339,22 @@
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I50" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -6499,22 +6373,18 @@
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>183</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F51" s="26"/>
       <c r="G51" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I51" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J51" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -6533,22 +6403,18 @@
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>184</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F52" s="26"/>
       <c r="G52" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>171</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I52" s="32"/>
       <c r="J52" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -6622,23 +6488,17 @@
         <v>34</v>
       </c>
       <c r="D55" s="63"/>
-      <c r="E55" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>185</v>
-      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
       <c r="G55" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I55" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -6656,23 +6516,17 @@
         <v>35</v>
       </c>
       <c r="D56" s="63"/>
-      <c r="E56" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>186</v>
-      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>171</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -6690,23 +6544,17 @@
         <v>36</v>
       </c>
       <c r="D57" s="63"/>
-      <c r="E57" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>187</v>
-      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I57" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -6724,23 +6572,17 @@
         <v>37</v>
       </c>
       <c r="D58" s="68"/>
-      <c r="E58" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>188</v>
-      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="I58" s="32" t="s">
-        <v>171</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -6842,19 +6684,19 @@
         <v>2</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -6873,22 +6715,22 @@
       </c>
       <c r="D64" s="63"/>
       <c r="E64" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -6910,22 +6752,22 @@
       </c>
       <c r="D65" s="63"/>
       <c r="E65" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -6944,22 +6786,22 @@
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -6981,22 +6823,22 @@
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -7071,22 +6913,22 @@
       </c>
       <c r="D70" s="63"/>
       <c r="E70" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I70" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J70" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -7108,22 +6950,22 @@
       </c>
       <c r="D71" s="63"/>
       <c r="E71" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -7149,7 +6991,7 @@
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
@@ -7174,7 +7016,7 @@
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
@@ -7247,19 +7089,19 @@
         <v>2</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I78" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J78" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7267,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="8" t="s">
@@ -7275,12 +7117,12 @@
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="32"/>
       <c r="J79" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7288,7 +7130,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="8" t="s">
@@ -7296,14 +7138,14 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J80" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7311,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="8" t="s">
@@ -7319,14 +7161,14 @@
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J81" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J81" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7334,7 +7176,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="8" t="s">
@@ -7342,12 +7184,12 @@
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="32"/>
       <c r="J82" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7397,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D85" s="63"/>
       <c r="E85" s="8" t="s">
@@ -7405,12 +7247,12 @@
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="32"/>
       <c r="J85" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7418,7 +7260,7 @@
         <v>8</v>
       </c>
       <c r="C86" s="62" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="D86" s="63"/>
       <c r="E86" s="8" t="s">
@@ -7426,14 +7268,14 @@
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="11" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J86" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J86" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7441,7 +7283,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="8" t="s">
@@ -7453,10 +7295,10 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="J87" s="32" t="s">
         <v>176</v>
-      </c>
-      <c r="J87" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,7 +7306,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D88" s="68"/>
       <c r="E88" s="8" t="s">
@@ -7533,12 +7375,12 @@
       <c r="G92" s="42"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>0</v>
@@ -7551,19 +7393,19 @@
         <v>2</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="N93" s="6"/>
     </row>
@@ -7591,7 +7433,7 @@
     </row>
     <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B95" s="11">
         <v>2</v>
@@ -7607,21 +7449,21 @@
         <v>123</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I95" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J95" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="B96" s="11">
         <v>3</v>
@@ -7637,16 +7479,16 @@
         <v>124</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I96" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J96" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7673,7 +7515,7 @@
     </row>
     <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B98" s="11">
         <v>5</v>
@@ -7689,21 +7531,21 @@
         <v>125</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I98" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B99" s="11">
         <v>6</v>
@@ -7719,16 +7561,16 @@
         <v>126</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I99" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7755,7 +7597,7 @@
     </row>
     <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
@@ -7771,21 +7613,21 @@
         <v>120</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I101" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B102" s="11">
         <v>9</v>
@@ -7801,16 +7643,16 @@
         <v>121</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I102" s="32" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,7 +7679,7 @@
     </row>
     <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="B104" s="11">
         <v>11</v>
@@ -7853,24 +7695,24 @@
         <v>127</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B105" s="11">
         <v>12</v>
@@ -7886,20 +7728,20 @@
         <v>74</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
       <c r="N105" s="2" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="B106" s="11">
         <v>13</v>
@@ -7915,21 +7757,21 @@
         <v>128</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I106" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J106" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B107" s="11">
         <v>14</v>
@@ -7945,16 +7787,16 @@
         <v>129</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="J107" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7981,89 +7823,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8088,6 +7847,89 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8263,7 +8105,7 @@
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8283,7 +8125,7 @@
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -8814,7 +8656,7 @@
       </c>
       <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8836,7 +8678,7 @@
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -9360,7 +9202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -9483,7 +9325,7 @@
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="26" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -9503,7 +9345,7 @@
       </c>
       <c r="E11" s="85"/>
       <c r="F11" s="26" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -9946,7 +9788,7 @@
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -9969,7 +9811,7 @@
       </c>
       <c r="F19" s="85"/>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -10247,6 +10089,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10257,13 +10106,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11094,10 +10936,10 @@
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>1</v>
@@ -11107,7 +10949,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -11138,7 +10980,7 @@
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -11151,7 +10993,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11162,7 +11004,7 @@
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
@@ -11175,7 +11017,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -11206,7 +11048,7 @@
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="D12" s="11">
         <v>5</v>
@@ -11219,7 +11061,7 @@
         <v>125</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -11230,7 +11072,7 @@
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D13" s="11">
         <v>6</v>
@@ -11243,7 +11085,7 @@
         <v>126</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -11274,7 +11116,7 @@
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D15" s="11">
         <v>8</v>
@@ -11287,7 +11129,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -11298,7 +11140,7 @@
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D16" s="11">
         <v>9</v>
@@ -11311,7 +11153,7 @@
         <v>121</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -11342,7 +11184,7 @@
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D18" s="11">
         <v>11</v>
@@ -11355,7 +11197,7 @@
         <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -11366,7 +11208,7 @@
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="D19" s="11">
         <v>12</v>
@@ -11379,7 +11221,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -11390,7 +11232,7 @@
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D20" s="11">
         <v>13</v>
@@ -11403,7 +11245,7 @@
         <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -11414,7 +11256,7 @@
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="D21" s="11">
         <v>14</v>
@@ -11427,7 +11269,7 @@
         <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -11499,16 +11341,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11516,6 +11348,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F23E79B-F618-40F3-A725-FF857AFC9B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F69ABF-21AF-4AEC-ADD4-FD012C4F1022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="249">
   <si>
     <t>Pin #</t>
   </si>
@@ -768,10 +768,19 @@
     <t>US_TRIG</t>
   </si>
   <si>
-    <t>SEL[2]</t>
-  </si>
-  <si>
-    <t>SEL[</t>
+    <t>US_SEL[2]</t>
+  </si>
+  <si>
+    <t>US_SEL[1]</t>
+  </si>
+  <si>
+    <t>US_SEL[0]</t>
+  </si>
+  <si>
+    <t>CHARGING</t>
+  </si>
+  <si>
+    <t>NEED_CHARGE</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1279,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1431,6 +1440,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -3291,25 +3301,30 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3326,30 +3341,25 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3359,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3487,8 +3497,12 @@
       <c r="Q3" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="R3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -3529,8 +3543,12 @@
       <c r="Q4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="R4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -3571,8 +3589,12 @@
       <c r="Q5" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
+      <c r="R5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -3613,8 +3635,12 @@
       <c r="Q6" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="R6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -3653,8 +3679,8 @@
       <c r="Q7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -3693,8 +3719,8 @@
       <c r="Q8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K9" s="11">
@@ -3716,8 +3742,12 @@
       <c r="Q9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="R9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
@@ -3733,18 +3763,24 @@
         <v>28</v>
       </c>
       <c r="M10" s="63"/>
-      <c r="N10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="32"/>
+      <c r="N10" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="Q10" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="R10" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -3779,18 +3815,24 @@
         <v>29</v>
       </c>
       <c r="M11" s="63"/>
-      <c r="N11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="32"/>
+      <c r="N11" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="Q11" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="R11" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -3825,8 +3867,10 @@
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -3863,8 +3907,8 @@
       <c r="Q13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -3901,8 +3945,8 @@
       <c r="Q14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -4035,8 +4079,12 @@
       <c r="Q18" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="R18" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K19" s="11">
@@ -4058,8 +4106,12 @@
       <c r="Q19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
+      <c r="R19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
@@ -4078,15 +4130,21 @@
       <c r="N20" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="O20" s="26"/>
+      <c r="O20" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="P20" s="32" t="s">
         <v>161</v>
       </c>
       <c r="Q20" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="R20" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -4124,15 +4182,21 @@
       <c r="N21" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="26"/>
+      <c r="O21" s="26" t="s">
+        <v>245</v>
+      </c>
       <c r="P21" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="R21" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -4169,8 +4233,8 @@
       <c r="Q22" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
@@ -4209,8 +4273,8 @@
       <c r="Q23" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -4239,14 +4303,24 @@
         <v>34</v>
       </c>
       <c r="M24" s="63"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="32"/>
+      <c r="N24" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="Q24" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
+      <c r="R24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -4273,14 +4347,22 @@
         <v>35</v>
       </c>
       <c r="M25" s="63"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
+      <c r="R25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K26" s="11">
@@ -4290,14 +4372,22 @@
         <v>36</v>
       </c>
       <c r="M26" s="63"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
+      <c r="R26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
@@ -4313,14 +4403,22 @@
         <v>37</v>
       </c>
       <c r="M27" s="68"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
+      <c r="R27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
@@ -4365,8 +4463,8 @@
       <c r="Q28" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -4403,8 +4501,8 @@
       <c r="Q29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -4537,8 +4635,12 @@
       <c r="Q33" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
+      <c r="R33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
@@ -4577,8 +4679,12 @@
       <c r="Q34" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
+      <c r="R34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K35" s="11">
@@ -4600,8 +4706,12 @@
       <c r="Q35" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
+      <c r="R35" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
@@ -4629,8 +4739,12 @@
       <c r="Q36" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
+      <c r="R36" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
@@ -4675,8 +4789,8 @@
       <c r="Q37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
@@ -4713,8 +4827,8 @@
       <c r="Q38" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
@@ -4753,8 +4867,12 @@
       <c r="Q39" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
+      <c r="R39" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -4795,8 +4913,12 @@
       <c r="Q40" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
+      <c r="R40" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -4833,8 +4955,12 @@
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
+      <c r="R41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K42" s="11">
@@ -4852,8 +4978,12 @@
       </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
+      <c r="R42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
@@ -4879,8 +5009,8 @@
       <c r="Q43" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -5138,6 +5268,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="B25:C25"/>
@@ -5154,82 +5360,6 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5240,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:F75"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6146,15 +6276,21 @@
         <v>28</v>
       </c>
       <c r="D41" s="63"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="G41" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I41" s="32"/>
+      <c r="I41" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="J41" s="32" t="s">
         <v>176</v>
       </c>
@@ -6169,15 +6305,21 @@
         <v>29</v>
       </c>
       <c r="D42" s="63"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="E42" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>248</v>
+      </c>
       <c r="G42" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I42" s="32"/>
+      <c r="I42" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="J42" s="32" t="s">
         <v>176</v>
       </c>
@@ -6197,7 +6339,9 @@
       <c r="F43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>220</v>
+      </c>
       <c r="H43" s="11" t="s">
         <v>232</v>
       </c>
@@ -6289,8 +6433,9 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="90" t="s">
+        <v>65</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
@@ -6375,14 +6520,18 @@
       <c r="E51" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="26"/>
+      <c r="F51" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="G51" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I51" s="32"/>
+      <c r="I51" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="J51" s="32" t="s">
         <v>176</v>
       </c>
@@ -6405,14 +6554,18 @@
       <c r="E52" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="F52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>245</v>
+      </c>
       <c r="G52" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I52" s="32"/>
+      <c r="I52" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="J52" s="32" t="s">
         <v>176</v>
       </c>
@@ -6488,15 +6641,21 @@
         <v>34</v>
       </c>
       <c r="D55" s="63"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="E55" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>246</v>
+      </c>
       <c r="G55" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="32"/>
+      <c r="I55" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="J55" s="32" t="s">
         <v>176</v>
       </c>
@@ -6516,8 +6675,12 @@
         <v>35</v>
       </c>
       <c r="D56" s="63"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="E56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G56" s="11" t="s">
         <v>220</v>
       </c>
@@ -6544,8 +6707,12 @@
         <v>36</v>
       </c>
       <c r="D57" s="63"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="E57" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>220</v>
       </c>
@@ -6572,8 +6739,12 @@
         <v>37</v>
       </c>
       <c r="D58" s="68"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="E58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
@@ -6989,7 +7160,9 @@
       <c r="F72" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="H72" s="11" t="s">
         <v>232</v>
       </c>
@@ -7014,7 +7187,9 @@
       <c r="F73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="H73" s="11" t="s">
         <v>232</v>
       </c>
@@ -7289,9 +7464,7 @@
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="32" t="s">
@@ -7312,9 +7485,7 @@
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="32"/>
@@ -7823,6 +7994,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -7847,89 +8101,6 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9202,7 +9373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -10089,13 +10260,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10106,6 +10270,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11341,6 +11512,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11348,16 +11529,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F69ABF-21AF-4AEC-ADD4-FD012C4F1022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -25,8 +19,8 @@
     <sheet name="Feuil2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="251">
   <si>
     <t>Pin #</t>
   </si>
@@ -781,13 +775,19 @@
   </si>
   <si>
     <t>NEED_CHARGE</t>
+  </si>
+  <si>
+    <t>US_TRIG_3V3</t>
+  </si>
+  <si>
+    <t>US_ECHO_3V3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +1360,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1440,7 +1441,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -1484,25 +1484,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>163606</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1516,8 +1510,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="851647" y="179294"/>
-          <a:ext cx="14439900" cy="18808513"/>
+          <a:off x="1028700" y="342900"/>
+          <a:ext cx="14401800" cy="27698700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,7 +1546,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1599,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1652,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1664,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1688,7 +1682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1717,7 +1711,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1723,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1747,7 +1741,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1776,7 +1770,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1809,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1853,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,21 +2143,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W78" sqref="W78"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2171,36 +2165,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2220,14 +2214,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
@@ -2237,14 +2231,14 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
@@ -2254,14 +2248,14 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
@@ -2271,14 +2265,14 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="29" t="s">
         <v>74</v>
       </c>
@@ -2288,14 +2282,14 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="68"/>
+      <c r="B7" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="69"/>
       <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
@@ -2305,14 +2299,14 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="31" t="s">
         <v>86</v>
       </c>
@@ -2322,14 +2316,14 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2339,14 +2333,14 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="29" t="s">
         <v>74</v>
       </c>
@@ -2356,14 +2350,14 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="29" t="s">
         <v>74</v>
       </c>
@@ -2373,14 +2367,14 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2390,14 +2384,14 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="68"/>
+      <c r="B13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="69"/>
       <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
@@ -2407,14 +2401,14 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="31" t="s">
         <v>86</v>
       </c>
@@ -2424,7 +2418,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2435,27 +2429,27 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="5" t="s">
         <v>155</v>
       </c>
@@ -2475,14 +2469,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
@@ -2492,14 +2486,14 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
@@ -2509,14 +2503,14 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2526,14 +2520,14 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
@@ -2543,14 +2537,14 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="68"/>
+      <c r="B22" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="69"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2560,14 +2554,14 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2577,14 +2571,14 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
@@ -2594,14 +2588,14 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
@@ -2611,14 +2605,14 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
@@ -2628,14 +2622,14 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2645,14 +2639,14 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="68"/>
+      <c r="B28" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="69"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,14 +2656,14 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2679,13 +2673,13 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+    <row r="31" spans="1:10" ht="15.75">
+      <c r="A31" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2693,14 +2687,14 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="5" t="s">
         <v>155</v>
       </c>
@@ -2721,14 +2715,14 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2739,14 +2733,14 @@
       <c r="I33" s="32"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="8" t="s">
         <v>107</v>
       </c>
@@ -2757,14 +2751,14 @@
       <c r="I34" s="32"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2775,14 +2769,14 @@
       <c r="I35" s="32"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="11">
         <v>4</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
@@ -2793,14 +2787,14 @@
       <c r="I36" s="32"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="11">
         <v>5</v>
       </c>
-      <c r="B37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="68"/>
+      <c r="B37" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="69"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -2811,14 +2805,14 @@
       <c r="I37" s="32"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="11">
         <v>6</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2829,14 +2823,14 @@
       <c r="I38" s="32"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2847,14 +2841,14 @@
       <c r="I39" s="32"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="11">
         <v>8</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
@@ -2865,14 +2859,14 @@
       <c r="I40" s="32"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="11">
         <v>9</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="8" t="s">
         <v>112</v>
       </c>
@@ -2883,14 +2877,14 @@
       <c r="I41" s="32"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="11">
         <v>10</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
@@ -2901,14 +2895,14 @@
       <c r="I42" s="32"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="68"/>
+      <c r="B43" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="69"/>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,14 +2913,14 @@
       <c r="I43" s="32"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="11">
         <v>12</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2937,7 +2931,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2949,13 +2943,13 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+    <row r="46" spans="1:10" ht="15.75">
+      <c r="A46" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2963,14 +2957,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="5" t="s">
         <v>155</v>
       </c>
@@ -2991,14 +2985,14 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="68"/>
+      <c r="B48" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="69"/>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3011,14 +3005,14 @@
       <c r="I48" s="32"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="25" t="s">
         <v>123</v>
       </c>
@@ -3031,14 +3025,14 @@
       <c r="I49" s="32"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="25" t="s">
         <v>124</v>
       </c>
@@ -3051,14 +3045,14 @@
       <c r="I50" s="32"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="68"/>
+      <c r="B51" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="69"/>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3071,14 +3065,14 @@
       <c r="I51" s="32"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="69"/>
       <c r="D52" s="25" t="s">
         <v>125</v>
       </c>
@@ -3091,14 +3085,14 @@
       <c r="I52" s="32"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="25" t="s">
         <v>126</v>
       </c>
@@ -3111,14 +3105,14 @@
       <c r="I53" s="32"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="68"/>
+      <c r="B54" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="69"/>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,14 +3125,14 @@
       <c r="I54" s="32"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="25" t="s">
         <v>120</v>
       </c>
@@ -3151,14 +3145,14 @@
       <c r="I55" s="32"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="25" t="s">
         <v>121</v>
       </c>
@@ -3171,14 +3165,14 @@
       <c r="I56" s="32"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="68"/>
+      <c r="B57" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="69"/>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3191,14 +3185,14 @@
       <c r="I57" s="32"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="68"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="28" t="s">
         <v>127</v>
       </c>
@@ -3209,14 +3203,14 @@
       <c r="I58" s="32"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="69"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3227,14 +3221,14 @@
       <c r="I59" s="32"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B60" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="68"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="34" t="s">
         <v>128</v>
       </c>
@@ -3247,14 +3241,14 @@
       <c r="I60" s="32"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="34" t="s">
         <v>129</v>
       </c>
@@ -3267,14 +3261,14 @@
       <c r="I61" s="32"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="69"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="31" t="s">
         <v>7</v>
       </c>
@@ -3287,7 +3281,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3301,30 +3295,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3341,39 +3330,44 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="11" style="2"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
@@ -3392,28 +3386,28 @@
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="K1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="K1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3435,10 +3429,10 @@
       <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="66"/>
+      <c r="M2" s="67"/>
       <c r="N2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3458,12 +3452,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3481,10 +3475,10 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3504,12 +3498,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3527,10 +3521,10 @@
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3550,12 +3544,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="7" t="s">
         <v>179</v>
       </c>
@@ -3573,10 +3567,10 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="7" t="s">
         <v>165</v>
       </c>
@@ -3596,12 +3590,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="7" t="s">
         <v>180</v>
       </c>
@@ -3619,10 +3613,10 @@
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="63"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="7" t="s">
         <v>164</v>
       </c>
@@ -3642,12 +3636,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="7" t="s">
         <v>181</v>
       </c>
@@ -3665,10 +3659,10 @@
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="68"/>
+      <c r="L7" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="69"/>
       <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3682,12 +3676,12 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="7" t="s">
         <v>182</v>
       </c>
@@ -3705,10 +3699,10 @@
       <c r="K8" s="11">
         <v>6</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="63"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
@@ -3722,14 +3716,14 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="63"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="27" t="s">
         <v>168</v>
       </c>
@@ -3749,20 +3743,20 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="64"/>
       <c r="N10" s="26" t="s">
         <v>247</v>
       </c>
@@ -3782,14 +3776,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="5" t="s">
         <v>155</v>
       </c>
@@ -3811,10 +3805,10 @@
       <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="63"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="26" t="s">
         <v>248</v>
       </c>
@@ -3834,12 +3828,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="36" t="s">
         <v>184</v>
       </c>
@@ -3855,10 +3849,10 @@
       <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="68"/>
+      <c r="M12" s="69"/>
       <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3872,12 +3866,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="39" t="s">
         <v>186</v>
       </c>
@@ -3893,10 +3887,10 @@
       <c r="K13" s="11">
         <v>11</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="68"/>
+      <c r="L13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="69"/>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3910,12 +3904,12 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="36" t="s">
         <v>185</v>
       </c>
@@ -3931,10 +3925,10 @@
       <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="69"/>
+      <c r="M14" s="70"/>
       <c r="N14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3948,12 +3942,12 @@
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="7" t="s">
         <v>165</v>
       </c>
@@ -3969,12 +3963,12 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="7" t="s">
         <v>164</v>
       </c>
@@ -3989,19 +3983,19 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="7" t="s">
         <v>187</v>
       </c>
@@ -4017,10 +4011,10 @@
       <c r="K17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="66"/>
+      <c r="M17" s="67"/>
       <c r="N17" s="5" t="s">
         <v>2</v>
       </c>
@@ -4040,12 +4034,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="7" t="s">
         <v>168</v>
       </c>
@@ -4063,12 +4057,12 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="63"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="26" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="O18" s="26" t="s">
         <v>243</v>
@@ -4086,16 +4080,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="K19" s="11">
         <v>2</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="63"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="26" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>242</v>
@@ -4113,20 +4107,20 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:19">
+      <c r="A20" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
       <c r="K20" s="11">
         <v>3</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="26" t="s">
         <v>244</v>
       </c>
@@ -4146,14 +4140,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="66"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="5" t="s">
         <v>155</v>
       </c>
@@ -4175,10 +4169,10 @@
       <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="63"/>
+      <c r="M21" s="64"/>
       <c r="N21" s="26" t="s">
         <v>245</v>
       </c>
@@ -4198,12 +4192,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="37" t="s">
         <v>205</v>
       </c>
@@ -4219,10 +4213,10 @@
       <c r="K22" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="68"/>
+      <c r="L22" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="69"/>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4236,12 +4230,12 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="26" t="s">
         <v>204</v>
       </c>
@@ -4259,10 +4253,10 @@
       <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -4276,12 +4270,12 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="26" t="s">
         <v>203</v>
       </c>
@@ -4299,10 +4293,10 @@
       <c r="K24" s="11">
         <v>7</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="26" t="s">
         <v>246</v>
       </c>
@@ -4322,12 +4316,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="38" t="s">
         <v>189</v>
       </c>
@@ -4343,10 +4337,10 @@
       <c r="K25" s="11">
         <v>8</v>
       </c>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="9" t="s">
         <v>74</v>
       </c>
@@ -4364,14 +4358,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="9" t="s">
         <v>74</v>
       </c>
@@ -4389,20 +4383,20 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:19">
+      <c r="A27" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
       <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="68"/>
+      <c r="M27" s="69"/>
       <c r="N27" s="9" t="s">
         <v>74</v>
       </c>
@@ -4420,14 +4414,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="5" t="s">
         <v>155</v>
       </c>
@@ -4449,10 +4443,10 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="68"/>
+      <c r="L28" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="69"/>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4466,12 +4460,12 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="35" t="s">
         <v>190</v>
       </c>
@@ -4487,10 +4481,10 @@
       <c r="K29" s="11">
         <v>12</v>
       </c>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="69"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="4" t="s">
         <v>86</v>
       </c>
@@ -4504,12 +4498,12 @@
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="39" t="s">
         <v>191</v>
       </c>
@@ -4523,12 +4517,12 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="7" t="s">
         <v>192</v>
       </c>
@@ -4543,19 +4537,19 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="7" t="s">
         <v>169</v>
       </c>
@@ -4573,10 +4567,10 @@
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="66"/>
+      <c r="M32" s="67"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -4596,12 +4590,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="11">
         <v>5</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="7" t="s">
         <v>170</v>
       </c>
@@ -4619,12 +4613,12 @@
       <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="63"/>
+      <c r="M33" s="64"/>
       <c r="N33" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>169</v>
@@ -4642,12 +4636,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="11">
         <v>6</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="39" t="s">
         <v>191</v>
       </c>
@@ -4663,12 +4657,12 @@
       <c r="K34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>170</v>
@@ -4686,16 +4680,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="63"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>171</v>
@@ -4713,22 +4707,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+    <row r="36" spans="1:19">
+      <c r="A36" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="L36" s="62" t="s">
+      <c r="L36" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="63"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>172</v>
@@ -4746,14 +4740,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="5" t="s">
         <v>155</v>
       </c>
@@ -4775,10 +4769,10 @@
       <c r="K37" s="11">
         <v>5</v>
       </c>
-      <c r="L37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="68"/>
+      <c r="L37" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="69"/>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,12 +4786,12 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="11">
         <v>1</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="39" t="s">
         <v>194</v>
       </c>
@@ -4813,10 +4807,10 @@
       <c r="K38" s="11">
         <v>6</v>
       </c>
-      <c r="L38" s="62" t="s">
+      <c r="L38" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="63"/>
+      <c r="M38" s="64"/>
       <c r="N38" s="4" t="s">
         <v>86</v>
       </c>
@@ -4830,12 +4824,12 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="36" t="s">
         <v>195</v>
       </c>
@@ -4851,12 +4845,12 @@
       <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="62" t="s">
+      <c r="L39" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="63"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="7" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>174</v>
@@ -4874,12 +4868,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="11">
         <v>3</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="7" t="s">
         <v>171</v>
       </c>
@@ -4897,12 +4891,12 @@
       <c r="K40" s="11">
         <v>8</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="63"/>
+      <c r="M40" s="64"/>
       <c r="N40" s="7" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>175</v>
@@ -4920,12 +4914,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="11">
         <v>4</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="7" t="s">
         <v>172</v>
       </c>
@@ -4943,10 +4937,10 @@
       <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="62" t="s">
+      <c r="L41" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="63"/>
+      <c r="M41" s="64"/>
       <c r="N41" s="9" t="s">
         <v>74</v>
       </c>
@@ -4962,14 +4956,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="K42" s="11">
         <v>10</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="68"/>
+      <c r="M42" s="69"/>
       <c r="N42" s="9" t="s">
         <v>74</v>
       </c>
@@ -4985,20 +4979,20 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+    <row r="43" spans="1:19">
+      <c r="A43" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
       <c r="K43" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="68"/>
+      <c r="L43" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="69"/>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -5012,14 +5006,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="66"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="5" t="s">
         <v>155</v>
       </c>
@@ -5041,10 +5035,10 @@
       <c r="K44" s="11">
         <v>12</v>
       </c>
-      <c r="L44" s="67" t="s">
+      <c r="L44" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="69"/>
+      <c r="M44" s="70"/>
       <c r="N44" s="4" t="s">
         <v>86</v>
       </c>
@@ -5058,12 +5052,12 @@
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="11">
         <v>1</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="35" t="s">
         <v>198</v>
       </c>
@@ -5077,12 +5071,12 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="39" t="s">
         <v>197</v>
       </c>
@@ -5095,19 +5089,19 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="K46" s="64" t="s">
+      <c r="K46" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L46" s="65"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="11">
         <v>3</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="7" t="s">
         <v>174</v>
       </c>
@@ -5125,10 +5119,10 @@
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="65" t="s">
+      <c r="L47" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="66"/>
+      <c r="M47" s="67"/>
       <c r="N47" s="5" t="s">
         <v>155</v>
       </c>
@@ -5148,12 +5142,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="11">
         <v>4</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="7" t="s">
         <v>175</v>
       </c>
@@ -5171,8 +5165,8 @@
       <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
       <c r="N48" s="7" t="s">
         <v>179</v>
       </c>
@@ -5188,12 +5182,12 @@
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="7" t="s">
         <v>180</v>
       </c>
@@ -5209,22 +5203,22 @@
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+    <row r="50" spans="1:19">
+      <c r="A50" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="66"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="5" t="s">
         <v>155</v>
       </c>
@@ -5244,12 +5238,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="11">
         <v>1</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="40" t="s">
         <v>200</v>
       </c>
@@ -5268,11 +5262,77 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="A10:D10"/>
@@ -5289,77 +5349,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5367,14 +5361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" style="2"/>
@@ -5395,7 +5389,7 @@
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
       <c r="N1" s="54"/>
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
@@ -5418,13 +5412,13 @@
       <c r="AE1" s="55"/>
       <c r="AF1" s="57"/>
     </row>
-    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="2:32" ht="18.75" customHeight="1">
+      <c r="B2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
       <c r="N2" s="58"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -5445,14 +5439,14 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="59"/>
     </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="18.75" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
@@ -5476,11 +5470,11 @@
       </c>
       <c r="S3" s="41"/>
       <c r="T3" s="41"/>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="41" t="s">
         <v>134</v>
@@ -5497,14 +5491,14 @@
       </c>
       <c r="AF3" s="59"/>
     </row>
-    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="18.75" customHeight="1">
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
@@ -5520,41 +5514,41 @@
         <v>74</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="74"/>
-      <c r="S4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="49"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="79"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="51" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="70" t="s">
+      <c r="AA4" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="73"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF4" s="59"/>
     </row>
-    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" ht="18.75" customHeight="1">
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
@@ -5568,17 +5562,17 @@
       <c r="N5" s="58"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="76"/>
       <c r="T5" s="49"/>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="79"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="49"/>
       <c r="Z5" s="49"/>
@@ -5589,14 +5583,14 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="59"/>
     </row>
-    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
@@ -5627,14 +5621,14 @@
       <c r="AE6" s="52"/>
       <c r="AF6" s="61"/>
     </row>
-    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
@@ -5646,14 +5640,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" ht="18.75" customHeight="1">
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="68"/>
+      <c r="C8" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="69"/>
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
@@ -5661,14 +5655,14 @@
       <c r="G8" s="48"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" ht="18.75" customHeight="1">
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
@@ -5676,14 +5670,14 @@
       <c r="G9" s="48"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" ht="18.75" customHeight="1">
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
@@ -5695,14 +5689,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" ht="18.75" customHeight="1">
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="29" t="s">
         <v>74</v>
       </c>
@@ -5714,14 +5708,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" ht="18.75" customHeight="1">
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="29" t="s">
         <v>74</v>
       </c>
@@ -5733,14 +5727,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" ht="18.75" customHeight="1">
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
@@ -5752,14 +5746,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" ht="18.75" customHeight="1">
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="68"/>
+      <c r="C14" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="69"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -5767,14 +5761,14 @@
       <c r="G14" s="48"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" ht="18.75" customHeight="1">
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="31" t="s">
         <v>86</v>
       </c>
@@ -5782,24 +5776,24 @@
       <c r="G15" s="48"/>
       <c r="H15" s="43"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="44" t="s">
         <v>2</v>
       </c>
@@ -5813,15 +5807,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="29" t="s">
         <v>74</v>
       </c>
@@ -5833,15 +5827,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
@@ -5853,15 +5847,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
@@ -5873,15 +5867,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
@@ -5893,15 +5887,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="68"/>
+      <c r="C23" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="69"/>
       <c r="E23" s="30" t="s">
         <v>3</v>
       </c>
@@ -5909,15 +5903,15 @@
       <c r="G23" s="48"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="31" t="s">
         <v>86</v>
       </c>
@@ -5925,15 +5919,15 @@
       <c r="G24" s="48"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="29" t="s">
         <v>74</v>
       </c>
@@ -5945,15 +5939,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="29" t="s">
         <v>74</v>
       </c>
@@ -5965,15 +5959,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="29" t="s">
         <v>74</v>
       </c>
@@ -5985,15 +5979,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="29" t="s">
         <v>74</v>
       </c>
@@ -6005,15 +5999,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11">
         <v>11</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="68"/>
+      <c r="C29" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="69"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -6021,15 +6015,15 @@
       <c r="G29" s="48"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11">
         <v>12</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
@@ -6037,27 +6031,27 @@
       <c r="G30" s="48"/>
       <c r="H30" s="43"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6077,15 +6071,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
@@ -6108,15 +6102,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
@@ -6136,15 +6130,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
@@ -6167,15 +6161,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
@@ -6195,15 +6189,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="68"/>
+      <c r="C38" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="69"/>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
@@ -6217,15 +6211,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
@@ -6239,15 +6233,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11">
         <v>7</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="27" t="s">
         <v>146</v>
       </c>
@@ -6267,15 +6261,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11">
         <v>8</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="26" t="s">
         <v>247</v>
       </c>
@@ -6296,15 +6290,15 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11">
         <v>9</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="26" t="s">
         <v>248</v>
       </c>
@@ -6324,15 +6318,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11">
         <v>10</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="68"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
@@ -6348,15 +6342,15 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11">
         <v>11</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="68"/>
+      <c r="C44" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="69"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6370,15 +6364,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="69"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
@@ -6392,27 +6386,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6433,22 +6427,22 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="N48" s="90" t="s">
+      <c r="N48" s="62" t="s">
         <v>65</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="26" t="s">
         <v>240</v>
       </c>
@@ -6474,15 +6468,15 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="26" t="s">
         <v>241</v>
       </c>
@@ -6508,15 +6502,15 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11">
         <v>3</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="26" t="s">
         <v>244</v>
       </c>
@@ -6542,15 +6536,15 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="26" t="s">
         <v>245</v>
       </c>
@@ -6576,15 +6570,15 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>5</v>
       </c>
-      <c r="C53" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="68"/>
+      <c r="C53" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="69"/>
       <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
@@ -6604,15 +6598,15 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="11">
         <v>6</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="4" t="s">
         <v>86</v>
       </c>
@@ -6632,15 +6626,15 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="11">
         <v>7</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="26" t="s">
         <v>246</v>
       </c>
@@ -6666,15 +6660,15 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="9" t="s">
         <v>74</v>
       </c>
@@ -6698,15 +6692,15 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="11">
         <v>9</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="9" t="s">
         <v>74</v>
       </c>
@@ -6730,15 +6724,15 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="11">
         <v>10</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="68"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="9" t="s">
         <v>74</v>
       </c>
@@ -6762,15 +6756,15 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11">
         <v>11</v>
       </c>
-      <c r="C59" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="68"/>
+      <c r="C59" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="69"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -6790,15 +6784,15 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="11">
         <v>12</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="69"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="4" t="s">
         <v>86</v>
       </c>
@@ -6818,7 +6812,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="10"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -6827,14 +6821,14 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="10"/>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="14"/>
@@ -6842,15 +6836,15 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="66"/>
+      <c r="D63" s="67"/>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
@@ -6876,15 +6870,15 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="7" t="s">
         <v>147</v>
       </c>
@@ -6913,15 +6907,15 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="11">
         <v>2</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="64"/>
       <c r="E65" s="7" t="s">
         <v>148</v>
       </c>
@@ -6947,15 +6941,15 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="11">
         <v>3</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="7" t="s">
         <v>149</v>
       </c>
@@ -6984,15 +6978,15 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="7" t="s">
         <v>150</v>
       </c>
@@ -7018,15 +7012,15 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="11">
         <v>5</v>
       </c>
-      <c r="C68" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="68"/>
+      <c r="C68" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="69"/>
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
@@ -7046,15 +7040,15 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="11">
         <v>6</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="63"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7074,15 +7068,15 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="11">
         <v>7</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="63"/>
+      <c r="D70" s="64"/>
       <c r="E70" s="7" t="s">
         <v>151</v>
       </c>
@@ -7111,15 +7105,15 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="11">
         <v>8</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="63"/>
+      <c r="D71" s="64"/>
       <c r="E71" s="7" t="s">
         <v>152</v>
       </c>
@@ -7145,15 +7139,15 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="11">
         <v>9</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="63"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="9" t="s">
         <v>74</v>
       </c>
@@ -7172,15 +7166,15 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="10"/>
       <c r="B73" s="11">
         <v>10</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="69"/>
       <c r="E73" s="9" t="s">
         <v>74</v>
       </c>
@@ -7196,15 +7190,15 @@
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="10"/>
       <c r="B74" s="11">
         <v>11</v>
       </c>
-      <c r="C74" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="68"/>
+      <c r="C74" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="69"/>
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
@@ -7218,15 +7212,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="10"/>
       <c r="B75" s="11">
         <v>12</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="69"/>
+      <c r="D75" s="70"/>
       <c r="E75" s="4" t="s">
         <v>86</v>
       </c>
@@ -7240,26 +7234,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="64" t="s">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
+      <c r="B77" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
       <c r="I77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="66"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -7279,14 +7273,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="B79" s="11">
         <v>1</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="63"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="8" t="s">
         <v>106</v>
       </c>
@@ -7300,14 +7294,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="63"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
@@ -7323,14 +7317,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="18.75" customHeight="1">
       <c r="B81" s="11">
         <v>3</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="63"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="8" t="s">
         <v>108</v>
       </c>
@@ -7346,14 +7340,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="18.75" customHeight="1">
       <c r="B82" s="11">
         <v>4</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="63"/>
+      <c r="D82" s="64"/>
       <c r="E82" s="8" t="s">
         <v>109</v>
       </c>
@@ -7367,14 +7361,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="18.75" customHeight="1">
       <c r="B83" s="11">
         <v>5</v>
       </c>
-      <c r="C83" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="68"/>
+      <c r="C83" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="69"/>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
@@ -7388,14 +7382,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="18.75" customHeight="1">
       <c r="B84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="62" t="s">
+      <c r="C84" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="63"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="4" t="s">
         <v>68</v>
       </c>
@@ -7409,14 +7403,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="18.75" customHeight="1">
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D85" s="63"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
@@ -7430,14 +7424,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="18.75" customHeight="1">
       <c r="B86" s="11">
         <v>8</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="D86" s="63"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="8" t="s">
         <v>111</v>
       </c>
@@ -7453,14 +7447,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="18.75" customHeight="1">
       <c r="B87" s="11">
         <v>9</v>
       </c>
-      <c r="C87" s="62" t="s">
+      <c r="C87" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D87" s="63"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
@@ -7474,14 +7468,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="18.75" customHeight="1">
       <c r="B88" s="11">
         <v>10</v>
       </c>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D88" s="68"/>
+      <c r="D88" s="69"/>
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
@@ -7491,14 +7485,14 @@
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="18.75" customHeight="1">
       <c r="B89" s="11">
         <v>11</v>
       </c>
-      <c r="C89" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="68"/>
+      <c r="C89" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="69"/>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7512,14 +7506,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="18.75" customHeight="1">
       <c r="B90" s="11">
         <v>12</v>
       </c>
-      <c r="C90" s="67" t="s">
+      <c r="C90" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="69"/>
+      <c r="D90" s="70"/>
       <c r="E90" s="4" t="s">
         <v>68</v>
       </c>
@@ -7533,33 +7527,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="18.75" customHeight="1">
       <c r="G91" s="42"/>
     </row>
-    <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="64" t="s">
+    <row r="92" spans="1:14" ht="18.75" customHeight="1">
+      <c r="B92" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
       <c r="G92" s="42"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="18.75" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>234</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="66"/>
+      <c r="D93" s="67"/>
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
@@ -7580,15 +7574,15 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11">
         <v>1</v>
       </c>
-      <c r="C94" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="68"/>
+      <c r="C94" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="69"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7602,17 +7596,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>207</v>
       </c>
       <c r="B95" s="11">
         <v>2</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="63"/>
+      <c r="D95" s="64"/>
       <c r="E95" s="25" t="s">
         <v>123</v>
       </c>
@@ -7632,17 +7626,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>208</v>
       </c>
       <c r="B96" s="11">
         <v>3</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="C96" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="63"/>
+      <c r="D96" s="64"/>
       <c r="E96" s="25" t="s">
         <v>124</v>
       </c>
@@ -7662,15 +7656,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11">
         <v>4</v>
       </c>
-      <c r="C97" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="68"/>
+      <c r="C97" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="69"/>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
@@ -7684,17 +7678,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="18.75" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>209</v>
       </c>
       <c r="B98" s="11">
         <v>5</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="68"/>
+      <c r="D98" s="69"/>
       <c r="E98" s="25" t="s">
         <v>125</v>
       </c>
@@ -7714,17 +7708,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="18.75" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>210</v>
       </c>
       <c r="B99" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="63"/>
+      <c r="D99" s="64"/>
       <c r="E99" s="25" t="s">
         <v>126</v>
       </c>
@@ -7744,15 +7738,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="18.75" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11">
         <v>7</v>
       </c>
-      <c r="C100" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="68"/>
+      <c r="C100" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="69"/>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7766,17 +7760,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="18.75" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="63"/>
+      <c r="D101" s="64"/>
       <c r="E101" s="25" t="s">
         <v>120</v>
       </c>
@@ -7796,17 +7790,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="18.75" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B102" s="11">
         <v>9</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="63"/>
+      <c r="D102" s="64"/>
       <c r="E102" s="25" t="s">
         <v>121</v>
       </c>
@@ -7826,15 +7820,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="18.75" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11">
         <v>10</v>
       </c>
-      <c r="C103" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="68"/>
+      <c r="C103" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="69"/>
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
@@ -7848,17 +7842,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="18.75" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>213</v>
       </c>
       <c r="B104" s="11">
         <v>11</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="68"/>
+      <c r="D104" s="69"/>
       <c r="E104" s="28" t="s">
         <v>127</v>
       </c>
@@ -7881,17 +7875,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="18.75" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B105" s="11">
         <v>12</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="69"/>
+      <c r="D105" s="70"/>
       <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
@@ -7910,17 +7904,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="18.75" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>215</v>
       </c>
       <c r="B106" s="11">
         <v>13</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="68"/>
+      <c r="D106" s="69"/>
       <c r="E106" s="8" t="s">
         <v>128</v>
       </c>
@@ -7940,17 +7934,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="18.75" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>216</v>
       </c>
       <c r="B107" s="11">
         <v>14</v>
       </c>
-      <c r="C107" s="67" t="s">
+      <c r="C107" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="68"/>
+      <c r="D107" s="69"/>
       <c r="E107" s="8" t="s">
         <v>129</v>
       </c>
@@ -7970,15 +7964,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="18.75" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="69"/>
+      <c r="D108" s="70"/>
       <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
@@ -7994,89 +7988,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8101,6 +8012,89 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8108,19 +8102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8134,7 +8128,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8148,7 +8142,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8162,7 +8156,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8176,7 +8170,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8190,14 +8184,14 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="2"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8206,7 +8200,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -8226,15 +8220,15 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="84"/>
+      <c r="C8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="85"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8246,15 +8240,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8266,15 +8260,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
@@ -8286,15 +8280,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
@@ -8306,7 +8300,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8320,7 +8314,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8334,7 +8328,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8348,7 +8342,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8362,7 +8356,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8376,7 +8370,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8390,7 +8384,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8404,7 +8398,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8418,7 +8412,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8432,7 +8426,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8446,7 +8440,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8460,7 +8454,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8474,7 +8468,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8488,7 +8482,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8502,7 +8496,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8516,7 +8510,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8530,7 +8524,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8544,7 +8538,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8558,7 +8552,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8572,7 +8566,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8586,7 +8580,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8600,7 +8594,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8614,7 +8608,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8628,7 +8622,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8656,19 +8650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8684,7 +8678,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8700,7 +8694,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8716,7 +8710,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8732,15 +8726,15 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -8750,7 +8744,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="12" t="s">
@@ -8772,16 +8766,16 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="84"/>
+      <c r="D7" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="85"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8794,16 +8788,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
@@ -8816,16 +8810,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="7" t="s">
         <v>151</v>
       </c>
@@ -8838,16 +8832,16 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
@@ -8860,7 +8854,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8876,7 +8870,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8892,7 +8886,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8908,7 +8902,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8924,7 +8918,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8940,7 +8934,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8956,7 +8950,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8972,7 +8966,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8988,7 +8982,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9004,7 +8998,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9020,7 +9014,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9036,7 +9030,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9052,7 +9046,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9068,7 +9062,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9084,7 +9078,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9100,7 +9094,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9116,7 +9110,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9132,7 +9126,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9148,7 +9142,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9164,7 +9158,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9180,7 +9174,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9196,7 +9190,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9212,7 +9206,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9228,7 +9222,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9244,7 +9238,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9260,7 +9254,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9276,7 +9270,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9292,7 +9286,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9308,7 +9302,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9324,7 +9318,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9340,7 +9334,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9370,19 +9364,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9396,7 +9390,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9410,14 +9404,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9426,7 +9420,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>0</v>
@@ -9446,15 +9440,15 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="84"/>
+      <c r="D8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="85"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9466,15 +9460,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
@@ -9486,15 +9480,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="F10" s="26" t="s">
         <v>153</v>
       </c>
@@ -9506,15 +9500,15 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="26" t="s">
         <v>154</v>
       </c>
@@ -9526,7 +9520,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9540,7 +9534,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9554,7 +9548,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9568,7 +9562,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9596,19 +9590,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9625,7 +9619,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9642,7 +9636,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9659,7 +9653,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9676,15 +9670,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9695,7 +9689,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
@@ -9718,16 +9712,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
@@ -9741,16 +9735,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
@@ -9764,16 +9758,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
@@ -9787,16 +9781,16 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
@@ -9810,16 +9804,16 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
@@ -9833,16 +9827,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
@@ -9856,16 +9850,16 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
@@ -9879,16 +9873,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="84"/>
+      <c r="E15" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="85"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -9902,16 +9896,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="84"/>
+      <c r="E16" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="85"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -9925,16 +9919,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
@@ -9948,16 +9942,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="7" t="s">
         <v>147</v>
       </c>
@@ -9971,16 +9965,16 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="7" t="s">
         <v>148</v>
       </c>
@@ -9994,16 +9988,16 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
@@ -10017,16 +10011,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
@@ -10040,16 +10034,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -10065,16 +10059,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="11">
         <v>16</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10088,7 +10082,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10105,7 +10099,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10122,7 +10116,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10139,7 +10133,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10156,7 +10150,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10173,7 +10167,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10190,7 +10184,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10207,7 +10201,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10224,7 +10218,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10241,7 +10235,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10260,6 +10254,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10270,13 +10271,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10284,19 +10278,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10316,7 +10310,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10336,7 +10330,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10356,7 +10350,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10376,7 +10370,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -10396,15 +10390,15 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10418,7 +10412,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12" t="s">
@@ -10444,16 +10438,16 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
@@ -10472,16 +10466,16 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="8" t="s">
         <v>107</v>
       </c>
@@ -10500,16 +10494,16 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
@@ -10528,16 +10522,16 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -10556,16 +10550,16 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="84"/>
+      <c r="E15" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="85"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10582,16 +10576,16 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -10608,16 +10602,16 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="8" t="s">
         <v>110</v>
       </c>
@@ -10636,16 +10630,16 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>8</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="8" t="s">
         <v>111</v>
       </c>
@@ -10664,16 +10658,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="8" t="s">
         <v>112</v>
       </c>
@@ -10692,16 +10686,16 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="8" t="s">
         <v>113</v>
       </c>
@@ -10720,16 +10714,16 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>11</v>
       </c>
-      <c r="E21" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="84"/>
+      <c r="E21" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="85"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -10746,16 +10740,16 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
@@ -10772,7 +10766,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10792,7 +10786,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10812,7 +10806,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10832,7 +10826,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10852,7 +10846,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10872,7 +10866,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10892,7 +10886,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10912,7 +10906,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10932,7 +10926,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10952,7 +10946,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10972,7 +10966,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10992,7 +10986,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" ht="15.75">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -11034,19 +11028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11060,7 +11054,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -11074,7 +11068,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11088,15 +11082,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -11104,7 +11098,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>206</v>
@@ -11112,10 +11106,10 @@
       <c r="D7" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
@@ -11128,16 +11122,16 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="85"/>
+      <c r="E8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="86"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -11148,7 +11142,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>207</v>
@@ -11156,10 +11150,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="25" t="s">
         <v>123</v>
       </c>
@@ -11172,7 +11166,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>208</v>
@@ -11180,10 +11174,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
@@ -11196,16 +11190,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="85"/>
+      <c r="E11" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="86"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -11216,7 +11210,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>209</v>
@@ -11224,10 +11218,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
@@ -11240,7 +11234,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>210</v>
@@ -11248,10 +11242,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="25" t="s">
         <v>126</v>
       </c>
@@ -11264,16 +11258,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="85"/>
+      <c r="E14" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="86"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -11284,7 +11278,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>211</v>
@@ -11292,10 +11286,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="25" t="s">
         <v>120</v>
       </c>
@@ -11308,7 +11302,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
         <v>212</v>
@@ -11316,10 +11310,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="25" t="s">
         <v>121</v>
       </c>
@@ -11332,16 +11326,16 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="85"/>
+      <c r="E17" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="86"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -11352,7 +11346,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>213</v>
@@ -11360,10 +11354,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
@@ -11376,7 +11370,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>214</v>
@@ -11384,10 +11378,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
@@ -11400,7 +11394,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
         <v>215</v>
@@ -11408,10 +11402,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="8" t="s">
         <v>128</v>
       </c>
@@ -11424,7 +11418,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
         <v>216</v>
@@ -11432,10 +11426,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="8" t="s">
         <v>129</v>
       </c>
@@ -11448,16 +11442,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -11468,7 +11462,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11482,7 +11476,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11496,7 +11490,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11512,16 +11506,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11529,6 +11513,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1483,20 +1483,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>680605</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>49357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1510,8 +1510,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1028700" y="342900"/>
-          <a:ext cx="14401800" cy="27698700"/>
+          <a:off x="554182" y="675409"/>
+          <a:ext cx="14258059" cy="25178039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1682,7 +1682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1711,7 +1711,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1723,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1741,7 +1741,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1770,7 +1770,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1809,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1853,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3295,25 +3295,30 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3330,30 +3335,25 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5262,6 +5262,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="B25:C25"/>
@@ -5278,82 +5354,6 @@
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7988,6 +7988,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8012,89 +8095,6 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10254,13 +10254,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10271,6 +10264,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11506,6 +11506,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11513,16 +11523,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255903A-F0AE-4350-AD95-17B4C0A34A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -19,8 +25,8 @@
     <sheet name="Feuil2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="248">
   <si>
     <t>Pin #</t>
   </si>
@@ -627,16 +633,7 @@
     <t>BALISE_PWR_3V3</t>
   </si>
   <si>
-    <t>ALIMENTAION 12V</t>
-  </si>
-  <si>
-    <t>INT_PWR_12V</t>
-  </si>
-  <si>
     <t>ESP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>US_X_ECHO_5V</t>
@@ -786,8 +783,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,15 +896,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,12 +1008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFEB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1263,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1330,7 +1314,6 @@
     <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,7 +1479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1546,7 +1535,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1588,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1641,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1653,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1682,7 +1671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1711,7 +1700,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1712,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1741,7 +1730,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1770,7 +1759,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1809,7 +1798,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1842,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,21 +2132,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2165,36 +2154,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2214,14 +2203,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
@@ -2231,14 +2220,14 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="64"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
@@ -2248,14 +2237,14 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="64"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
@@ -2265,14 +2254,14 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="29" t="s">
         <v>74</v>
       </c>
@@ -2282,14 +2271,14 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="69"/>
+      <c r="B7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="68"/>
       <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
@@ -2299,14 +2288,14 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="31" t="s">
         <v>86</v>
       </c>
@@ -2316,14 +2305,14 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2333,14 +2322,14 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29" t="s">
         <v>74</v>
       </c>
@@ -2350,14 +2339,14 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="29" t="s">
         <v>74</v>
       </c>
@@ -2367,14 +2356,14 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2384,14 +2373,14 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="69"/>
+      <c r="B13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="68"/>
       <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
@@ -2401,14 +2390,14 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="31" t="s">
         <v>86</v>
       </c>
@@ -2418,7 +2407,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2429,27 +2418,27 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="65" t="s">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="5" t="s">
         <v>155</v>
       </c>
@@ -2469,14 +2458,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="64"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
@@ -2486,14 +2475,14 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="64"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
@@ -2503,14 +2492,14 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2520,14 +2509,14 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
@@ -2537,14 +2526,14 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="69"/>
+      <c r="B22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="68"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2554,14 +2543,14 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="64"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2571,14 +2560,14 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
@@ -2588,14 +2577,14 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="64"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
@@ -2605,14 +2594,14 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
@@ -2622,14 +2611,14 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2639,14 +2628,14 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="69"/>
+      <c r="B28" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="68"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2656,14 +2645,14 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2673,13 +2662,13 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2687,14 +2676,14 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
         <v>155</v>
       </c>
@@ -2715,14 +2704,14 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="64"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2733,14 +2722,14 @@
       <c r="I33" s="32"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="64"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="8" t="s">
         <v>107</v>
       </c>
@@ -2751,14 +2740,14 @@
       <c r="I34" s="32"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2769,14 +2758,14 @@
       <c r="I35" s="32"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>4</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
@@ -2787,14 +2776,14 @@
       <c r="I36" s="32"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>5</v>
       </c>
-      <c r="B37" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="69"/>
+      <c r="B37" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="68"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -2805,14 +2794,14 @@
       <c r="I37" s="32"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>6</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2823,14 +2812,14 @@
       <c r="I38" s="32"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="64"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2841,14 +2830,14 @@
       <c r="I39" s="32"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>8</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="64"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
@@ -2859,14 +2848,14 @@
       <c r="I40" s="32"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>9</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="8" t="s">
         <v>112</v>
       </c>
@@ -2877,14 +2866,14 @@
       <c r="I41" s="32"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>10</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
@@ -2895,14 +2884,14 @@
       <c r="I42" s="32"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="69"/>
+      <c r="B43" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="68"/>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2913,14 +2902,14 @@
       <c r="I43" s="32"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>12</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2931,7 +2920,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2943,13 +2932,13 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="65" t="s">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2957,14 +2946,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="5" t="s">
         <v>155</v>
       </c>
@@ -2985,14 +2974,14 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="69"/>
+      <c r="B48" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="68"/>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3005,14 +2994,14 @@
       <c r="I48" s="32"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="25" t="s">
         <v>123</v>
       </c>
@@ -3025,14 +3014,14 @@
       <c r="I49" s="32"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="64"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="25" t="s">
         <v>124</v>
       </c>
@@ -3045,14 +3034,14 @@
       <c r="I50" s="32"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="69"/>
+      <c r="B51" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="68"/>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,14 +3054,14 @@
       <c r="I51" s="32"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="69"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="25" t="s">
         <v>125</v>
       </c>
@@ -3085,14 +3074,14 @@
       <c r="I52" s="32"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="25" t="s">
         <v>126</v>
       </c>
@@ -3105,14 +3094,14 @@
       <c r="I53" s="32"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="69"/>
+      <c r="B54" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="68"/>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,14 +3114,14 @@
       <c r="I54" s="32"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="64"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="25" t="s">
         <v>120</v>
       </c>
@@ -3145,14 +3134,14 @@
       <c r="I55" s="32"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="64"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="25" t="s">
         <v>121</v>
       </c>
@@ -3165,14 +3154,14 @@
       <c r="I56" s="32"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="69"/>
+      <c r="B57" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="68"/>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3185,14 +3174,14 @@
       <c r="I57" s="32"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="69"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="28" t="s">
         <v>127</v>
       </c>
@@ -3203,14 +3192,14 @@
       <c r="I58" s="32"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3221,14 +3210,14 @@
       <c r="I59" s="32"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="69"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="34" t="s">
         <v>128</v>
       </c>
@@ -3241,14 +3230,14 @@
       <c r="I60" s="32"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="69"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="34" t="s">
         <v>129</v>
       </c>
@@ -3261,14 +3250,14 @@
       <c r="I61" s="32"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="70"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="31" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3270,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3295,30 +3284,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3335,39 +3319,44 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V48" sqref="V48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11" style="2"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
@@ -3386,28 +3375,28 @@
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="K1" s="65" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="K1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3429,10 +3418,10 @@
       <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="67"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3452,12 +3441,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3475,10 +3464,10 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="64"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3492,18 +3481,18 @@
         <v>176</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3521,10 +3510,10 @@
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3538,18 +3527,18 @@
         <v>176</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="7" t="s">
         <v>179</v>
       </c>
@@ -3567,10 +3556,10 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="64"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="7" t="s">
         <v>165</v>
       </c>
@@ -3584,18 +3573,18 @@
         <v>176</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="7" t="s">
         <v>180</v>
       </c>
@@ -3613,10 +3602,10 @@
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="7" t="s">
         <v>164</v>
       </c>
@@ -3630,18 +3619,18 @@
         <v>176</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="7" t="s">
         <v>181</v>
       </c>
@@ -3659,10 +3648,10 @@
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="69"/>
+      <c r="L7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="68"/>
       <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3676,12 +3665,12 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="7" t="s">
         <v>182</v>
       </c>
@@ -3699,10 +3688,10 @@
       <c r="K8" s="11">
         <v>6</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
@@ -3716,14 +3705,14 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="64"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="27" t="s">
         <v>168</v>
       </c>
@@ -3737,31 +3726,31 @@
         <v>176</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="L10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="64"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>166</v>
@@ -3770,20 +3759,20 @@
         <v>176</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="5" t="s">
         <v>155</v>
       </c>
@@ -3805,15 +3794,15 @@
       <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="64"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>166</v>
@@ -3822,18 +3811,18 @@
         <v>176</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="36" t="s">
         <v>184</v>
       </c>
@@ -3849,10 +3838,10 @@
       <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="69"/>
+      <c r="M12" s="68"/>
       <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3863,15 +3852,15 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="39" t="s">
         <v>186</v>
       </c>
@@ -3887,10 +3876,10 @@
       <c r="K13" s="11">
         <v>11</v>
       </c>
-      <c r="L13" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="69"/>
+      <c r="L13" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="68"/>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3904,12 +3893,12 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="36" t="s">
         <v>185</v>
       </c>
@@ -3925,10 +3914,10 @@
       <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="70"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3939,15 +3928,15 @@
       <c r="Q14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="7" t="s">
         <v>165</v>
       </c>
@@ -3963,12 +3952,12 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="7" t="s">
         <v>164</v>
       </c>
@@ -3983,19 +3972,19 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="7" t="s">
         <v>187</v>
       </c>
@@ -4011,10 +4000,10 @@
       <c r="K17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="67"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="5" t="s">
         <v>2</v>
       </c>
@@ -4034,12 +4023,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
         <v>168</v>
       </c>
@@ -4057,15 +4046,15 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="64"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>161</v>
@@ -4074,25 +4063,25 @@
         <v>176</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K19" s="11">
         <v>2</v>
       </c>
-      <c r="L19" s="63" t="s">
+      <c r="L19" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="64"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>166</v>
@@ -4101,31 +4090,31 @@
         <v>176</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="K20" s="11">
         <v>3</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="64"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>161</v>
@@ -4134,20 +4123,20 @@
         <v>176</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="67"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="5" t="s">
         <v>155</v>
       </c>
@@ -4169,15 +4158,15 @@
       <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="63" t="s">
+      <c r="L21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="64"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>161</v>
@@ -4186,20 +4175,20 @@
         <v>176</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>74</v>
@@ -4213,10 +4202,10 @@
       <c r="K22" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="69"/>
+      <c r="L22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="68"/>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4230,14 +4219,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>74</v>
@@ -4253,10 +4242,10 @@
       <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="64"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -4270,14 +4259,14 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>3</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>74</v>
@@ -4293,15 +4282,15 @@
       <c r="K24" s="11">
         <v>7</v>
       </c>
-      <c r="L24" s="63" t="s">
+      <c r="L24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="64"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>161</v>
@@ -4310,18 +4299,18 @@
         <v>176</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="38" t="s">
         <v>189</v>
       </c>
@@ -4337,10 +4326,10 @@
       <c r="K25" s="11">
         <v>8</v>
       </c>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="64"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="9" t="s">
         <v>74</v>
       </c>
@@ -4352,20 +4341,20 @@
         <v>176</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="63" t="s">
+      <c r="L26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="64"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="9" t="s">
         <v>74</v>
       </c>
@@ -4377,26 +4366,26 @@
         <v>176</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="69"/>
+      <c r="M27" s="68"/>
       <c r="N27" s="9" t="s">
         <v>74</v>
       </c>
@@ -4408,20 +4397,20 @@
         <v>176</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="5" t="s">
         <v>155</v>
       </c>
@@ -4443,10 +4432,10 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="69"/>
+      <c r="L28" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="68"/>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4460,12 +4449,12 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="35" t="s">
         <v>190</v>
       </c>
@@ -4481,10 +4470,10 @@
       <c r="K29" s="11">
         <v>12</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="70"/>
+      <c r="M29" s="69"/>
       <c r="N29" s="4" t="s">
         <v>86</v>
       </c>
@@ -4495,15 +4484,15 @@
       <c r="Q29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="39" t="s">
         <v>191</v>
       </c>
@@ -4517,12 +4506,12 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>3</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
         <v>192</v>
       </c>
@@ -4537,19 +4526,19 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
         <v>169</v>
       </c>
@@ -4567,10 +4556,10 @@
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="66" t="s">
+      <c r="L32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="67"/>
+      <c r="M32" s="66"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -4590,12 +4579,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>5</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="7" t="s">
         <v>170</v>
       </c>
@@ -4613,10 +4602,10 @@
       <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="64"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="7" t="s">
         <v>169</v>
       </c>
@@ -4630,18 +4619,18 @@
         <v>176</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>6</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="39" t="s">
         <v>191</v>
       </c>
@@ -4657,10 +4646,10 @@
       <c r="K34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="63" t="s">
+      <c r="L34" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="64"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="7" t="s">
         <v>170</v>
       </c>
@@ -4674,20 +4663,20 @@
         <v>176</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="63" t="s">
+      <c r="L35" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="64"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="7" t="s">
         <v>171</v>
       </c>
@@ -4701,26 +4690,26 @@
         <v>176</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
       <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="L36" s="63" t="s">
+      <c r="L36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="64"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="7" t="s">
         <v>172</v>
       </c>
@@ -4734,20 +4723,20 @@
         <v>176</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="67"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="5" t="s">
         <v>155</v>
       </c>
@@ -4769,10 +4758,10 @@
       <c r="K37" s="11">
         <v>5</v>
       </c>
-      <c r="L37" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="69"/>
+      <c r="L37" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="68"/>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4786,12 +4775,12 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="39" t="s">
         <v>194</v>
       </c>
@@ -4807,10 +4796,10 @@
       <c r="K38" s="11">
         <v>6</v>
       </c>
-      <c r="L38" s="63" t="s">
+      <c r="L38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="64"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="4" t="s">
         <v>86</v>
       </c>
@@ -4824,12 +4813,12 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="36" t="s">
         <v>195</v>
       </c>
@@ -4845,10 +4834,10 @@
       <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="63" t="s">
+      <c r="L39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="64"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="7" t="s">
         <v>174</v>
       </c>
@@ -4862,18 +4851,18 @@
         <v>176</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>3</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="7" t="s">
         <v>171</v>
       </c>
@@ -4891,10 +4880,10 @@
       <c r="K40" s="11">
         <v>8</v>
       </c>
-      <c r="L40" s="63" t="s">
+      <c r="L40" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="64"/>
+      <c r="M40" s="63"/>
       <c r="N40" s="7" t="s">
         <v>175</v>
       </c>
@@ -4908,18 +4897,18 @@
         <v>176</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>4</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="7" t="s">
         <v>172</v>
       </c>
@@ -4937,10 +4926,10 @@
       <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="63" t="s">
+      <c r="L41" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="64"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="9" t="s">
         <v>74</v>
       </c>
@@ -4950,20 +4939,20 @@
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K42" s="11">
         <v>10</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="69"/>
+      <c r="M42" s="68"/>
       <c r="N42" s="9" t="s">
         <v>74</v>
       </c>
@@ -4973,26 +4962,26 @@
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
       <c r="K43" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="69"/>
+      <c r="L43" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="68"/>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -5006,14 +4995,14 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="5" t="s">
         <v>155</v>
       </c>
@@ -5035,10 +5024,10 @@
       <c r="K44" s="11">
         <v>12</v>
       </c>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="70"/>
+      <c r="M44" s="69"/>
       <c r="N44" s="4" t="s">
         <v>86</v>
       </c>
@@ -5052,12 +5041,12 @@
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="35" t="s">
         <v>198</v>
       </c>
@@ -5071,12 +5060,12 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="39" t="s">
         <v>197</v>
       </c>
@@ -5089,19 +5078,19 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="K46" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="K46" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>3</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="7" t="s">
         <v>174</v>
       </c>
@@ -5119,10 +5108,10 @@
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="66" t="s">
+      <c r="L47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="67"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="5" t="s">
         <v>155</v>
       </c>
@@ -5142,12 +5131,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>4</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="7" t="s">
         <v>175</v>
       </c>
@@ -5165,8 +5154,8 @@
       <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="63"/>
-      <c r="M48" s="64"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="7" t="s">
         <v>179</v>
       </c>
@@ -5182,12 +5171,12 @@
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="64"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="63"/>
       <c r="N49" s="7" t="s">
         <v>180</v>
       </c>
@@ -5203,70 +5192,76 @@
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="11">
-        <v>1</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="O52" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+  <mergeCells count="89">
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="A10:D10"/>
@@ -5283,77 +5278,11 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5361,14 +5290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" style="2"/>
@@ -5389,11 +5318,11 @@
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
-      <c r="N1" s="54"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
+    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
       <c r="R1" s="22"/>
       <c r="S1" s="21" t="s">
         <v>131</v>
@@ -5407,204 +5336,204 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="57"/>
-    </row>
-    <row r="2" spans="2:32" ht="18.75" customHeight="1">
-      <c r="B2" s="65" t="s">
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="56"/>
+    </row>
+    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="N2" s="58"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
-      <c r="AF2" s="59"/>
-    </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1">
+      <c r="AF2" s="58"/>
+    </row>
+    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>219</v>
+      <c r="G3" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="N3" s="58"/>
+        <v>228</v>
+      </c>
+      <c r="N3" s="57"/>
       <c r="O3" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="80" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="41" t="s">
+      <c r="Y3" s="40" t="s">
         <v>134</v>
       </c>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AC3" s="41"/>
+      <c r="AC3" s="40"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF3" s="59"/>
-    </row>
-    <row r="4" spans="2:32" ht="18.75" customHeight="1">
+        <v>236</v>
+      </c>
+      <c r="AF3" s="58"/>
+    </row>
+    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="48" t="s">
-        <v>218</v>
+      <c r="G4" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="45" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="77" t="s">
+      <c r="R4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="78"/>
-      <c r="W4" s="79"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="78"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="51" t="s">
+      <c r="Y4" s="50" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="71" t="s">
+      <c r="AA4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="73"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="59"/>
-    </row>
-    <row r="5" spans="2:32" ht="18.75" customHeight="1">
+      <c r="AF4" s="58"/>
+    </row>
+    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="64"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="48" t="s">
-        <v>218</v>
+      <c r="G5" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="58"/>
+        <v>229</v>
+      </c>
+      <c r="N5" s="57"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="74" t="s">
+      <c r="Q5" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="77" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="79"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="78"/>
       <c r="X5" s="16"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="50"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
-      <c r="AF5" s="59"/>
-    </row>
-    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1">
+      <c r="AF5" s="58"/>
+    </row>
+    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="48" t="s">
-        <v>218</v>
+      <c r="G6" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+        <v>229</v>
+      </c>
+      <c r="N6" s="59"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
@@ -5616,442 +5545,442 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="61"/>
-    </row>
-    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="60"/>
+    </row>
+    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="48" t="s">
-        <v>218</v>
+      <c r="G7" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="69"/>
+      <c r="C8" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="68"/>
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="48"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:32" ht="18.75" customHeight="1">
+    <row r="9" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="64"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:32" ht="18.75" customHeight="1">
+    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="48" t="s">
-        <v>218</v>
+      <c r="G10" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="48" t="s">
-        <v>218</v>
+      <c r="G11" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="48" t="s">
-        <v>218</v>
+      <c r="G12" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="48" t="s">
-        <v>218</v>
+      <c r="G13" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="69"/>
+      <c r="C14" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="68"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="48"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:32" ht="18.75" customHeight="1">
+    <row r="15" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G15" s="47"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="43" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>219</v>
+      <c r="G18" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="48" t="s">
-        <v>230</v>
+      <c r="G19" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="48" t="s">
-        <v>230</v>
+      <c r="G20" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="48" t="s">
-        <v>230</v>
+      <c r="G21" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="48" t="s">
-        <v>230</v>
+      <c r="G22" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="69"/>
+      <c r="C23" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="68"/>
       <c r="E23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="48" t="s">
-        <v>230</v>
+      <c r="G25" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="64"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="48" t="s">
-        <v>230</v>
+      <c r="G26" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="48" t="s">
-        <v>230</v>
+      <c r="G27" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="69"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="48" t="s">
-        <v>230</v>
+      <c r="G28" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11">
         <v>11</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="69"/>
+      <c r="C29" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="68"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="48"/>
+      <c r="G29" s="47"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11">
         <v>12</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="43"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G30" s="47"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="67"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6059,10 +5988,10 @@
         <v>156</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I33" s="33" t="s">
         <v>157</v>
@@ -6071,15 +6000,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
@@ -6087,10 +6016,10 @@
         <v>162</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>161</v>
@@ -6102,15 +6031,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
@@ -6118,10 +6047,10 @@
         <v>163</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>166</v>
@@ -6130,15 +6059,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="64"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
@@ -6146,10 +6075,10 @@
         <v>164</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>161</v>
@@ -6161,15 +6090,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
@@ -6177,10 +6106,10 @@
         <v>165</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>166</v>
@@ -6189,15 +6118,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="69"/>
+      <c r="C38" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="68"/>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
@@ -6211,15 +6140,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="64"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
@@ -6233,15 +6162,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11">
         <v>7</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="27" t="s">
         <v>146</v>
       </c>
@@ -6249,10 +6178,10 @@
         <v>168</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I40" s="32" t="s">
         <v>166</v>
@@ -6261,26 +6190,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11">
         <v>8</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>161</v>
@@ -6290,26 +6219,26 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11">
         <v>9</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>161</v>
@@ -6318,15 +6247,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11">
         <v>10</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
@@ -6334,23 +6263,23 @@
         <v>74</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11">
         <v>11</v>
       </c>
-      <c r="C44" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="69"/>
+      <c r="C44" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="68"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6364,49 +6293,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="70"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1">
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6414,10 +6343,10 @@
         <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>157</v>
@@ -6427,33 +6356,33 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="N48" s="62" t="s">
+      <c r="N48" s="61" t="s">
         <v>65</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="64"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="F49" s="26" t="s">
-        <v>243</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>166</v>
@@ -6468,26 +6397,26 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="64"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>161</v>
@@ -6502,26 +6431,26 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11">
         <v>3</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>166</v>
@@ -6536,26 +6465,26 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="64"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>166</v>
@@ -6570,15 +6499,15 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>5</v>
       </c>
-      <c r="C53" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="69"/>
+      <c r="C53" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="68"/>
       <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
@@ -6598,15 +6527,15 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11">
         <v>6</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="64"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="4" t="s">
         <v>86</v>
       </c>
@@ -6626,26 +6555,26 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="11">
         <v>7</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>166</v>
@@ -6660,15 +6589,15 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="9" t="s">
         <v>74</v>
       </c>
@@ -6676,10 +6605,10 @@
         <v>74</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
@@ -6692,15 +6621,15 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11">
         <v>9</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="64"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="9" t="s">
         <v>74</v>
       </c>
@@ -6708,10 +6637,10 @@
         <v>74</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
@@ -6724,15 +6653,15 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="11">
         <v>10</v>
       </c>
-      <c r="C58" s="68" t="s">
+      <c r="C58" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="69"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="9" t="s">
         <v>74</v>
       </c>
@@ -6740,10 +6669,10 @@
         <v>74</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
@@ -6756,15 +6685,15 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11">
         <v>11</v>
       </c>
-      <c r="C59" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="69"/>
+      <c r="C59" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="68"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -6784,23 +6713,23 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="11">
         <v>12</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="70"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
         <v>9</v>
@@ -6812,7 +6741,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -6821,14 +6750,14 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="14"/>
@@ -6836,15 +6765,15 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="67"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
@@ -6852,10 +6781,10 @@
         <v>156</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I63" s="33" t="s">
         <v>157</v>
@@ -6870,15 +6799,15 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="63" t="s">
+      <c r="C64" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="7" t="s">
         <v>147</v>
       </c>
@@ -6886,10 +6815,10 @@
         <v>169</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I64" s="32" t="s">
         <v>173</v>
@@ -6907,15 +6836,15 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11">
         <v>2</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="64"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="7" t="s">
         <v>148</v>
       </c>
@@ -6923,10 +6852,10 @@
         <v>170</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I65" s="32" t="s">
         <v>173</v>
@@ -6941,15 +6870,15 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11">
         <v>3</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="64"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="7" t="s">
         <v>149</v>
       </c>
@@ -6957,10 +6886,10 @@
         <v>171</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>173</v>
@@ -6978,15 +6907,15 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="64"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="7" t="s">
         <v>150</v>
       </c>
@@ -6994,10 +6923,10 @@
         <v>172</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I67" s="32" t="s">
         <v>173</v>
@@ -7012,15 +6941,15 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11">
         <v>5</v>
       </c>
-      <c r="C68" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="69"/>
+      <c r="C68" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="68"/>
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
@@ -7040,15 +6969,15 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11">
         <v>6</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="64"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7068,15 +6997,15 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11">
         <v>7</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="64"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="7" t="s">
         <v>151</v>
       </c>
@@ -7084,10 +7013,10 @@
         <v>174</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I70" s="32" t="s">
         <v>173</v>
@@ -7105,15 +7034,15 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11">
         <v>8</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="64"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="7" t="s">
         <v>152</v>
       </c>
@@ -7121,10 +7050,10 @@
         <v>175</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>173</v>
@@ -7139,15 +7068,15 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11">
         <v>9</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C72" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="64"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="9" t="s">
         <v>74</v>
       </c>
@@ -7155,10 +7084,10 @@
         <v>74</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
@@ -7166,15 +7095,15 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11">
         <v>10</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="69"/>
+      <c r="D73" s="68"/>
       <c r="E73" s="9" t="s">
         <v>74</v>
       </c>
@@ -7182,23 +7111,23 @@
         <v>74</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11">
         <v>11</v>
       </c>
-      <c r="C74" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="69"/>
+      <c r="C74" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="68"/>
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
@@ -7212,48 +7141,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11">
         <v>12</v>
       </c>
-      <c r="C75" s="68" t="s">
+      <c r="C75" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="70"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B77" s="65" t="s">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
       <c r="I77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="67"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -7261,10 +7190,10 @@
         <v>156</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>157</v>
@@ -7273,20 +7202,20 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>1</v>
       </c>
-      <c r="C79" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D79" s="64"/>
+      <c r="C79" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="63"/>
       <c r="E79" s="8" t="s">
         <v>106</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="32"/>
@@ -7294,20 +7223,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="C80" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" s="64"/>
+      <c r="C80" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="63"/>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="32" t="s">
@@ -7317,20 +7246,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18.75" customHeight="1">
+    <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>3</v>
       </c>
-      <c r="C81" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="64"/>
+      <c r="C81" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="63"/>
       <c r="E81" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="32" t="s">
@@ -7340,20 +7269,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18.75" customHeight="1">
+    <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>4</v>
       </c>
-      <c r="C82" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="64"/>
+      <c r="C82" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" s="63"/>
       <c r="E82" s="8" t="s">
         <v>109</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="32"/>
@@ -7361,14 +7290,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18.75" customHeight="1">
+    <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>5</v>
       </c>
-      <c r="C83" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="69"/>
+      <c r="C83" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="68"/>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
@@ -7382,14 +7311,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18.75" customHeight="1">
+    <row r="84" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="64"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="4" t="s">
         <v>68</v>
       </c>
@@ -7403,20 +7332,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75" customHeight="1">
+    <row r="85" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="64"/>
+      <c r="C85" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="63"/>
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="32"/>
@@ -7424,20 +7353,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75" customHeight="1">
+    <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>8</v>
       </c>
-      <c r="C86" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="D86" s="64"/>
+      <c r="C86" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="63"/>
       <c r="E86" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="32" t="s">
@@ -7447,14 +7376,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18.75" customHeight="1">
+    <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>9</v>
       </c>
-      <c r="C87" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="64"/>
+      <c r="C87" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="63"/>
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
@@ -7468,14 +7397,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18.75" customHeight="1">
+    <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>10</v>
       </c>
-      <c r="C88" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="69"/>
+      <c r="C88" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="68"/>
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
@@ -7485,14 +7414,14 @@
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75" customHeight="1">
+    <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>11</v>
       </c>
-      <c r="C89" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="69"/>
+      <c r="C89" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="68"/>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7506,65 +7435,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75" customHeight="1">
+    <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>12</v>
       </c>
-      <c r="C90" s="68" t="s">
+      <c r="C90" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="70"/>
+      <c r="D90" s="69"/>
       <c r="E90" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
       <c r="I90" s="32"/>
       <c r="J90" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.75" customHeight="1">
-      <c r="G91" s="42"/>
-    </row>
-    <row r="92" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B92" s="65" t="s">
+    <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="41"/>
+    </row>
+    <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="G92" s="42"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="G92" s="41"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="18.75" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="67"/>
+      <c r="D93" s="66"/>
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="43" t="s">
         <v>156</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I93" s="33" t="s">
         <v>157</v>
@@ -7574,19 +7503,19 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="18.75" customHeight="1">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11">
         <v>1</v>
       </c>
-      <c r="C94" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="69"/>
+      <c r="C94" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="68"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="46" t="s">
+      <c r="F94" s="45" t="s">
         <v>74</v>
       </c>
       <c r="G94" s="11"/>
@@ -7596,28 +7525,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18.75" customHeight="1">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B95" s="11">
         <v>2</v>
       </c>
-      <c r="C95" s="63" t="s">
+      <c r="C95" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="64"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="44" t="s">
         <v>123</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>161</v>
@@ -7626,17 +7555,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18.75" customHeight="1">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B96" s="11">
         <v>3</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C96" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="64"/>
+      <c r="D96" s="63"/>
       <c r="E96" s="25" t="s">
         <v>124</v>
       </c>
@@ -7644,10 +7573,10 @@
         <v>124</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>161</v>
@@ -7656,15 +7585,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.75" customHeight="1">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11">
         <v>4</v>
       </c>
-      <c r="C97" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="69"/>
+      <c r="C97" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="68"/>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
@@ -7678,17 +7607,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18.75" customHeight="1">
+    <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B98" s="11">
         <v>5</v>
       </c>
-      <c r="C98" s="68" t="s">
+      <c r="C98" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="69"/>
+      <c r="D98" s="68"/>
       <c r="E98" s="25" t="s">
         <v>125</v>
       </c>
@@ -7696,10 +7625,10 @@
         <v>125</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I98" s="32" t="s">
         <v>161</v>
@@ -7708,17 +7637,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.75" customHeight="1">
+    <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B99" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="64"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="25" t="s">
         <v>126</v>
       </c>
@@ -7726,10 +7655,10 @@
         <v>126</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>161</v>
@@ -7738,15 +7667,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18.75" customHeight="1">
+    <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11">
         <v>7</v>
       </c>
-      <c r="C100" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="69"/>
+      <c r="C100" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="68"/>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
@@ -7760,17 +7689,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18.75" customHeight="1">
+    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
       </c>
-      <c r="C101" s="63" t="s">
+      <c r="C101" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="64"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="25" t="s">
         <v>120</v>
       </c>
@@ -7778,10 +7707,10 @@
         <v>120</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>161</v>
@@ -7790,17 +7719,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18.75" customHeight="1">
+    <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B102" s="11">
         <v>9</v>
       </c>
-      <c r="C102" s="63" t="s">
+      <c r="C102" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="64"/>
+      <c r="D102" s="63"/>
       <c r="E102" s="25" t="s">
         <v>121</v>
       </c>
@@ -7808,10 +7737,10 @@
         <v>121</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>161</v>
@@ -7820,15 +7749,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18.75" customHeight="1">
+    <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11">
         <v>10</v>
       </c>
-      <c r="C103" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="69"/>
+      <c r="C103" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="68"/>
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
@@ -7842,17 +7771,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18.75" customHeight="1">
+    <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B104" s="11">
         <v>11</v>
       </c>
-      <c r="C104" s="68" t="s">
+      <c r="C104" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="69"/>
+      <c r="D104" s="68"/>
       <c r="E104" s="28" t="s">
         <v>127</v>
       </c>
@@ -7860,10 +7789,10 @@
         <v>127</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>167</v>
@@ -7872,20 +7801,20 @@
         <v>176</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="18.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B105" s="11">
         <v>12</v>
       </c>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="70"/>
+      <c r="D105" s="69"/>
       <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
@@ -7893,28 +7822,28 @@
         <v>74</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
       <c r="N105" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="18.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B106" s="11">
         <v>13</v>
       </c>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="69"/>
+      <c r="D106" s="68"/>
       <c r="E106" s="8" t="s">
         <v>128</v>
       </c>
@@ -7922,10 +7851,10 @@
         <v>128</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I106" s="32" t="s">
         <v>173</v>
@@ -7934,17 +7863,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18.75" customHeight="1">
+    <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B107" s="11">
         <v>14</v>
       </c>
-      <c r="C107" s="68" t="s">
+      <c r="C107" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="69"/>
+      <c r="D107" s="68"/>
       <c r="E107" s="8" t="s">
         <v>129</v>
       </c>
@@ -7952,10 +7881,10 @@
         <v>129</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I107" s="32" t="s">
         <v>173</v>
@@ -7964,15 +7893,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18.75" customHeight="1">
+    <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="68" t="s">
+      <c r="C108" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="70"/>
+      <c r="D108" s="69"/>
       <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +7909,7 @@
         <v>74</v>
       </c>
       <c r="G108" s="11"/>
-      <c r="H108" s="43"/>
+      <c r="H108" s="42"/>
       <c r="I108" s="32"/>
       <c r="J108" s="32" t="s">
         <v>9</v>
@@ -7988,89 +7917,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8095,6 +7941,89 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8102,19 +8031,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8128,7 +8057,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8142,7 +8071,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8156,7 +8085,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8170,7 +8099,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8184,14 +8113,14 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8200,7 +8129,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -8220,15 +8149,15 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="85"/>
+      <c r="C8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="84"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8240,15 +8169,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8260,15 +8189,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
@@ -8280,15 +8209,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
@@ -8300,7 +8229,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8314,7 +8243,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8328,7 +8257,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8342,7 +8271,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8356,7 +8285,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8370,7 +8299,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8384,7 +8313,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8398,7 +8327,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8412,7 +8341,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8426,7 +8355,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8440,7 +8369,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8454,7 +8383,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8468,7 +8397,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8482,7 +8411,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8496,7 +8425,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8510,7 +8439,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8524,7 +8453,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8538,7 +8467,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8552,7 +8481,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8566,7 +8495,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8580,7 +8509,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8594,7 +8523,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8608,7 +8537,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8622,7 +8551,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8650,19 +8579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8678,7 +8607,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8694,7 +8623,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8710,7 +8639,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8726,15 +8655,15 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -8744,7 +8673,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="12" t="s">
@@ -8766,16 +8695,16 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="85"/>
+      <c r="D7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="84"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8788,16 +8717,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
@@ -8810,16 +8739,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
         <v>151</v>
       </c>
@@ -8832,16 +8761,16 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
@@ -8854,7 +8783,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8870,7 +8799,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8886,7 +8815,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8902,7 +8831,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8918,7 +8847,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8934,7 +8863,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8950,7 +8879,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8966,7 +8895,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8982,7 +8911,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8998,7 +8927,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9014,7 +8943,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9030,7 +8959,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9046,7 +8975,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9062,7 +8991,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9078,7 +9007,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9094,7 +9023,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9110,7 +9039,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9126,7 +9055,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9142,7 +9071,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9158,7 +9087,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9174,7 +9103,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9190,7 +9119,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9206,7 +9135,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9222,7 +9151,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9238,7 +9167,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9254,7 +9183,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9270,7 +9199,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9286,7 +9215,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9302,7 +9231,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9318,7 +9247,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9334,7 +9263,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9364,19 +9293,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75">
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9390,7 +9319,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9404,14 +9333,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75">
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9420,7 +9349,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>0</v>
@@ -9440,15 +9369,15 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75">
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="85"/>
+      <c r="D8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="84"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9460,15 +9389,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75">
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="86"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
@@ -9480,15 +9409,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75">
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="26" t="s">
         <v>153</v>
       </c>
@@ -9500,15 +9429,15 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="26" t="s">
         <v>154</v>
       </c>
@@ -9520,7 +9449,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9534,7 +9463,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75">
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9548,7 +9477,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9562,7 +9491,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9590,19 +9519,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9619,7 +9548,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75">
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9636,7 +9565,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75">
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9653,7 +9582,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75">
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9670,15 +9599,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75">
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -9689,7 +9618,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75">
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
@@ -9712,16 +9641,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75">
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
@@ -9735,16 +9664,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75">
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
@@ -9758,16 +9687,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75">
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
@@ -9781,16 +9710,16 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
@@ -9804,16 +9733,16 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
@@ -9827,16 +9756,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75">
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
@@ -9850,16 +9779,16 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75">
+    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
@@ -9873,16 +9802,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75">
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="85"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -9896,16 +9825,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75">
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="85"/>
+      <c r="E16" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="84"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -9919,16 +9848,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75">
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
@@ -9942,16 +9871,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75">
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="7" t="s">
         <v>147</v>
       </c>
@@ -9965,16 +9894,16 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75">
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="7" t="s">
         <v>148</v>
       </c>
@@ -9988,16 +9917,16 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75">
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
@@ -10011,16 +9940,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
@@ -10034,16 +9963,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75">
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -10059,16 +9988,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75">
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="11">
         <v>16</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="86"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10082,7 +10011,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75">
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10099,7 +10028,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75">
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10116,7 +10045,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75">
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10133,7 +10062,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75">
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10150,7 +10079,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75">
+    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10167,7 +10096,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75">
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10184,7 +10113,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75">
+    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10201,7 +10130,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75">
+    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10218,7 +10147,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75">
+    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10235,7 +10164,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75">
+    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10254,6 +10183,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10264,13 +10200,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10278,19 +10207,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.75">
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10310,7 +10239,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75">
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10330,7 +10259,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75">
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10350,7 +10279,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75">
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10370,7 +10299,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75">
+    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -10390,15 +10319,15 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75">
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10412,7 +10341,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75">
+    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12" t="s">
@@ -10438,16 +10367,16 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75">
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
@@ -10466,16 +10395,16 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75">
+    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="8" t="s">
         <v>107</v>
       </c>
@@ -10494,16 +10423,16 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75">
+    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
@@ -10522,16 +10451,16 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75">
+    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -10550,16 +10479,16 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75">
+    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="85"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10576,16 +10505,16 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75">
+    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -10602,16 +10531,16 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="8" t="s">
         <v>110</v>
       </c>
@@ -10630,16 +10559,16 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75">
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>8</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>111</v>
       </c>
@@ -10658,16 +10587,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75">
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="8" t="s">
         <v>112</v>
       </c>
@@ -10686,16 +10615,16 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>113</v>
       </c>
@@ -10714,16 +10643,16 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75">
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>11</v>
       </c>
-      <c r="E21" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="85"/>
+      <c r="E21" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="84"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -10740,16 +10669,16 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
@@ -10766,7 +10695,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75">
+    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10786,7 +10715,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75">
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10806,7 +10735,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75">
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10826,7 +10755,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75">
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10846,7 +10775,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75">
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10866,7 +10795,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75">
+    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10886,7 +10815,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75">
+    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10906,7 +10835,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75">
+    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10926,7 +10855,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75">
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10946,7 +10875,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75">
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10966,7 +10895,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75">
+    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10986,7 +10915,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75">
+    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -11028,19 +10957,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75">
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11054,7 +10983,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75">
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -11068,7 +10997,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11082,15 +11011,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75">
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -11098,23 +11027,23 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -11122,16 +11051,16 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75">
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="86"/>
+      <c r="E8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="85"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -11142,23 +11071,23 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75">
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="25" t="s">
         <v>123</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11166,23 +11095,23 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75">
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -11190,16 +11119,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="86"/>
+      <c r="E11" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="85"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -11210,23 +11139,23 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -11234,23 +11163,23 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75">
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="25" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -11258,16 +11187,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="86"/>
+      <c r="E14" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="85"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -11278,23 +11207,23 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="25" t="s">
         <v>120</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -11302,23 +11231,23 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75">
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="25" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -11326,16 +11255,16 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75">
+    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="86"/>
+      <c r="E17" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="85"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -11346,23 +11275,23 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75">
+    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -11370,23 +11299,23 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75">
+    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -11394,23 +11323,23 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75">
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -11418,23 +11347,23 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75">
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="86"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="8" t="s">
         <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -11442,16 +11371,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75">
+    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="86"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -11462,7 +11391,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75">
+    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11476,7 +11405,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75">
+    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11490,7 +11419,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75">
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11506,16 +11435,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11523,6 +11442,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255903A-F0AE-4350-AD95-17B4C0A34A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -25,8 +19,8 @@
     <sheet name="Feuil2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="251">
   <si>
     <t>Pin #</t>
   </si>
@@ -778,13 +772,22 @@
   </si>
   <si>
     <t>US_ECHO_3V3</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>LOGIQUE</t>
+  </si>
+  <si>
+    <t>I2C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,7 +1485,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1538,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1591,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1644,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1671,7 +1674,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1700,7 +1703,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1715,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1730,7 +1733,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1759,7 +1762,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1801,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1845,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,21 +2135,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2154,16 +2157,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2179,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2220,7 +2223,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -2271,7 +2274,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2288,7 +2291,7 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2305,7 +2308,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2322,7 +2325,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2339,7 +2342,7 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2356,7 +2359,7 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -2390,7 +2393,7 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2418,7 +2421,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="64" t="s">
         <v>10</v>
       </c>
@@ -2431,7 +2434,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -2475,7 +2478,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="11">
         <v>2</v>
       </c>
@@ -2492,7 +2495,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="11">
         <v>3</v>
       </c>
@@ -2509,7 +2512,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="11">
         <v>4</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="11">
         <v>5</v>
       </c>
@@ -2543,7 +2546,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="11">
         <v>6</v>
       </c>
@@ -2560,7 +2563,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="11">
         <v>7</v>
       </c>
@@ -2577,7 +2580,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="11">
         <v>8</v>
       </c>
@@ -2594,7 +2597,7 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="11">
         <v>9</v>
       </c>
@@ -2611,7 +2614,7 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="11">
         <v>10</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="11">
         <v>11</v>
       </c>
@@ -2645,7 +2648,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="11">
         <v>12</v>
       </c>
@@ -2662,7 +2665,7 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="64" t="s">
         <v>14</v>
       </c>
@@ -2676,7 +2679,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2707,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="I33" s="32"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="11">
         <v>2</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="11">
         <v>3</v>
       </c>
@@ -2758,7 +2761,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="11">
         <v>4</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="11">
         <v>5</v>
       </c>
@@ -2794,7 +2797,7 @@
       <c r="I37" s="32"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="11">
         <v>6</v>
       </c>
@@ -2812,7 +2815,7 @@
       <c r="I38" s="32"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="11">
         <v>7</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="11">
         <v>8</v>
       </c>
@@ -2848,7 +2851,7 @@
       <c r="I40" s="32"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="11">
         <v>9</v>
       </c>
@@ -2866,7 +2869,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="11">
         <v>10</v>
       </c>
@@ -2884,7 +2887,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="11">
         <v>11</v>
       </c>
@@ -2902,7 +2905,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="11">
         <v>12</v>
       </c>
@@ -2920,7 +2923,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2932,7 +2935,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="64" t="s">
         <v>78</v>
       </c>
@@ -2946,7 +2949,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
@@ -2974,7 +2977,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="11">
         <v>1</v>
       </c>
@@ -2994,7 +2997,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="11">
         <v>2</v>
       </c>
@@ -3014,7 +3017,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="11">
         <v>3</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="11">
         <v>4</v>
       </c>
@@ -3054,7 +3057,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="11">
         <v>5</v>
       </c>
@@ -3074,7 +3077,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="11">
         <v>6</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="11">
         <v>7</v>
       </c>
@@ -3114,7 +3117,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="11">
         <v>8</v>
       </c>
@@ -3134,7 +3137,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="11">
         <v>9</v>
       </c>
@@ -3154,7 +3157,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75">
       <c r="A57" s="11">
         <v>10</v>
       </c>
@@ -3174,7 +3177,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="11">
         <v>11</v>
       </c>
@@ -3192,7 +3195,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="11">
         <v>12</v>
       </c>
@@ -3210,7 +3213,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="11">
         <v>13</v>
       </c>
@@ -3230,7 +3233,7 @@
       <c r="I60" s="32"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="11">
         <v>14</v>
       </c>
@@ -3250,7 +3253,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="11">
         <v>15</v>
       </c>
@@ -3270,7 +3273,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3284,25 +3287,30 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3319,44 +3327,39 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="11" style="2"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
@@ -3375,7 +3378,7 @@
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="64" t="s">
         <v>178</v>
       </c>
@@ -3389,7 +3392,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3460,7 +3463,9 @@
         <v>176</v>
       </c>
       <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="I3" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="K3" s="11">
         <v>1</v>
       </c>
@@ -3487,24 +3492,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
-      <c r="D4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="K4" s="11">
@@ -3533,26 +3532,28 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="63"/>
       <c r="D5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>74</v>
+        <v>162</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>176</v>
       </c>
       <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="I5" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="K5" s="11">
         <v>3</v>
       </c>
@@ -3579,24 +3580,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="7" t="s">
-        <v>180</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="K6" s="11">
@@ -3625,23 +3620,21 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
-      <c r="D7" s="7" t="s">
-        <v>181</v>
+      <c r="D7" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>161</v>
-      </c>
+      <c r="F7" s="32"/>
       <c r="G7" s="32" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
@@ -3665,24 +3658,18 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>176</v>
-      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="K8" s="11">
@@ -3705,7 +3692,24 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
       <c r="K9" s="11">
         <v>7</v>
       </c>
@@ -3732,13 +3736,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+    <row r="10" spans="1:19">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
       <c r="K10" s="11">
         <v>8</v>
       </c>
@@ -3765,32 +3776,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>160</v>
-      </c>
+    <row r="11" spans="1:19">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="K11" s="11">
         <v>9</v>
       </c>
@@ -3817,21 +3816,21 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="36" t="s">
-        <v>184</v>
+      <c r="D12" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -3855,22 +3854,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13" s="62"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="39" t="s">
-        <v>186</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
-        <v>3</v>
-      </c>
+      <c r="G13" s="32"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="K13" s="11">
@@ -3893,21 +3888,21 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="36" t="s">
-        <v>185</v>
+      <c r="D14" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -3931,47 +3926,47 @@
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>161</v>
-      </c>
+      <c r="D15" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="11">
-        <v>5</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>176</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
@@ -3979,14 +3974,14 @@
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" s="62"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="7" t="s">
-        <v>187</v>
+      <c r="D17" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>74</v>
@@ -4023,26 +4018,28 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="11">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>176</v>
       </c>
       <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="K18" s="11">
         <v>1</v>
       </c>
@@ -4069,7 +4066,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="K19" s="11">
         <v>2</v>
       </c>
@@ -4096,13 +4106,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+    <row r="20" spans="1:19">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="K20" s="11">
         <v>3</v>
       </c>
@@ -4129,32 +4150,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>160</v>
-      </c>
+    <row r="21" spans="1:19">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="K21" s="11">
         <v>4</v>
       </c>
@@ -4181,21 +4190,21 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="37" t="s">
-        <v>202</v>
+      <c r="D22" s="39" t="s">
+        <v>186</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
@@ -4219,26 +4228,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>2</v>
-      </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+    <row r="23" spans="1:19">
       <c r="K23" s="11">
         <v>6</v>
       </c>
@@ -4259,26 +4249,13 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>3</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+    <row r="24" spans="1:19">
+      <c r="A24" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="K24" s="11">
         <v>7</v>
       </c>
@@ -4305,24 +4282,32 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>4</v>
-      </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+    <row r="25" spans="1:19">
+      <c r="A25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>160</v>
+      </c>
       <c r="K25" s="11">
         <v>8</v>
       </c>
@@ -4347,7 +4332,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
+      <c r="A26" s="11">
+        <v>1</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="K26" s="11">
         <v>9</v>
       </c>
@@ -4372,13 +4374,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+    <row r="27" spans="1:19">
+      <c r="A27" s="11">
+        <v>2</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="K27" s="11">
         <v>10</v>
       </c>
@@ -4403,32 +4416,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>160</v>
-      </c>
+    <row r="28" spans="1:19">
+      <c r="A28" s="11">
+        <v>3</v>
+      </c>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="K28" s="11">
         <v>11</v>
       </c>
@@ -4449,24 +4454,28 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="32"/>
+      <c r="D29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="G29" s="32" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="I29" s="32" t="s">
+        <v>248</v>
+      </c>
       <c r="K29" s="11">
         <v>12</v>
       </c>
@@ -4487,42 +4496,44 @@
       <c r="R29" s="42"/>
       <c r="S29" s="42"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="11">
-        <v>2</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="G30" s="32" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I30" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>161</v>
-      </c>
+      <c r="F31" s="32"/>
       <c r="G31" s="32" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
@@ -4533,26 +4544,28 @@
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B32" s="62"/>
       <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>176</v>
       </c>
       <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="I32" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
@@ -4579,26 +4592,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>5</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+    <row r="33" spans="1:19">
       <c r="K33" s="11">
         <v>1</v>
       </c>
@@ -4625,24 +4619,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>6</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+    <row r="34" spans="1:19">
+      <c r="A34" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="K34" s="11">
         <v>2</v>
       </c>
@@ -4669,7 +4652,32 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
+      <c r="A35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>160</v>
+      </c>
       <c r="K35" s="11">
         <v>3</v>
       </c>
@@ -4696,13 +4704,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+    <row r="36" spans="1:19">
+      <c r="A36" s="11">
+        <v>1</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="K36" s="11">
         <v>4</v>
       </c>
@@ -4729,31 +4748,27 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>160</v>
+    <row r="37" spans="1:19">
+      <c r="A37" s="11">
+        <v>2</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="K37" s="11">
         <v>5</v>
@@ -4775,24 +4790,28 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="63"/>
-      <c r="D38" s="39" t="s">
-        <v>194</v>
+      <c r="D38" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="G38" s="32" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
+      <c r="I38" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="K38" s="11">
         <v>6</v>
       </c>
@@ -4813,21 +4832,21 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="62"/>
       <c r="C39" s="63"/>
-      <c r="D39" s="36" t="s">
-        <v>195</v>
+      <c r="D39" s="38" t="s">
+        <v>189</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -4857,26 +4876,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>3</v>
-      </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+    <row r="40" spans="1:19">
       <c r="K40" s="11">
         <v>8</v>
       </c>
@@ -4903,26 +4903,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>4</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+    <row r="41" spans="1:19">
+      <c r="A41" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
       <c r="K41" s="11">
         <v>9</v>
       </c>
@@ -4945,7 +4932,32 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
+      <c r="A42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>160</v>
+      </c>
       <c r="K42" s="11">
         <v>10</v>
       </c>
@@ -4968,13 +4980,24 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
+    <row r="43" spans="1:19">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
       <c r="K43" s="11">
         <v>11</v>
       </c>
@@ -4995,32 +5018,24 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>160</v>
-      </c>
+    <row r="44" spans="1:19">
+      <c r="A44" s="11">
+        <v>2</v>
+      </c>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="K44" s="11">
         <v>12</v>
       </c>
@@ -5041,43 +5056,51 @@
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" s="62"/>
       <c r="C45" s="63"/>
-      <c r="D45" s="35" t="s">
-        <v>198</v>
+      <c r="D45" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="32"/>
+      <c r="F45" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="G45" s="32" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I45" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="63"/>
-      <c r="D46" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="32"/>
+      <c r="D46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="G46" s="32" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="I46" s="32" t="s">
+        <v>250</v>
+      </c>
       <c r="K46" s="64" t="s">
         <v>199</v>
       </c>
@@ -5085,17 +5108,17 @@
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="11">
-        <v>3</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
+        <v>5</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>173</v>
@@ -5104,7 +5127,9 @@
         <v>176</v>
       </c>
       <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
+      <c r="I47" s="32" t="s">
+        <v>250</v>
+      </c>
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
@@ -5131,23 +5156,21 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" s="62"/>
       <c r="C48" s="63"/>
-      <c r="D48" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>173</v>
-      </c>
+      <c r="D48" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="32"/>
       <c r="G48" s="32" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -5171,7 +5194,7 @@
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="K49" s="11">
         <v>2</v>
       </c>
@@ -5192,63 +5215,270 @@
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
     </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="11">
+        <v>1</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="11">
+        <v>2</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="11">
+        <v>3</v>
+      </c>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="11">
+        <v>4</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="11">
+        <v>1</v>
+      </c>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="11">
+        <v>2</v>
+      </c>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="11">
+        <v>3</v>
+      </c>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="11">
+        <v>4</v>
+      </c>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="103">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="L8:M8"/>
@@ -5262,27 +5492,72 @@
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5290,14 +5565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF108"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" style="2"/>
@@ -5318,7 +5593,7 @@
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
       <c r="N1" s="53"/>
       <c r="O1" s="54"/>
       <c r="P1" s="54"/>
@@ -5341,7 +5616,7 @@
       <c r="AE1" s="54"/>
       <c r="AF1" s="56"/>
     </row>
-    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" ht="18.75" customHeight="1">
       <c r="B2" s="64" t="s">
         <v>8</v>
       </c>
@@ -5368,7 +5643,7 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="58"/>
     </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="18.75" customHeight="1">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
@@ -5420,7 +5695,7 @@
       </c>
       <c r="AF3" s="58"/>
     </row>
-    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" ht="18.75" customHeight="1">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -5470,7 +5745,7 @@
       </c>
       <c r="AF4" s="58"/>
     </row>
-    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" ht="18.75" customHeight="1">
       <c r="B5" s="11">
         <v>2</v>
       </c>
@@ -5512,7 +5787,7 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="58"/>
     </row>
-    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -5550,7 +5825,7 @@
       <c r="AE6" s="51"/>
       <c r="AF6" s="60"/>
     </row>
-    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
       <c r="B7" s="11">
         <v>4</v>
       </c>
@@ -5569,7 +5844,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" ht="18.75" customHeight="1">
       <c r="B8" s="11">
         <v>5</v>
       </c>
@@ -5584,7 +5859,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" ht="18.75" customHeight="1">
       <c r="B9" s="11">
         <v>6</v>
       </c>
@@ -5599,7 +5874,7 @@
       <c r="G9" s="47"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" ht="18.75" customHeight="1">
       <c r="B10" s="11">
         <v>7</v>
       </c>
@@ -5618,7 +5893,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" ht="18.75" customHeight="1">
       <c r="B11" s="11">
         <v>8</v>
       </c>
@@ -5637,7 +5912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" ht="18.75" customHeight="1">
       <c r="B12" s="11">
         <v>9</v>
       </c>
@@ -5656,7 +5931,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" ht="18.75" customHeight="1">
       <c r="B13" s="11">
         <v>10</v>
       </c>
@@ -5675,7 +5950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" ht="18.75" customHeight="1">
       <c r="B14" s="11">
         <v>11</v>
       </c>
@@ -5690,7 +5965,7 @@
       <c r="G14" s="47"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" ht="18.75" customHeight="1">
       <c r="B15" s="11">
         <v>12</v>
       </c>
@@ -5705,7 +5980,7 @@
       <c r="G15" s="47"/>
       <c r="H15" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="64" t="s">
         <v>10</v>
@@ -5714,7 +5989,7 @@
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
@@ -5736,7 +6011,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>1</v>
@@ -5756,7 +6031,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>2</v>
@@ -5776,7 +6051,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>3</v>
@@ -5796,7 +6071,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>4</v>
@@ -5816,7 +6091,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11">
         <v>5</v>
@@ -5832,7 +6107,7 @@
       <c r="G23" s="47"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>6</v>
@@ -5848,7 +6123,7 @@
       <c r="G24" s="47"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="11">
         <v>7</v>
@@ -5868,7 +6143,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <v>8</v>
@@ -5888,7 +6163,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11">
         <v>9</v>
@@ -5908,7 +6183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11">
         <v>10</v>
@@ -5928,7 +6203,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11">
         <v>11</v>
@@ -5944,7 +6219,7 @@
       <c r="G29" s="47"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11">
         <v>12</v>
@@ -5960,10 +6235,10 @@
       <c r="G30" s="47"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="64" t="s">
         <v>11</v>
@@ -5972,7 +6247,7 @@
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
     </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -6000,7 +6275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11">
         <v>1</v>
@@ -6031,7 +6306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11">
         <v>2</v>
@@ -6059,7 +6334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11">
         <v>3</v>
@@ -6090,7 +6365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11">
         <v>4</v>
@@ -6118,7 +6393,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11">
         <v>5</v>
@@ -6140,7 +6415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11">
         <v>6</v>
@@ -6162,7 +6437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11">
         <v>7</v>
@@ -6190,7 +6465,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11">
         <v>8</v>
@@ -6219,7 +6494,7 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11">
         <v>9</v>
@@ -6247,7 +6522,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11">
         <v>10</v>
@@ -6271,7 +6546,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11">
         <v>11</v>
@@ -6293,7 +6568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1">
       <c r="A45" s="10"/>
       <c r="B45" s="11">
         <v>12</v>
@@ -6315,10 +6590,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="64" t="s">
         <v>12</v>
@@ -6327,7 +6602,7 @@
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
     </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
@@ -6363,7 +6638,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="11">
         <v>1</v>
@@ -6397,7 +6672,7 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" s="11">
         <v>2</v>
@@ -6431,7 +6706,7 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" s="11">
         <v>3</v>
@@ -6465,7 +6740,7 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="11">
         <v>4</v>
@@ -6499,7 +6774,7 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>5</v>
@@ -6527,7 +6802,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1">
       <c r="A54" s="10"/>
       <c r="B54" s="11">
         <v>6</v>
@@ -6555,7 +6830,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1">
       <c r="A55" s="10"/>
       <c r="B55" s="11">
         <v>7</v>
@@ -6589,7 +6864,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1">
       <c r="A56" s="10"/>
       <c r="B56" s="11">
         <v>8</v>
@@ -6621,7 +6896,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1">
       <c r="A57" s="10"/>
       <c r="B57" s="11">
         <v>9</v>
@@ -6653,7 +6928,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1">
       <c r="A58" s="10"/>
       <c r="B58" s="11">
         <v>10</v>
@@ -6685,7 +6960,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1">
       <c r="A59" s="10"/>
       <c r="B59" s="11">
         <v>11</v>
@@ -6713,7 +6988,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="11">
         <v>12</v>
@@ -6741,7 +7016,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1">
       <c r="A61" s="10"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -6750,7 +7025,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="10"/>
       <c r="B62" s="64" t="s">
         <v>13</v>
@@ -6765,7 +7040,7 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1">
       <c r="A63" s="10"/>
       <c r="B63" s="12" t="s">
         <v>0</v>
@@ -6799,7 +7074,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>1</v>
@@ -6836,7 +7111,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1">
       <c r="A65" s="10"/>
       <c r="B65" s="11">
         <v>2</v>
@@ -6870,7 +7145,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1">
       <c r="A66" s="10"/>
       <c r="B66" s="11">
         <v>3</v>
@@ -6907,7 +7182,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1">
       <c r="A67" s="10"/>
       <c r="B67" s="11">
         <v>4</v>
@@ -6941,7 +7216,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1">
       <c r="A68" s="10"/>
       <c r="B68" s="11">
         <v>5</v>
@@ -6969,7 +7244,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="11">
         <v>6</v>
@@ -6997,7 +7272,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="11">
         <v>7</v>
@@ -7034,7 +7309,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="11">
         <v>8</v>
@@ -7068,7 +7343,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="11">
         <v>9</v>
@@ -7095,7 +7370,7 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1">
       <c r="A73" s="10"/>
       <c r="B73" s="11">
         <v>10</v>
@@ -7119,7 +7394,7 @@
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1">
       <c r="A74" s="10"/>
       <c r="B74" s="11">
         <v>11</v>
@@ -7141,7 +7416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1">
       <c r="A75" s="10"/>
       <c r="B75" s="11">
         <v>12</v>
@@ -7163,7 +7438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1">
       <c r="B77" s="64" t="s">
         <v>14</v>
       </c>
@@ -7175,7 +7450,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1">
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
@@ -7202,7 +7477,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1">
       <c r="B79" s="11">
         <v>1</v>
       </c>
@@ -7223,7 +7498,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1">
       <c r="B80" s="11">
         <v>2</v>
       </c>
@@ -7246,7 +7521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="18.75" customHeight="1">
       <c r="B81" s="11">
         <v>3</v>
       </c>
@@ -7269,7 +7544,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="18.75" customHeight="1">
       <c r="B82" s="11">
         <v>4</v>
       </c>
@@ -7290,7 +7565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="18.75" customHeight="1">
       <c r="B83" s="11">
         <v>5</v>
       </c>
@@ -7311,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="18.75" customHeight="1">
       <c r="B84" s="11">
         <v>6</v>
       </c>
@@ -7332,7 +7607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="18.75" customHeight="1">
       <c r="B85" s="11">
         <v>7</v>
       </c>
@@ -7353,7 +7628,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="18.75" customHeight="1">
       <c r="B86" s="11">
         <v>8</v>
       </c>
@@ -7376,7 +7651,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="18.75" customHeight="1">
       <c r="B87" s="11">
         <v>9</v>
       </c>
@@ -7397,7 +7672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="18.75" customHeight="1">
       <c r="B88" s="11">
         <v>10</v>
       </c>
@@ -7414,7 +7689,7 @@
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="18.75" customHeight="1">
       <c r="B89" s="11">
         <v>11</v>
       </c>
@@ -7435,7 +7710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="18.75" customHeight="1">
       <c r="B90" s="11">
         <v>12</v>
       </c>
@@ -7456,10 +7731,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="18.75" customHeight="1">
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="18.75" customHeight="1">
       <c r="B92" s="64" t="s">
         <v>78</v>
       </c>
@@ -7472,7 +7747,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="18.75" customHeight="1">
       <c r="A93" s="12" t="s">
         <v>231</v>
       </c>
@@ -7503,7 +7778,7 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11">
         <v>1</v>
@@ -7525,7 +7800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1">
       <c r="A95" s="11" t="s">
         <v>204</v>
       </c>
@@ -7555,7 +7830,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1">
       <c r="A96" s="11" t="s">
         <v>205</v>
       </c>
@@ -7585,7 +7860,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11">
         <v>4</v>
@@ -7607,7 +7882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="18.75" customHeight="1">
       <c r="A98" s="11" t="s">
         <v>206</v>
       </c>
@@ -7637,7 +7912,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="18.75" customHeight="1">
       <c r="A99" s="11" t="s">
         <v>207</v>
       </c>
@@ -7667,7 +7942,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="18.75" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11">
         <v>7</v>
@@ -7689,7 +7964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="18.75" customHeight="1">
       <c r="A101" s="11" t="s">
         <v>208</v>
       </c>
@@ -7719,7 +7994,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="18.75" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>209</v>
       </c>
@@ -7749,7 +8024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="18.75" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11">
         <v>10</v>
@@ -7771,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="18.75" customHeight="1">
       <c r="A104" s="11" t="s">
         <v>210</v>
       </c>
@@ -7804,7 +8079,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="18.75" customHeight="1">
       <c r="A105" s="11" t="s">
         <v>211</v>
       </c>
@@ -7833,7 +8108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="18.75" customHeight="1">
       <c r="A106" s="11" t="s">
         <v>212</v>
       </c>
@@ -7863,7 +8138,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="18.75" customHeight="1">
       <c r="A107" s="11" t="s">
         <v>213</v>
       </c>
@@ -7893,7 +8168,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="18.75" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11">
         <v>15</v>
@@ -7917,6 +8192,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -7941,89 +8299,6 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8031,19 +8306,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8057,7 +8332,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8071,7 +8346,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8085,7 +8360,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8099,7 +8374,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8113,7 +8388,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="80" t="s">
         <v>62</v>
@@ -8129,7 +8404,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -8149,7 +8424,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="11">
         <v>1</v>
@@ -8169,7 +8444,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="11">
         <v>2</v>
@@ -8189,7 +8464,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="11">
         <v>3</v>
@@ -8209,7 +8484,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="11">
         <v>4</v>
@@ -8229,7 +8504,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8243,7 +8518,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8257,7 +8532,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8271,7 +8546,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8285,7 +8560,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8299,7 +8574,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8313,7 +8588,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8327,7 +8602,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8341,7 +8616,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8355,7 +8630,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8369,7 +8644,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8383,7 +8658,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8397,7 +8672,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8411,7 +8686,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8425,7 +8700,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8439,7 +8714,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8453,7 +8728,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8467,7 +8742,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8481,7 +8756,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8495,7 +8770,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8509,7 +8784,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8523,7 +8798,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8537,7 +8812,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8551,7 +8826,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8579,19 +8854,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8607,7 +8882,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8623,7 +8898,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8639,7 +8914,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8655,7 +8930,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="80" t="s">
@@ -8673,7 +8948,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="12" t="s">
@@ -8695,7 +8970,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="11">
@@ -8717,7 +8992,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="11">
@@ -8739,7 +9014,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11">
@@ -8761,7 +9036,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="11">
@@ -8783,7 +9058,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8799,7 +9074,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8815,7 +9090,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8831,7 +9106,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8847,7 +9122,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8863,7 +9138,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8879,7 +9154,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8895,7 +9170,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8911,7 +9186,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8927,7 +9202,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8943,7 +9218,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8959,7 +9234,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8975,7 +9250,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8991,7 +9266,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9007,7 +9282,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9023,7 +9298,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9039,7 +9314,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9055,7 +9330,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9071,7 +9346,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9087,7 +9362,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9103,7 +9378,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9119,7 +9394,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9135,7 +9410,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9151,7 +9426,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="15.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9167,7 +9442,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9183,7 +9458,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9199,7 +9474,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9215,7 +9490,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9231,7 +9506,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9247,7 +9522,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9263,7 +9538,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9293,19 +9568,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9319,7 +9594,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9333,7 +9608,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="80" t="s">
         <v>65</v>
@@ -9349,7 +9624,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>0</v>
@@ -9369,7 +9644,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>1</v>
@@ -9389,7 +9664,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>2</v>
@@ -9409,7 +9684,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>3</v>
@@ -9429,7 +9704,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="11">
         <v>4</v>
@@ -9449,7 +9724,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9463,7 +9738,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9477,7 +9752,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9491,7 +9766,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9519,19 +9794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.75">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9548,7 +9823,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9565,7 +9840,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9582,7 +9857,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9599,7 +9874,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="80" t="s">
@@ -9618,7 +9893,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
@@ -9641,7 +9916,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11">
@@ -9664,7 +9939,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="11">
@@ -9687,7 +9962,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="11">
@@ -9710,7 +9985,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
@@ -9733,7 +10008,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
@@ -9756,7 +10031,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
@@ -9779,7 +10054,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
@@ -9802,7 +10077,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
@@ -9825,7 +10100,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
@@ -9848,7 +10123,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
@@ -9871,7 +10146,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
@@ -9894,7 +10169,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
@@ -9917,7 +10192,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
@@ -9940,7 +10215,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
@@ -9963,7 +10238,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
@@ -9988,7 +10263,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="11">
@@ -10011,7 +10286,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10028,7 +10303,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10045,7 +10320,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10062,7 +10337,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10079,7 +10354,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10096,7 +10371,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10113,7 +10388,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10130,7 +10405,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10147,7 +10422,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10164,7 +10439,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10183,13 +10458,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10200,6 +10468,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10207,19 +10482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10239,7 +10514,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10259,7 +10534,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10279,7 +10554,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10299,7 +10574,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -10319,7 +10594,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="80" t="s">
@@ -10341,7 +10616,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12" t="s">
@@ -10367,7 +10642,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
@@ -10395,7 +10670,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
@@ -10423,7 +10698,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
@@ -10451,7 +10726,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
@@ -10479,7 +10754,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
@@ -10505,7 +10780,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
@@ -10531,7 +10806,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
@@ -10559,7 +10834,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
@@ -10587,7 +10862,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
@@ -10615,7 +10890,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
@@ -10643,7 +10918,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
@@ -10669,7 +10944,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
@@ -10695,7 +10970,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10715,7 +10990,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10735,7 +11010,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10755,7 +11030,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="15.75">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10775,7 +11050,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="15.75">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10795,7 +11070,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="15.75">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10815,7 +11090,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="15.75">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10835,7 +11110,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="15.75">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10855,7 +11130,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="15.75">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10875,7 +11150,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" ht="15.75">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10895,7 +11170,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="15.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10915,7 +11190,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" ht="15.75">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -10957,19 +11232,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="15.75">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10983,7 +11258,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="15.75">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10997,7 +11272,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="15.75">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11011,7 +11286,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="86" t="s">
         <v>130</v>
@@ -11027,7 +11302,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>203</v>
@@ -11051,7 +11326,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.75">
       <c r="B8" s="2"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
@@ -11071,7 +11346,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>204</v>
@@ -11095,7 +11370,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>205</v>
@@ -11119,7 +11394,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="15.75">
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
@@ -11139,7 +11414,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>206</v>
@@ -11163,7 +11438,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>207</v>
@@ -11187,7 +11462,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15.75">
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
@@ -11207,7 +11482,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>208</v>
@@ -11231,7 +11506,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
         <v>209</v>
@@ -11255,7 +11530,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="15.75">
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -11275,7 +11550,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>210</v>
@@ -11299,7 +11574,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>211</v>
@@ -11323,7 +11598,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
         <v>212</v>
@@ -11347,7 +11622,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
         <v>213</v>
@@ -11371,7 +11646,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="15.75">
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
@@ -11391,7 +11666,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="15.75">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11405,7 +11680,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="15.75">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11419,7 +11694,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="15.75">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11435,6 +11710,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11442,16 +11727,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="260">
   <si>
     <t>Pin #</t>
   </si>
@@ -582,12 +582,6 @@
     <t>MODULE GSM</t>
   </si>
   <si>
-    <t>GSM_PWR_5VIN</t>
-  </si>
-  <si>
-    <t>GSM_UART_VDD</t>
-  </si>
-  <si>
     <t>GSM_PWR_GND</t>
   </si>
   <si>
@@ -600,9 +594,6 @@
     <t>US_X_GND</t>
   </si>
   <si>
-    <t>NFC_PWR_3V3</t>
-  </si>
-  <si>
     <t>NFC_PWR_GND</t>
   </si>
   <si>
@@ -615,18 +606,12 @@
     <t>IMU_PWR_GND</t>
   </si>
   <si>
-    <t>IMU_PWR_5V</t>
-  </si>
-  <si>
     <t>BALISE</t>
   </si>
   <si>
     <t>BALISE_PWR_GND</t>
   </si>
   <si>
-    <t>BALISE_PWR_3V3</t>
-  </si>
-  <si>
     <t>ESP32</t>
   </si>
   <si>
@@ -636,9 +621,6 @@
     <t>US_X_TRIG_5V</t>
   </si>
   <si>
-    <t>US_X_VDD_5V</t>
-  </si>
-  <si>
     <t>Pin FPGA</t>
   </si>
   <si>
@@ -781,6 +763,51 @@
   </si>
   <si>
     <t>I2C</t>
+  </si>
+  <si>
+    <t>BATTERIE</t>
+  </si>
+  <si>
+    <t>BAT_CHARGING</t>
+  </si>
+  <si>
+    <t>BAT_VOLTAGE</t>
+  </si>
+  <si>
+    <t>ANALOG</t>
+  </si>
+  <si>
+    <t>.+5V_IMU</t>
+  </si>
+  <si>
+    <t>.+3V3_NFC</t>
+  </si>
+  <si>
+    <t>.+3V3</t>
+  </si>
+  <si>
+    <t>.+5V_US</t>
+  </si>
+  <si>
+    <t>.+5V_GSM</t>
+  </si>
+  <si>
+    <t>PWR_MGT_GSM</t>
+  </si>
+  <si>
+    <t>US_SEL_2</t>
+  </si>
+  <si>
+    <t>US_SEL_1</t>
+  </si>
+  <si>
+    <t>US_SEL_0</t>
+  </si>
+  <si>
+    <t>PWR_MGT_US</t>
+  </si>
+  <si>
+    <t>PWR_MGT_NFC</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1293,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1427,6 +1454,13 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -1442,12 +1476,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFFEB4"/>
       <color rgb="FFFF6565"/>
       <color rgb="FFFF1D1D"/>
       <color rgb="FFFF5B5B"/>
       <color rgb="FFA5A5A5"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFFF9F85"/>
       <color rgb="FFFFAF8F"/>
       <color rgb="FFFF575B"/>
@@ -1469,26 +1503,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>680605</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>49357</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1502,8 +1530,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="554182" y="675409"/>
-          <a:ext cx="14258059" cy="25178039"/>
+          <a:off x="1006928" y="12178393"/>
+          <a:ext cx="14494329" cy="25716139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,7 +1566,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1619,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1672,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1684,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1674,7 +1702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1703,7 +1731,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1743,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1733,7 +1761,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1762,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1829,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1873,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2145,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
@@ -3287,30 +3315,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3327,25 +3350,30 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3353,10 +3381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3464,7 +3492,7 @@
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K3" s="11">
         <v>1</v>
@@ -3486,10 +3514,10 @@
         <v>176</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3526,10 +3554,10 @@
         <v>176</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3552,7 +3580,7 @@
       </c>
       <c r="H5" s="32"/>
       <c r="I5" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K5" s="11">
         <v>3</v>
@@ -3574,10 +3602,10 @@
         <v>176</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3614,10 +3642,10 @@
         <v>176</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3627,7 +3655,7 @@
       <c r="B7" s="67"/>
       <c r="C7" s="68"/>
       <c r="D7" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
@@ -3699,7 +3727,7 @@
       <c r="B9" s="62"/>
       <c r="C9" s="63"/>
       <c r="D9" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>74</v>
@@ -3730,10 +3758,10 @@
         <v>176</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3758,10 +3786,10 @@
       </c>
       <c r="M10" s="63"/>
       <c r="N10" s="26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P10" s="32" t="s">
         <v>166</v>
@@ -3770,10 +3798,10 @@
         <v>176</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3798,10 +3826,10 @@
       </c>
       <c r="M11" s="63"/>
       <c r="N11" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P11" s="32" t="s">
         <v>166</v>
@@ -3810,10 +3838,10 @@
         <v>176</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3823,7 +3851,7 @@
       <c r="B12" s="62"/>
       <c r="C12" s="63"/>
       <c r="D12" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>74</v>
@@ -3851,7 +3879,7 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3895,7 +3923,7 @@
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
       <c r="D14" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>74</v>
@@ -3933,7 +3961,7 @@
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>74</v>
@@ -3965,7 +3993,7 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K16" s="64" t="s">
         <v>12</v>
@@ -3981,7 +4009,7 @@
       <c r="B17" s="62"/>
       <c r="C17" s="63"/>
       <c r="D17" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>74</v>
@@ -4038,7 +4066,7 @@
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K18" s="11">
         <v>1</v>
@@ -4048,10 +4076,10 @@
       </c>
       <c r="M18" s="63"/>
       <c r="N18" s="26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>161</v>
@@ -4060,10 +4088,10 @@
         <v>176</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4088,10 +4116,10 @@
       </c>
       <c r="M19" s="63"/>
       <c r="N19" s="26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O19" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>166</v>
@@ -4100,10 +4128,10 @@
         <v>176</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4113,7 +4141,7 @@
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
       <c r="D20" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>74</v>
@@ -4132,10 +4160,10 @@
       </c>
       <c r="M20" s="63"/>
       <c r="N20" s="26" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>161</v>
@@ -4144,10 +4172,10 @@
         <v>176</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4172,10 +4200,10 @@
       </c>
       <c r="M21" s="63"/>
       <c r="N21" s="26" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="O21" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>161</v>
@@ -4184,10 +4212,10 @@
         <v>176</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4197,7 +4225,7 @@
       <c r="B22" s="62"/>
       <c r="C22" s="63"/>
       <c r="D22" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>74</v>
@@ -4264,10 +4292,10 @@
       </c>
       <c r="M24" s="63"/>
       <c r="N24" s="26" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P24" s="32" t="s">
         <v>161</v>
@@ -4276,10 +4304,10 @@
         <v>176</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4315,21 +4343,21 @@
         <v>35</v>
       </c>
       <c r="M25" s="63"/>
-      <c r="N25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>74</v>
+      <c r="N25" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32" t="s">
         <v>176</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4339,7 +4367,7 @@
       <c r="B26" s="62"/>
       <c r="C26" s="63"/>
       <c r="D26" s="36" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>74</v>
@@ -4357,21 +4385,21 @@
         <v>36</v>
       </c>
       <c r="M26" s="63"/>
-      <c r="N26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>74</v>
+      <c r="N26" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32" t="s">
         <v>176</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4381,7 +4409,7 @@
       <c r="B27" s="62"/>
       <c r="C27" s="63"/>
       <c r="D27" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>74</v>
@@ -4399,21 +4427,21 @@
         <v>37</v>
       </c>
       <c r="M27" s="68"/>
-      <c r="N27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>74</v>
+      <c r="N27" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>259</v>
       </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="32" t="s">
         <v>176</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4422,8 +4450,8 @@
       </c>
       <c r="B28" s="62"/>
       <c r="C28" s="63"/>
-      <c r="D28" s="36" t="s">
-        <v>185</v>
+      <c r="D28" s="35" t="s">
+        <v>251</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>74</v>
@@ -4474,7 +4502,7 @@
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K29" s="11">
         <v>12</v>
@@ -4516,7 +4544,7 @@
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4526,7 +4554,7 @@
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>74</v>
@@ -4564,7 +4592,7 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>0</v>
@@ -4613,15 +4641,15 @@
         <v>176</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -4646,10 +4674,10 @@
         <v>176</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4698,10 +4726,10 @@
         <v>176</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4711,7 +4739,7 @@
       <c r="B36" s="62"/>
       <c r="C36" s="63"/>
       <c r="D36" s="37" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>74</v>
@@ -4742,10 +4770,10 @@
         <v>176</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4755,7 +4783,7 @@
       <c r="B37" s="62"/>
       <c r="C37" s="63"/>
       <c r="D37" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>74</v>
@@ -4768,7 +4796,7 @@
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K37" s="11">
         <v>5</v>
@@ -4797,7 +4825,7 @@
       <c r="B38" s="62"/>
       <c r="C38" s="63"/>
       <c r="D38" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>74</v>
@@ -4810,7 +4838,7 @@
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K38" s="11">
         <v>6</v>
@@ -4839,7 +4867,7 @@
       <c r="B39" s="62"/>
       <c r="C39" s="63"/>
       <c r="D39" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>74</v>
@@ -4870,10 +4898,10 @@
         <v>176</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4897,15 +4925,15 @@
         <v>176</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
@@ -4926,10 +4954,10 @@
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4974,10 +5002,10 @@
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4987,7 +5015,7 @@
       <c r="B43" s="62"/>
       <c r="C43" s="63"/>
       <c r="D43" s="35" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>74</v>
@@ -5025,7 +5053,7 @@
       <c r="B44" s="62"/>
       <c r="C44" s="63"/>
       <c r="D44" s="39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>74</v>
@@ -5063,7 +5091,7 @@
       <c r="B45" s="62"/>
       <c r="C45" s="63"/>
       <c r="D45" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>74</v>
@@ -5076,7 +5104,7 @@
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -5099,10 +5127,10 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K46" s="64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L46" s="64"/>
       <c r="M46" s="64"/>
@@ -5128,7 +5156,7 @@
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>0</v>
@@ -5163,7 +5191,7 @@
       <c r="B48" s="62"/>
       <c r="C48" s="63"/>
       <c r="D48" s="39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>74</v>
@@ -5257,7 +5285,7 @@
       <c r="B52" s="62"/>
       <c r="C52" s="63"/>
       <c r="D52" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>74</v>
@@ -5276,7 +5304,7 @@
       <c r="B53" s="62"/>
       <c r="C53" s="63"/>
       <c r="D53" s="36" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>74</v>
@@ -5308,7 +5336,7 @@
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5331,25 +5359,25 @@
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="A57" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="82"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="66"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="5" t="s">
         <v>155</v>
       </c>
@@ -5373,10 +5401,10 @@
       <c r="A59" s="11">
         <v>1</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="35" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>74</v>
@@ -5392,10 +5420,10 @@
       <c r="A60" s="11">
         <v>2</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>74</v>
@@ -5411,8 +5439,8 @@
       <c r="A61" s="11">
         <v>3</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="7" t="s">
         <v>174</v>
       </c>
@@ -5427,15 +5455,15 @@
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="11">
         <v>4</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="7" t="s">
         <v>175</v>
       </c>
@@ -5450,11 +5478,175 @@
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="82"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="91"/>
+      <c r="D65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="11">
+        <v>1</v>
+      </c>
+      <c r="B66" s="67"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="11">
+        <v>2</v>
+      </c>
+      <c r="B67" s="67"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="107">
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -5479,85 +5671,6 @@
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5658,14 +5771,14 @@
         <v>156</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N3" s="57"/>
       <c r="O3" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
@@ -5691,7 +5804,7 @@
       <c r="AC3" s="40"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF3" s="58"/>
     </row>
@@ -5708,10 +5821,10 @@
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N4" s="57"/>
       <c r="O4" s="45" t="s">
@@ -5758,10 +5871,10 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N5" s="57"/>
       <c r="O5" s="16"/>
@@ -5800,10 +5913,10 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N6" s="59"/>
       <c r="O6" s="51"/>
@@ -5838,10 +5951,10 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="18.75" customHeight="1">
@@ -5887,10 +6000,10 @@
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="18.75" customHeight="1">
@@ -5906,10 +6019,10 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="18.75" customHeight="1">
@@ -5925,10 +6038,10 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="18.75" customHeight="1">
@@ -5944,10 +6057,10 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="18.75" customHeight="1">
@@ -6005,10 +6118,10 @@
         <v>156</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
@@ -6025,10 +6138,10 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1">
@@ -6045,10 +6158,10 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1">
@@ -6065,10 +6178,10 @@
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1">
@@ -6085,10 +6198,10 @@
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1">
@@ -6137,10 +6250,10 @@
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1">
@@ -6157,10 +6270,10 @@
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1">
@@ -6177,10 +6290,10 @@
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
@@ -6197,10 +6310,10 @@
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="47" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
@@ -6263,10 +6376,10 @@
         <v>156</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I33" s="33" t="s">
         <v>157</v>
@@ -6291,10 +6404,10 @@
         <v>162</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>161</v>
@@ -6322,10 +6435,10 @@
         <v>163</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>166</v>
@@ -6350,10 +6463,10 @@
         <v>164</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>161</v>
@@ -6381,10 +6494,10 @@
         <v>165</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>166</v>
@@ -6453,10 +6566,10 @@
         <v>168</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I40" s="32" t="s">
         <v>166</v>
@@ -6475,16 +6588,16 @@
       </c>
       <c r="D41" s="63"/>
       <c r="E41" s="26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>161</v>
@@ -6504,16 +6617,16 @@
       </c>
       <c r="D42" s="63"/>
       <c r="E42" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>161</v>
@@ -6538,10 +6651,10 @@
         <v>74</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -6618,10 +6731,10 @@
         <v>156</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>157</v>
@@ -6648,16 +6761,16 @@
       </c>
       <c r="D49" s="63"/>
       <c r="E49" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>166</v>
@@ -6682,16 +6795,16 @@
       </c>
       <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>161</v>
@@ -6716,16 +6829,16 @@
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>166</v>
@@ -6750,16 +6863,16 @@
       </c>
       <c r="D52" s="63"/>
       <c r="E52" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>166</v>
@@ -6840,16 +6953,16 @@
       </c>
       <c r="D55" s="63"/>
       <c r="E55" s="26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>166</v>
@@ -6880,10 +6993,10 @@
         <v>74</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
@@ -6912,10 +7025,10 @@
         <v>74</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
@@ -6944,10 +7057,10 @@
         <v>74</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
@@ -7056,10 +7169,10 @@
         <v>156</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I63" s="33" t="s">
         <v>157</v>
@@ -7090,10 +7203,10 @@
         <v>169</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I64" s="32" t="s">
         <v>173</v>
@@ -7127,10 +7240,10 @@
         <v>170</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I65" s="32" t="s">
         <v>173</v>
@@ -7161,10 +7274,10 @@
         <v>171</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>173</v>
@@ -7198,10 +7311,10 @@
         <v>172</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I67" s="32" t="s">
         <v>173</v>
@@ -7288,10 +7401,10 @@
         <v>174</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I70" s="32" t="s">
         <v>173</v>
@@ -7325,10 +7438,10 @@
         <v>175</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>173</v>
@@ -7359,10 +7472,10 @@
         <v>74</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
@@ -7386,10 +7499,10 @@
         <v>74</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
@@ -7465,10 +7578,10 @@
         <v>156</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I78" s="33" t="s">
         <v>157</v>
@@ -7482,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="8" t="s">
@@ -7490,7 +7603,7 @@
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="32"/>
@@ -7503,7 +7616,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D80" s="63"/>
       <c r="E80" s="8" t="s">
@@ -7511,7 +7624,7 @@
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="32" t="s">
@@ -7526,7 +7639,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D81" s="63"/>
       <c r="E81" s="8" t="s">
@@ -7534,7 +7647,7 @@
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="32" t="s">
@@ -7549,7 +7662,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="8" t="s">
@@ -7557,7 +7670,7 @@
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="32"/>
@@ -7612,7 +7725,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D85" s="63"/>
       <c r="E85" s="8" t="s">
@@ -7620,7 +7733,7 @@
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="32"/>
@@ -7633,7 +7746,7 @@
         <v>8</v>
       </c>
       <c r="C86" s="62" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D86" s="63"/>
       <c r="E86" s="8" t="s">
@@ -7641,7 +7754,7 @@
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H86" s="11"/>
       <c r="I86" s="32" t="s">
@@ -7656,7 +7769,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D87" s="63"/>
       <c r="E87" s="8" t="s">
@@ -7677,7 +7790,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D88" s="68"/>
       <c r="E88" s="8" t="s">
@@ -7744,12 +7857,12 @@
       <c r="G92" s="41"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="18.75" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>0</v>
@@ -7765,10 +7878,10 @@
         <v>156</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I93" s="33" t="s">
         <v>157</v>
@@ -7802,7 +7915,7 @@
     </row>
     <row r="95" spans="1:14" ht="18.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B95" s="11">
         <v>2</v>
@@ -7818,10 +7931,10 @@
         <v>123</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>161</v>
@@ -7832,7 +7945,7 @@
     </row>
     <row r="96" spans="1:14" ht="18.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B96" s="11">
         <v>3</v>
@@ -7848,10 +7961,10 @@
         <v>124</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>161</v>
@@ -7884,7 +7997,7 @@
     </row>
     <row r="98" spans="1:14" ht="18.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B98" s="11">
         <v>5</v>
@@ -7900,10 +8013,10 @@
         <v>125</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I98" s="32" t="s">
         <v>161</v>
@@ -7914,7 +8027,7 @@
     </row>
     <row r="99" spans="1:14" ht="18.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B99" s="11">
         <v>6</v>
@@ -7930,10 +8043,10 @@
         <v>126</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>161</v>
@@ -7966,7 +8079,7 @@
     </row>
     <row r="101" spans="1:14" ht="18.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
@@ -7982,10 +8095,10 @@
         <v>120</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>161</v>
@@ -7996,7 +8109,7 @@
     </row>
     <row r="102" spans="1:14" ht="18.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B102" s="11">
         <v>9</v>
@@ -8012,10 +8125,10 @@
         <v>121</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>161</v>
@@ -8048,7 +8161,7 @@
     </row>
     <row r="104" spans="1:14" ht="18.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B104" s="11">
         <v>11</v>
@@ -8064,10 +8177,10 @@
         <v>127</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>167</v>
@@ -8076,12 +8189,12 @@
         <v>176</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="18.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B105" s="11">
         <v>12</v>
@@ -8097,20 +8210,20 @@
         <v>74</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
       <c r="N105" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="18.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B106" s="11">
         <v>13</v>
@@ -8126,10 +8239,10 @@
         <v>128</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I106" s="32" t="s">
         <v>173</v>
@@ -8140,7 +8253,7 @@
     </row>
     <row r="107" spans="1:14" ht="18.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B107" s="11">
         <v>14</v>
@@ -8156,10 +8269,10 @@
         <v>129</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I107" s="32" t="s">
         <v>173</v>
@@ -8192,89 +8305,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8299,6 +8329,89 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10458,6 +10571,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10468,13 +10588,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11305,10 +11418,10 @@
     <row r="7" spans="2:13" ht="15.75">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>1</v>
@@ -11318,7 +11431,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -11349,7 +11462,7 @@
     <row r="9" spans="2:13" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -11362,7 +11475,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11373,7 +11486,7 @@
     <row r="10" spans="2:13" ht="15.75">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D10" s="11">
         <v>3</v>
@@ -11386,7 +11499,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -11417,7 +11530,7 @@
     <row r="12" spans="2:13" ht="15.75">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D12" s="11">
         <v>5</v>
@@ -11430,7 +11543,7 @@
         <v>125</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -11441,7 +11554,7 @@
     <row r="13" spans="2:13" ht="15.75">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D13" s="11">
         <v>6</v>
@@ -11454,7 +11567,7 @@
         <v>126</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -11485,7 +11598,7 @@
     <row r="15" spans="2:13" ht="15.75">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D15" s="11">
         <v>8</v>
@@ -11498,7 +11611,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -11509,7 +11622,7 @@
     <row r="16" spans="2:13" ht="15.75">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D16" s="11">
         <v>9</v>
@@ -11522,7 +11635,7 @@
         <v>121</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -11553,7 +11666,7 @@
     <row r="18" spans="2:13" ht="15.75">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D18" s="11">
         <v>11</v>
@@ -11566,7 +11679,7 @@
         <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -11577,7 +11690,7 @@
     <row r="19" spans="2:13" ht="15.75">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D19" s="11">
         <v>12</v>
@@ -11590,7 +11703,7 @@
         <v>74</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -11601,7 +11714,7 @@
     <row r="20" spans="2:13" ht="15.75">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D20" s="11">
         <v>13</v>
@@ -11614,7 +11727,7 @@
         <v>128</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -11625,7 +11738,7 @@
     <row r="21" spans="2:13" ht="15.75">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D21" s="11">
         <v>14</v>
@@ -11638,7 +11751,7 @@
         <v>129</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -11710,16 +11823,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11727,6 +11830,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1374,10 +1374,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,12 +1407,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1424,15 +1440,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1454,13 +1461,6 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1684,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1702,7 +1702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1731,7 +1731,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1761,7 +1761,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1790,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1829,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1873,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2173,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
@@ -2195,12 +2195,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2211,10 +2211,10 @@
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2238,10 +2238,10 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
@@ -2255,10 +2255,10 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
@@ -2272,10 +2272,10 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
@@ -2289,10 +2289,10 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="29" t="s">
         <v>74</v>
       </c>
@@ -2306,10 +2306,10 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="68"/>
+      <c r="B7" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="64"/>
       <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
@@ -2323,10 +2323,10 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="31" t="s">
         <v>86</v>
       </c>
@@ -2340,10 +2340,10 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2357,10 +2357,10 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="29" t="s">
         <v>74</v>
       </c>
@@ -2374,10 +2374,10 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="29" t="s">
         <v>74</v>
       </c>
@@ -2391,10 +2391,10 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2408,10 +2408,10 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="68"/>
+      <c r="B13" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="64"/>
       <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
@@ -2425,10 +2425,10 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="31" t="s">
         <v>86</v>
       </c>
@@ -2450,12 +2450,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2466,10 +2466,10 @@
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="66"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="5" t="s">
         <v>155</v>
       </c>
@@ -2493,10 +2493,10 @@
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
@@ -2510,10 +2510,10 @@
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
@@ -2527,10 +2527,10 @@
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2544,10 +2544,10 @@
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
@@ -2561,10 +2561,10 @@
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="68"/>
+      <c r="B22" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="64"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,10 +2578,10 @@
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2595,10 +2595,10 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
@@ -2612,10 +2612,10 @@
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
@@ -2629,10 +2629,10 @@
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
@@ -2646,10 +2646,10 @@
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2663,10 +2663,10 @@
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="68"/>
+      <c r="B28" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="64"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2680,10 +2680,10 @@
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2694,12 +2694,12 @@
       <c r="I29" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2711,10 +2711,10 @@
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="5" t="s">
         <v>155</v>
       </c>
@@ -2739,10 +2739,10 @@
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2757,10 +2757,10 @@
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="8" t="s">
         <v>107</v>
       </c>
@@ -2775,10 +2775,10 @@
       <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2793,10 +2793,10 @@
       <c r="A36" s="11">
         <v>4</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
@@ -2811,10 +2811,10 @@
       <c r="A37" s="11">
         <v>5</v>
       </c>
-      <c r="B37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="68"/>
+      <c r="B37" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="64"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -2829,10 +2829,10 @@
       <c r="A38" s="11">
         <v>6</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2847,10 +2847,10 @@
       <c r="A39" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="63"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2865,10 +2865,10 @@
       <c r="A40" s="11">
         <v>8</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
@@ -2883,10 +2883,10 @@
       <c r="A41" s="11">
         <v>9</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="8" t="s">
         <v>112</v>
       </c>
@@ -2901,10 +2901,10 @@
       <c r="A42" s="11">
         <v>10</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
@@ -2919,10 +2919,10 @@
       <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="68"/>
+      <c r="B43" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="64"/>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,10 +2937,10 @@
       <c r="A44" s="11">
         <v>12</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2964,12 +2964,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2981,10 +2981,10 @@
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="5" t="s">
         <v>155</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="68"/>
+      <c r="B48" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="64"/>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="25" t="s">
         <v>123</v>
       </c>
@@ -3049,10 +3049,10 @@
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="25" t="s">
         <v>124</v>
       </c>
@@ -3069,10 +3069,10 @@
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="68"/>
+      <c r="B51" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="64"/>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3089,10 +3089,10 @@
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="68"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="25" t="s">
         <v>125</v>
       </c>
@@ -3109,10 +3109,10 @@
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="25" t="s">
         <v>126</v>
       </c>
@@ -3129,10 +3129,10 @@
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="68"/>
+      <c r="B54" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="64"/>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,10 +3149,10 @@
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="25" t="s">
         <v>120</v>
       </c>
@@ -3169,10 +3169,10 @@
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="63"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="25" t="s">
         <v>121</v>
       </c>
@@ -3189,10 +3189,10 @@
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="68"/>
+      <c r="B57" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="64"/>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,10 +3209,10 @@
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="68"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="28" t="s">
         <v>127</v>
       </c>
@@ -3227,10 +3227,10 @@
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="69"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3245,10 +3245,10 @@
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B60" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="68"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="34" t="s">
         <v>128</v>
       </c>
@@ -3265,10 +3265,10 @@
       <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="68"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="34" t="s">
         <v>129</v>
       </c>
@@ -3285,10 +3285,10 @@
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="69"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="31" t="s">
         <v>7</v>
       </c>
@@ -3315,25 +3315,30 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3350,30 +3355,25 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3407,27 +3407,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="K1" s="64" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="K1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3449,10 +3449,10 @@
       <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="66"/>
+      <c r="M2" s="74"/>
       <c r="N2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3476,8 +3476,8 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3497,10 +3497,10 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3524,8 +3524,8 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="7"/>
       <c r="E4" s="9" t="s">
         <v>74</v>
@@ -3537,10 +3537,10 @@
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="63"/>
+      <c r="M4" s="68"/>
       <c r="N4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3564,8 +3564,8 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="7" t="s">
         <v>162</v>
       </c>
@@ -3585,10 +3585,10 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="63"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="7" t="s">
         <v>165</v>
       </c>
@@ -3612,8 +3612,8 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
         <v>74</v>
@@ -3625,10 +3625,10 @@
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="63"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="7" t="s">
         <v>164</v>
       </c>
@@ -3652,8 +3652,8 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="39" t="s">
         <v>184</v>
       </c>
@@ -3669,10 +3669,10 @@
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="68"/>
+      <c r="L7" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="64"/>
       <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3690,8 +3690,8 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="7"/>
       <c r="E8" s="9" t="s">
         <v>74</v>
@@ -3703,10 +3703,10 @@
       <c r="K8" s="11">
         <v>6</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="63"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
@@ -3724,8 +3724,8 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="39" t="s">
         <v>184</v>
       </c>
@@ -3741,10 +3741,10 @@
       <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="63"/>
+      <c r="M9" s="68"/>
       <c r="N9" s="27" t="s">
         <v>168</v>
       </c>
@@ -3768,8 +3768,8 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="7"/>
       <c r="E10" s="9" t="s">
         <v>74</v>
@@ -3781,10 +3781,10 @@
       <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="26" t="s">
         <v>238</v>
       </c>
@@ -3808,8 +3808,8 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="7"/>
       <c r="E11" s="9" t="s">
         <v>74</v>
@@ -3821,10 +3821,10 @@
       <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="63"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="26" t="s">
         <v>239</v>
       </c>
@@ -3848,8 +3848,8 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="39" t="s">
         <v>184</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="68"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3886,8 +3886,8 @@
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
         <v>74</v>
@@ -3899,10 +3899,10 @@
       <c r="K13" s="11">
         <v>11</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="68"/>
+      <c r="L13" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="64"/>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3920,8 +3920,8 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="39" t="s">
         <v>184</v>
       </c>
@@ -3937,10 +3937,10 @@
       <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="69"/>
+      <c r="M14" s="75"/>
       <c r="N14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3958,8 +3958,8 @@
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="39" t="s">
         <v>184</v>
       </c>
@@ -3977,8 +3977,8 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="7" t="s">
         <v>181</v>
       </c>
@@ -3995,19 +3995,19 @@
       <c r="I16" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="39" t="s">
         <v>184</v>
       </c>
@@ -4023,10 +4023,10 @@
       <c r="K17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="66"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="5" t="s">
         <v>2</v>
       </c>
@@ -4050,8 +4050,8 @@
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="7" t="s">
         <v>182</v>
       </c>
@@ -4071,10 +4071,10 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="63"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="26" t="s">
         <v>240</v>
       </c>
@@ -4098,8 +4098,8 @@
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
         <v>74</v>
@@ -4111,10 +4111,10 @@
       <c r="K19" s="11">
         <v>2</v>
       </c>
-      <c r="L19" s="62" t="s">
+      <c r="L19" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="63"/>
+      <c r="M19" s="68"/>
       <c r="N19" s="26" t="s">
         <v>241</v>
       </c>
@@ -4138,8 +4138,8 @@
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="39" t="s">
         <v>184</v>
       </c>
@@ -4155,10 +4155,10 @@
       <c r="K20" s="11">
         <v>3</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="L20" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="68"/>
       <c r="N20" s="26" t="s">
         <v>255</v>
       </c>
@@ -4182,8 +4182,8 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
         <v>74</v>
@@ -4195,10 +4195,10 @@
       <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="62" t="s">
+      <c r="L21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="63"/>
+      <c r="M21" s="68"/>
       <c r="N21" s="26" t="s">
         <v>256</v>
       </c>
@@ -4222,8 +4222,8 @@
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="39" t="s">
         <v>184</v>
       </c>
@@ -4239,10 +4239,10 @@
       <c r="K22" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="68"/>
+      <c r="L22" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="64"/>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4260,10 +4260,10 @@
       <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="62" t="s">
+      <c r="L23" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="68"/>
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -4278,19 +4278,19 @@
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
       <c r="K24" s="11">
         <v>7</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="63"/>
+      <c r="M24" s="68"/>
       <c r="N24" s="26" t="s">
         <v>257</v>
       </c>
@@ -4314,10 +4314,10 @@
       <c r="A25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="66"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="5" t="s">
         <v>155</v>
       </c>
@@ -4339,10 +4339,10 @@
       <c r="K25" s="11">
         <v>8</v>
       </c>
-      <c r="L25" s="62" t="s">
+      <c r="L25" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="63"/>
+      <c r="M25" s="68"/>
       <c r="N25" s="26" t="s">
         <v>258</v>
       </c>
@@ -4364,8 +4364,8 @@
       <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="36" t="s">
         <v>253</v>
       </c>
@@ -4381,10 +4381,10 @@
       <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="62" t="s">
+      <c r="L26" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="68"/>
       <c r="N26" s="26" t="s">
         <v>254</v>
       </c>
@@ -4406,8 +4406,8 @@
       <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="39" t="s">
         <v>184</v>
       </c>
@@ -4423,10 +4423,10 @@
       <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="68"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="26" t="s">
         <v>259</v>
       </c>
@@ -4448,8 +4448,8 @@
       <c r="A28" s="11">
         <v>3</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="35" t="s">
         <v>251</v>
       </c>
@@ -4465,10 +4465,10 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="68"/>
+      <c r="L28" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="64"/>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4486,8 +4486,8 @@
       <c r="A29" s="11">
         <v>4</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="7" t="s">
         <v>165</v>
       </c>
@@ -4507,10 +4507,10 @@
       <c r="K29" s="11">
         <v>12</v>
       </c>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="69"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="4" t="s">
         <v>86</v>
       </c>
@@ -4528,8 +4528,8 @@
       <c r="A30" s="11">
         <v>5</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="7" t="s">
         <v>164</v>
       </c>
@@ -4551,8 +4551,8 @@
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="7" t="s">
         <v>185</v>
       </c>
@@ -4565,19 +4565,19 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="11">
         <v>7</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="7" t="s">
         <v>168</v>
       </c>
@@ -4597,10 +4597,10 @@
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="66"/>
+      <c r="M32" s="74"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -4624,10 +4624,10 @@
       <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="63"/>
+      <c r="M33" s="68"/>
       <c r="N33" s="7" t="s">
         <v>169</v>
       </c>
@@ -4648,19 +4648,19 @@
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
       <c r="K34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="62" t="s">
+      <c r="L34" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="63"/>
+      <c r="M34" s="68"/>
       <c r="N34" s="7" t="s">
         <v>170</v>
       </c>
@@ -4684,10 +4684,10 @@
       <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="5" t="s">
         <v>155</v>
       </c>
@@ -4709,10 +4709,10 @@
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="62" t="s">
+      <c r="L35" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="63"/>
+      <c r="M35" s="68"/>
       <c r="N35" s="7" t="s">
         <v>171</v>
       </c>
@@ -4736,8 +4736,8 @@
       <c r="A36" s="11">
         <v>1</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="37" t="s">
         <v>252</v>
       </c>
@@ -4753,10 +4753,10 @@
       <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="L36" s="62" t="s">
+      <c r="L36" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="63"/>
+      <c r="M36" s="68"/>
       <c r="N36" s="7" t="s">
         <v>172</v>
       </c>
@@ -4780,8 +4780,8 @@
       <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="26" t="s">
         <v>196</v>
       </c>
@@ -4801,10 +4801,10 @@
       <c r="K37" s="11">
         <v>5</v>
       </c>
-      <c r="L37" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="68"/>
+      <c r="L37" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="64"/>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4822,8 +4822,8 @@
       <c r="A38" s="11">
         <v>3</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="26" t="s">
         <v>195</v>
       </c>
@@ -4843,10 +4843,10 @@
       <c r="K38" s="11">
         <v>6</v>
       </c>
-      <c r="L38" s="62" t="s">
+      <c r="L38" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="63"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="4" t="s">
         <v>86</v>
       </c>
@@ -4864,8 +4864,8 @@
       <c r="A39" s="11">
         <v>4</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="38" t="s">
         <v>187</v>
       </c>
@@ -4881,10 +4881,10 @@
       <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="62" t="s">
+      <c r="L39" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="63"/>
+      <c r="M39" s="68"/>
       <c r="N39" s="7" t="s">
         <v>174</v>
       </c>
@@ -4908,10 +4908,10 @@
       <c r="K40" s="11">
         <v>8</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="63"/>
+      <c r="M40" s="68"/>
       <c r="N40" s="7" t="s">
         <v>175</v>
       </c>
@@ -4932,19 +4932,19 @@
       </c>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
       <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="62" t="s">
+      <c r="L41" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="63"/>
+      <c r="M41" s="68"/>
       <c r="N41" s="9" t="s">
         <v>74</v>
       </c>
@@ -4964,10 +4964,10 @@
       <c r="A42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="5" t="s">
         <v>155</v>
       </c>
@@ -4989,10 +4989,10 @@
       <c r="K42" s="11">
         <v>10</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="68"/>
+      <c r="M42" s="64"/>
       <c r="N42" s="9" t="s">
         <v>74</v>
       </c>
@@ -5012,8 +5012,8 @@
       <c r="A43" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="35" t="s">
         <v>250</v>
       </c>
@@ -5029,10 +5029,10 @@
       <c r="K43" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="68"/>
+      <c r="L43" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="64"/>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -5050,8 +5050,8 @@
       <c r="A44" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="39" t="s">
         <v>188</v>
       </c>
@@ -5067,10 +5067,10 @@
       <c r="K44" s="11">
         <v>12</v>
       </c>
-      <c r="L44" s="67" t="s">
+      <c r="L44" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="69"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="4" t="s">
         <v>86</v>
       </c>
@@ -5088,8 +5088,8 @@
       <c r="A45" s="11">
         <v>3</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="7" t="s">
         <v>189</v>
       </c>
@@ -5111,8 +5111,8 @@
       <c r="A46" s="11">
         <v>4</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="7" t="s">
         <v>169</v>
       </c>
@@ -5129,19 +5129,19 @@
       <c r="I46" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="K46" s="64" t="s">
+      <c r="K46" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="11">
         <v>5</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="7" t="s">
         <v>170</v>
       </c>
@@ -5161,10 +5161,10 @@
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="65" t="s">
+      <c r="L47" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="66"/>
+      <c r="M47" s="74"/>
       <c r="N47" s="5" t="s">
         <v>155</v>
       </c>
@@ -5188,8 +5188,8 @@
       <c r="A48" s="11">
         <v>6</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
       <c r="D48" s="39" t="s">
         <v>188</v>
       </c>
@@ -5205,8 +5205,8 @@
       <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="68"/>
       <c r="N48" s="7" t="s">
         <v>179</v>
       </c>
@@ -5226,8 +5226,8 @@
       <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="68"/>
       <c r="N49" s="7" t="s">
         <v>180</v>
       </c>
@@ -5244,21 +5244,21 @@
       <c r="S49" s="32"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="66"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="5" t="s">
         <v>155</v>
       </c>
@@ -5282,8 +5282,8 @@
       <c r="A52" s="11">
         <v>1</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="39" t="s">
         <v>191</v>
       </c>
@@ -5301,8 +5301,8 @@
       <c r="A53" s="11">
         <v>2</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="36" t="s">
         <v>249</v>
       </c>
@@ -5320,8 +5320,8 @@
       <c r="A54" s="11">
         <v>3</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="7" t="s">
         <v>171</v>
       </c>
@@ -5343,8 +5343,8 @@
       <c r="A55" s="11">
         <v>4</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="7" t="s">
         <v>172</v>
       </c>
@@ -5363,21 +5363,21 @@
       </c>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="82"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="91"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="5" t="s">
         <v>155</v>
       </c>
@@ -5401,8 +5401,8 @@
       <c r="A59" s="11">
         <v>1</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="35" t="s">
         <v>251</v>
       </c>
@@ -5420,8 +5420,8 @@
       <c r="A60" s="11">
         <v>2</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="39" t="s">
         <v>193</v>
       </c>
@@ -5439,8 +5439,8 @@
       <c r="A61" s="11">
         <v>3</v>
       </c>
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="7" t="s">
         <v>174</v>
       </c>
@@ -5462,8 +5462,8 @@
       <c r="A62" s="11">
         <v>4</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="7" t="s">
         <v>175</v>
       </c>
@@ -5482,21 +5482,21 @@
       </c>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="80" t="s">
+      <c r="A64" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="82"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="71"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="5" t="s">
         <v>155</v>
       </c>
@@ -5520,9 +5520,9 @@
       <c r="A66" s="11">
         <v>1</v>
       </c>
-      <c r="B66" s="67"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="92" t="s">
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="62" t="s">
         <v>246</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -5543,9 +5543,9 @@
       <c r="A67" s="11">
         <v>2</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="92" t="s">
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="62" t="s">
         <v>247</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -5564,6 +5564,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B58:C58"/>
@@ -5588,89 +5671,6 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="K46:N46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5730,12 +5730,12 @@
       <c r="AF1" s="56"/>
     </row>
     <row r="2" spans="2:32" ht="18.75" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="N2" s="57"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -5760,10 +5760,10 @@
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
@@ -5787,11 +5787,11 @@
       </c>
       <c r="S3" s="40"/>
       <c r="T3" s="40"/>
-      <c r="U3" s="79" t="s">
+      <c r="U3" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="40" t="s">
         <v>134</v>
@@ -5812,10 +5812,10 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
@@ -5831,27 +5831,27 @@
         <v>74</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="74"/>
-      <c r="S4" s="75"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="77"/>
-      <c r="W4" s="78"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="84"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="50" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="70" t="s">
+      <c r="AA4" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="72"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="3" t="s">
         <v>3</v>
@@ -5862,10 +5862,10 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
@@ -5879,17 +5879,17 @@
       <c r="N5" s="57"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="48"/>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="84"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
@@ -5904,10 +5904,10 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
@@ -5942,10 +5942,10 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
@@ -5961,10 +5961,10 @@
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="68"/>
+      <c r="C8" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="64"/>
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
@@ -5976,10 +5976,10 @@
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
@@ -5991,10 +5991,10 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
@@ -6010,10 +6010,10 @@
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="29" t="s">
         <v>74</v>
       </c>
@@ -6029,10 +6029,10 @@
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="29" t="s">
         <v>74</v>
       </c>
@@ -6048,10 +6048,10 @@
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
@@ -6067,10 +6067,10 @@
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="68"/>
+      <c r="C14" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
@@ -6082,10 +6082,10 @@
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="31" t="s">
         <v>86</v>
       </c>
@@ -6095,22 +6095,22 @@
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
         <v>2</v>
       </c>
@@ -6129,10 +6129,10 @@
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="29" t="s">
         <v>74</v>
       </c>
@@ -6149,10 +6149,10 @@
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
@@ -6169,10 +6169,10 @@
       <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
@@ -6189,10 +6189,10 @@
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
@@ -6209,10 +6209,10 @@
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="68"/>
+      <c r="C23" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="64"/>
       <c r="E23" s="30" t="s">
         <v>3</v>
       </c>
@@ -6225,10 +6225,10 @@
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="31" t="s">
         <v>86</v>
       </c>
@@ -6241,10 +6241,10 @@
       <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="29" t="s">
         <v>74</v>
       </c>
@@ -6261,10 +6261,10 @@
       <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="29" t="s">
         <v>74</v>
       </c>
@@ -6281,10 +6281,10 @@
       <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="29" t="s">
         <v>74</v>
       </c>
@@ -6301,10 +6301,10 @@
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="29" t="s">
         <v>74</v>
       </c>
@@ -6321,10 +6321,10 @@
       <c r="B29" s="11">
         <v>11</v>
       </c>
-      <c r="C29" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="68"/>
+      <c r="C29" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="64"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
@@ -6337,10 +6337,10 @@
       <c r="B30" s="11">
         <v>12</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
@@ -6353,22 +6353,22 @@
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6393,10 +6393,10 @@
       <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
@@ -6424,10 +6424,10 @@
       <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
@@ -6452,10 +6452,10 @@
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
@@ -6483,10 +6483,10 @@
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="63"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
@@ -6511,10 +6511,10 @@
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="68"/>
+      <c r="C38" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="64"/>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
@@ -6533,10 +6533,10 @@
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="63"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
@@ -6555,10 +6555,10 @@
       <c r="B40" s="11">
         <v>7</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="27" t="s">
         <v>146</v>
       </c>
@@ -6583,10 +6583,10 @@
       <c r="B41" s="11">
         <v>8</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="26" t="s">
         <v>238</v>
       </c>
@@ -6612,10 +6612,10 @@
       <c r="B42" s="11">
         <v>9</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="63"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="26" t="s">
         <v>239</v>
       </c>
@@ -6640,10 +6640,10 @@
       <c r="B43" s="11">
         <v>10</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="68"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
@@ -6664,10 +6664,10 @@
       <c r="B44" s="11">
         <v>11</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="68"/>
+      <c r="C44" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="64"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6686,10 +6686,10 @@
       <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="69"/>
+      <c r="D45" s="75"/>
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
@@ -6708,22 +6708,22 @@
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
     </row>
     <row r="48" spans="1:17" ht="18.75" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6756,10 +6756,10 @@
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="26" t="s">
         <v>231</v>
       </c>
@@ -6790,10 +6790,10 @@
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="26" t="s">
         <v>232</v>
       </c>
@@ -6824,10 +6824,10 @@
       <c r="B51" s="11">
         <v>3</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="68"/>
       <c r="E51" s="26" t="s">
         <v>235</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="63"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="26" t="s">
         <v>236</v>
       </c>
@@ -6892,10 +6892,10 @@
       <c r="B53" s="11">
         <v>5</v>
       </c>
-      <c r="C53" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="68"/>
+      <c r="C53" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="64"/>
       <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
@@ -6920,10 +6920,10 @@
       <c r="B54" s="11">
         <v>6</v>
       </c>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="63"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="4" t="s">
         <v>86</v>
       </c>
@@ -6948,10 +6948,10 @@
       <c r="B55" s="11">
         <v>7</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="26" t="s">
         <v>237</v>
       </c>
@@ -6982,10 +6982,10 @@
       <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="63"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="9" t="s">
         <v>74</v>
       </c>
@@ -7014,10 +7014,10 @@
       <c r="B57" s="11">
         <v>9</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="9" t="s">
         <v>74</v>
       </c>
@@ -7046,10 +7046,10 @@
       <c r="B58" s="11">
         <v>10</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="68"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="9" t="s">
         <v>74</v>
       </c>
@@ -7078,10 +7078,10 @@
       <c r="B59" s="11">
         <v>11</v>
       </c>
-      <c r="C59" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="68"/>
+      <c r="C59" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="64"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -7106,10 +7106,10 @@
       <c r="B60" s="11">
         <v>12</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="69"/>
+      <c r="D60" s="75"/>
       <c r="E60" s="4" t="s">
         <v>86</v>
       </c>
@@ -7140,12 +7140,12 @@
     </row>
     <row r="62" spans="1:17" ht="18.75" customHeight="1">
       <c r="A62" s="10"/>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="14"/>
@@ -7158,10 +7158,10 @@
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="66"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
@@ -7192,10 +7192,10 @@
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="68"/>
       <c r="E64" s="7" t="s">
         <v>147</v>
       </c>
@@ -7229,10 +7229,10 @@
       <c r="B65" s="11">
         <v>2</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="63"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="7" t="s">
         <v>148</v>
       </c>
@@ -7263,10 +7263,10 @@
       <c r="B66" s="11">
         <v>3</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="63"/>
+      <c r="D66" s="68"/>
       <c r="E66" s="7" t="s">
         <v>149</v>
       </c>
@@ -7300,10 +7300,10 @@
       <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="63"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="7" t="s">
         <v>150</v>
       </c>
@@ -7334,10 +7334,10 @@
       <c r="B68" s="11">
         <v>5</v>
       </c>
-      <c r="C68" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="68"/>
+      <c r="C68" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="64"/>
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
@@ -7362,10 +7362,10 @@
       <c r="B69" s="11">
         <v>6</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="63"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7390,10 +7390,10 @@
       <c r="B70" s="11">
         <v>7</v>
       </c>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="63"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="7" t="s">
         <v>151</v>
       </c>
@@ -7427,10 +7427,10 @@
       <c r="B71" s="11">
         <v>8</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="63"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="7" t="s">
         <v>152</v>
       </c>
@@ -7461,10 +7461,10 @@
       <c r="B72" s="11">
         <v>9</v>
       </c>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="63"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="9" t="s">
         <v>74</v>
       </c>
@@ -7488,10 +7488,10 @@
       <c r="B73" s="11">
         <v>10</v>
       </c>
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="68"/>
+      <c r="D73" s="64"/>
       <c r="E73" s="9" t="s">
         <v>74</v>
       </c>
@@ -7512,10 +7512,10 @@
       <c r="B74" s="11">
         <v>11</v>
       </c>
-      <c r="C74" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="68"/>
+      <c r="C74" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="64"/>
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
@@ -7534,10 +7534,10 @@
       <c r="B75" s="11">
         <v>12</v>
       </c>
-      <c r="C75" s="67" t="s">
+      <c r="C75" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="69"/>
+      <c r="D75" s="75"/>
       <c r="E75" s="4" t="s">
         <v>86</v>
       </c>
@@ -7552,12 +7552,12 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
       <c r="I77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>114</v>
@@ -7567,10 +7567,10 @@
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="66"/>
+      <c r="D78" s="74"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -7594,10 +7594,10 @@
       <c r="B79" s="11">
         <v>1</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="D79" s="63"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="8" t="s">
         <v>106</v>
       </c>
@@ -7615,10 +7615,10 @@
       <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="63"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
@@ -7638,10 +7638,10 @@
       <c r="B81" s="11">
         <v>3</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="63"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="8" t="s">
         <v>108</v>
       </c>
@@ -7661,10 +7661,10 @@
       <c r="B82" s="11">
         <v>4</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="63"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="8" t="s">
         <v>109</v>
       </c>
@@ -7682,10 +7682,10 @@
       <c r="B83" s="11">
         <v>5</v>
       </c>
-      <c r="C83" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="68"/>
+      <c r="C83" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="64"/>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
@@ -7703,10 +7703,10 @@
       <c r="B84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="62" t="s">
+      <c r="C84" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="63"/>
+      <c r="D84" s="68"/>
       <c r="E84" s="4" t="s">
         <v>68</v>
       </c>
@@ -7724,10 +7724,10 @@
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="63"/>
+      <c r="D85" s="68"/>
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
@@ -7745,10 +7745,10 @@
       <c r="B86" s="11">
         <v>8</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="63"/>
+      <c r="D86" s="68"/>
       <c r="E86" s="8" t="s">
         <v>111</v>
       </c>
@@ -7768,10 +7768,10 @@
       <c r="B87" s="11">
         <v>9</v>
       </c>
-      <c r="C87" s="62" t="s">
+      <c r="C87" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="D87" s="63"/>
+      <c r="D87" s="68"/>
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
@@ -7789,10 +7789,10 @@
       <c r="B88" s="11">
         <v>10</v>
       </c>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="68"/>
+      <c r="D88" s="64"/>
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
@@ -7806,10 +7806,10 @@
       <c r="B89" s="11">
         <v>11</v>
       </c>
-      <c r="C89" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="68"/>
+      <c r="C89" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="64"/>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7827,10 +7827,10 @@
       <c r="B90" s="11">
         <v>12</v>
       </c>
-      <c r="C90" s="67" t="s">
+      <c r="C90" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="69"/>
+      <c r="D90" s="75"/>
       <c r="E90" s="4" t="s">
         <v>68</v>
       </c>
@@ -7848,12 +7848,12 @@
       <c r="G91" s="41"/>
     </row>
     <row r="92" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
       <c r="G92" s="41"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
@@ -7867,10 +7867,10 @@
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="66"/>
+      <c r="D93" s="74"/>
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
@@ -7896,10 +7896,10 @@
       <c r="B94" s="11">
         <v>1</v>
       </c>
-      <c r="C94" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="68"/>
+      <c r="C94" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="64"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
@@ -7920,10 +7920,10 @@
       <c r="B95" s="11">
         <v>2</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="63"/>
+      <c r="D95" s="68"/>
       <c r="E95" s="25" t="s">
         <v>123</v>
       </c>
@@ -7950,10 +7950,10 @@
       <c r="B96" s="11">
         <v>3</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="C96" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="63"/>
+      <c r="D96" s="68"/>
       <c r="E96" s="25" t="s">
         <v>124</v>
       </c>
@@ -7978,10 +7978,10 @@
       <c r="B97" s="11">
         <v>4</v>
       </c>
-      <c r="C97" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="68"/>
+      <c r="C97" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="64"/>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
@@ -8002,10 +8002,10 @@
       <c r="B98" s="11">
         <v>5</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="68"/>
+      <c r="D98" s="64"/>
       <c r="E98" s="25" t="s">
         <v>125</v>
       </c>
@@ -8032,10 +8032,10 @@
       <c r="B99" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="63"/>
+      <c r="D99" s="68"/>
       <c r="E99" s="25" t="s">
         <v>126</v>
       </c>
@@ -8060,10 +8060,10 @@
       <c r="B100" s="11">
         <v>7</v>
       </c>
-      <c r="C100" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="68"/>
+      <c r="C100" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="64"/>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
@@ -8084,10 +8084,10 @@
       <c r="B101" s="11">
         <v>8</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C101" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="63"/>
+      <c r="D101" s="68"/>
       <c r="E101" s="25" t="s">
         <v>120</v>
       </c>
@@ -8114,10 +8114,10 @@
       <c r="B102" s="11">
         <v>9</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C102" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="63"/>
+      <c r="D102" s="68"/>
       <c r="E102" s="25" t="s">
         <v>121</v>
       </c>
@@ -8142,10 +8142,10 @@
       <c r="B103" s="11">
         <v>10</v>
       </c>
-      <c r="C103" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="68"/>
+      <c r="C103" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="64"/>
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
@@ -8166,10 +8166,10 @@
       <c r="B104" s="11">
         <v>11</v>
       </c>
-      <c r="C104" s="67" t="s">
+      <c r="C104" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="68"/>
+      <c r="D104" s="64"/>
       <c r="E104" s="28" t="s">
         <v>127</v>
       </c>
@@ -8199,10 +8199,10 @@
       <c r="B105" s="11">
         <v>12</v>
       </c>
-      <c r="C105" s="67" t="s">
+      <c r="C105" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="69"/>
+      <c r="D105" s="75"/>
       <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
@@ -8228,10 +8228,10 @@
       <c r="B106" s="11">
         <v>13</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="68"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="8" t="s">
         <v>128</v>
       </c>
@@ -8258,10 +8258,10 @@
       <c r="B107" s="11">
         <v>14</v>
       </c>
-      <c r="C107" s="67" t="s">
+      <c r="C107" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="68"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="8" t="s">
         <v>129</v>
       </c>
@@ -8286,10 +8286,10 @@
       <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="69"/>
+      <c r="D108" s="75"/>
       <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
@@ -8305,6 +8305,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8329,89 +8412,6 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8503,12 +8503,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="2"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8542,10 +8542,10 @@
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="84"/>
+      <c r="C8" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="87"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8562,10 +8562,10 @@
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8582,10 +8582,10 @@
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
@@ -8602,10 +8602,10 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
@@ -9046,12 +9046,12 @@
     <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -9089,10 +9089,10 @@
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="84"/>
+      <c r="D7" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="87"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -9111,10 +9111,10 @@
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
@@ -9133,10 +9133,10 @@
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="7" t="s">
         <v>151</v>
       </c>
@@ -9155,10 +9155,10 @@
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
@@ -9723,12 +9723,12 @@
     </row>
     <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9762,10 +9762,10 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="84"/>
+      <c r="D8" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="87"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9782,10 +9782,10 @@
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
@@ -9802,10 +9802,10 @@
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="26" t="s">
         <v>153</v>
       </c>
@@ -9822,10 +9822,10 @@
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="26" t="s">
         <v>154</v>
       </c>
@@ -9990,12 +9990,12 @@
     <row r="6" spans="2:16" ht="15.75">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10035,10 +10035,10 @@
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="85"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
@@ -10058,10 +10058,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
@@ -10081,10 +10081,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
@@ -10104,10 +10104,10 @@
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
@@ -10127,10 +10127,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
@@ -10150,10 +10150,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
@@ -10173,10 +10173,10 @@
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
@@ -10196,10 +10196,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="84"/>
+      <c r="E15" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="87"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10219,10 +10219,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="84"/>
+      <c r="E16" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="87"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -10242,10 +10242,10 @@
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
@@ -10265,10 +10265,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="7" t="s">
         <v>147</v>
       </c>
@@ -10288,10 +10288,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="7" t="s">
         <v>148</v>
       </c>
@@ -10311,10 +10311,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
@@ -10334,10 +10334,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
@@ -10357,10 +10357,10 @@
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -10382,10 +10382,10 @@
       <c r="D23" s="11">
         <v>16</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10571,13 +10571,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10588,6 +10581,13 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10710,12 +10710,12 @@
     <row r="9" spans="2:19" ht="15.75">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10761,10 +10761,10 @@
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
@@ -10789,10 +10789,10 @@
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="8" t="s">
         <v>107</v>
       </c>
@@ -10817,10 +10817,10 @@
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
@@ -10845,10 +10845,10 @@
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="85"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -10873,10 +10873,10 @@
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="84"/>
+      <c r="E15" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="87"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10899,10 +10899,10 @@
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -10925,10 +10925,10 @@
       <c r="D17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="8" t="s">
         <v>110</v>
       </c>
@@ -10953,10 +10953,10 @@
       <c r="D18" s="11">
         <v>8</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="8" t="s">
         <v>111</v>
       </c>
@@ -10981,10 +10981,10 @@
       <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="8" t="s">
         <v>112</v>
       </c>
@@ -11009,10 +11009,10 @@
       <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="8" t="s">
         <v>113</v>
       </c>
@@ -11037,10 +11037,10 @@
       <c r="D21" s="11">
         <v>11</v>
       </c>
-      <c r="E21" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="84"/>
+      <c r="E21" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="87"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -11063,10 +11063,10 @@
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
@@ -11401,13 +11401,13 @@
     </row>
     <row r="6" spans="2:13" ht="15.75">
       <c r="B6" s="2"/>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -11423,10 +11423,10 @@
       <c r="D7" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="89"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
@@ -11445,10 +11445,10 @@
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="85"/>
+      <c r="E8" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="88"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -11467,10 +11467,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="25" t="s">
         <v>123</v>
       </c>
@@ -11491,10 +11491,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
@@ -11513,10 +11513,10 @@
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="85"/>
+      <c r="E11" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="88"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -11535,10 +11535,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="85"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
@@ -11559,10 +11559,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="25" t="s">
         <v>126</v>
       </c>
@@ -11581,10 +11581,10 @@
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="85"/>
+      <c r="E14" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="88"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -11603,10 +11603,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="25" t="s">
         <v>120</v>
       </c>
@@ -11627,10 +11627,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="25" t="s">
         <v>121</v>
       </c>
@@ -11649,10 +11649,10 @@
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="85"/>
+      <c r="E17" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="88"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -11671,10 +11671,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
@@ -11695,10 +11695,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
@@ -11719,10 +11719,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="8" t="s">
         <v>128</v>
       </c>
@@ -11743,10 +11743,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="8" t="s">
         <v>129</v>
       </c>
@@ -11765,10 +11765,10 @@
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -11823,6 +11823,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11830,16 +11840,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GestionDeProjet/PinsInOut.xlsx
+++ b/GestionDeProjet/PinsInOut.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC47B13-2CE2-468B-BB7B-C544CCD74E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synoptique" sheetId="8" r:id="rId1"/>
@@ -19,8 +25,8 @@
     <sheet name="Feuil2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -777,21 +783,6 @@
     <t>ANALOG</t>
   </si>
   <si>
-    <t>.+5V_IMU</t>
-  </si>
-  <si>
-    <t>.+3V3_NFC</t>
-  </si>
-  <si>
-    <t>.+3V3</t>
-  </si>
-  <si>
-    <t>.+5V_US</t>
-  </si>
-  <si>
-    <t>.+5V_GSM</t>
-  </si>
-  <si>
     <t>PWR_MGT_GSM</t>
   </si>
   <si>
@@ -808,13 +799,28 @@
   </si>
   <si>
     <t>PWR_MGT_NFC</t>
+  </si>
+  <si>
+    <t>+5V_GSM</t>
+  </si>
+  <si>
+    <t>+3V3</t>
+  </si>
+  <si>
+    <t>+5V_US</t>
+  </si>
+  <si>
+    <t>+5V_IMU</t>
+  </si>
+  <si>
+    <t>+3V3_NFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,9 +1345,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1381,25 +1384,10 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1409,6 +1397,21 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1461,6 +1464,9 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="7" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent1" xfId="3" builtinId="30"/>
@@ -1516,7 +1522,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1566,7 +1578,7 @@
         <xdr:cNvPr id="2" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C28B1A-1869-4506-B507-34D0DF3951C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1631,7 @@
         <xdr:cNvPr id="2" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B24754D-1211-4181-82C3-CAB51C4F7D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1684,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="Module de détection US HC-SR04">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4B810C-5C92-421C-BA9C-83758C526E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1696,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1702,7 +1714,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1731,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Image 1" descr="NFC Tag 2 Click">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51F7558-7126-4C02-8979-37C6DD6D7B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1755,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1761,7 +1773,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1790,7 +1802,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9CB3-CCDD-4AF5-A19C-2C9FAD8F6961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1841,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC03FB-9CDA-4BA2-A72D-2D6858C4AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1885,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47511A62-7B8F-4259-A3BB-568696C241C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,21 +2175,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Integral" id="{3577F8C9-A904-41D8-97D2-FD898F53F20E}" vid="{682D6EBE-8D36-4FF2-9DB3-F3D8D7B6715D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U99" sqref="U99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2185,36 +2197,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -2234,14 +2246,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="29" t="s">
         <v>74</v>
       </c>
@@ -2251,14 +2263,14 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="29" t="s">
         <v>74</v>
       </c>
@@ -2268,14 +2280,14 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
@@ -2285,14 +2297,14 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="29" t="s">
         <v>74</v>
       </c>
@@ -2302,14 +2314,14 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="64"/>
+      <c r="B7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="61"/>
       <c r="D7" s="30" t="s">
         <v>3</v>
       </c>
@@ -2319,14 +2331,14 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="31" t="s">
         <v>86</v>
       </c>
@@ -2336,14 +2348,14 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2353,14 +2365,14 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29" t="s">
         <v>74</v>
       </c>
@@ -2370,14 +2382,14 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="29" t="s">
         <v>74</v>
       </c>
@@ -2387,14 +2399,14 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="29" t="s">
         <v>74</v>
       </c>
@@ -2404,14 +2416,14 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="64"/>
+      <c r="B13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="61"/>
       <c r="D13" s="30" t="s">
         <v>3</v>
       </c>
@@ -2421,14 +2433,14 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="31" t="s">
         <v>86</v>
       </c>
@@ -2438,7 +2450,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2449,27 +2461,27 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="5" t="s">
         <v>155</v>
       </c>
@@ -2489,14 +2501,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
@@ -2506,14 +2518,14 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>2</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="68"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="9" t="s">
         <v>74</v>
       </c>
@@ -2523,14 +2535,14 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
@@ -2540,14 +2552,14 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
@@ -2557,14 +2569,14 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>5</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="64"/>
+      <c r="B22" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="61"/>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,14 +2586,14 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2591,14 +2603,14 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
@@ -2608,14 +2620,14 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>8</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
@@ -2625,14 +2637,14 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
@@ -2642,14 +2654,14 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>10</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
@@ -2659,14 +2671,14 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>11</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="64"/>
+      <c r="B28" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="61"/>
       <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,14 +2688,14 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2693,13 +2705,13 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="72" t="s">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2707,14 +2719,14 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
         <v>155</v>
       </c>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="68"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="8" t="s">
         <v>106</v>
       </c>
@@ -2753,14 +2765,14 @@
       <c r="I33" s="32"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="8" t="s">
         <v>107</v>
       </c>
@@ -2771,14 +2783,14 @@
       <c r="I34" s="32"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="8" t="s">
         <v>108</v>
       </c>
@@ -2789,14 +2801,14 @@
       <c r="I35" s="32"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>4</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="68"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="8" t="s">
         <v>109</v>
       </c>
@@ -2807,14 +2819,14 @@
       <c r="I36" s="32"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>5</v>
       </c>
-      <c r="B37" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="64"/>
+      <c r="B37" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="61"/>
       <c r="D37" s="3" t="s">
         <v>3</v>
       </c>
@@ -2825,14 +2837,14 @@
       <c r="I37" s="32"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>6</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="68"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
@@ -2843,14 +2855,14 @@
       <c r="I38" s="32"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>7</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="8" t="s">
         <v>110</v>
       </c>
@@ -2861,14 +2873,14 @@
       <c r="I39" s="32"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>8</v>
       </c>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="8" t="s">
         <v>111</v>
       </c>
@@ -2879,14 +2891,14 @@
       <c r="I40" s="32"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>9</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="8" t="s">
         <v>112</v>
       </c>
@@ -2897,14 +2909,14 @@
       <c r="I41" s="32"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>10</v>
       </c>
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="64"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="8" t="s">
         <v>113</v>
       </c>
@@ -2915,14 +2927,14 @@
       <c r="I42" s="32"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>11</v>
       </c>
-      <c r="B43" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="64"/>
+      <c r="B43" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="61"/>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,14 +2945,14 @@
       <c r="I43" s="32"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>12</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
@@ -2951,7 +2963,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2963,13 +2975,13 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="72" t="s">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2977,14 +2989,14 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="74"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="5" t="s">
         <v>155</v>
       </c>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1</v>
       </c>
-      <c r="B48" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="64"/>
+      <c r="B48" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="61"/>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,14 +3037,14 @@
       <c r="I48" s="32"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="68"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="25" t="s">
         <v>123</v>
       </c>
@@ -3045,14 +3057,14 @@
       <c r="I49" s="32"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>3</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="25" t="s">
         <v>124</v>
       </c>
@@ -3065,14 +3077,14 @@
       <c r="I50" s="32"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="64"/>
+      <c r="B51" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="61"/>
       <c r="D51" s="3" t="s">
         <v>3</v>
       </c>
@@ -3085,14 +3097,14 @@
       <c r="I51" s="32"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>5</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="64"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="25" t="s">
         <v>125</v>
       </c>
@@ -3105,14 +3117,14 @@
       <c r="I52" s="32"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>6</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="68"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="25" t="s">
         <v>126</v>
       </c>
@@ -3125,14 +3137,14 @@
       <c r="I53" s="32"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>7</v>
       </c>
-      <c r="B54" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="64"/>
+      <c r="B54" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="61"/>
       <c r="D54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3145,14 +3157,14 @@
       <c r="I54" s="32"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>8</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="25" t="s">
         <v>120</v>
       </c>
@@ -3165,14 +3177,14 @@
       <c r="I55" s="32"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>9</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="68"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="25" t="s">
         <v>121</v>
       </c>
@@ -3185,14 +3197,14 @@
       <c r="I56" s="32"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="64"/>
+      <c r="B57" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="61"/>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,14 +3217,14 @@
       <c r="I57" s="32"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="64"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="28" t="s">
         <v>127</v>
       </c>
@@ -3223,14 +3235,14 @@
       <c r="I58" s="32"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>12</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="9" t="s">
         <v>74</v>
       </c>
@@ -3241,14 +3253,14 @@
       <c r="I59" s="32"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="64"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="34" t="s">
         <v>128</v>
       </c>
@@ -3261,14 +3273,14 @@
       <c r="I60" s="32"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>14</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="64"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="34" t="s">
         <v>129</v>
       </c>
@@ -3281,14 +3293,14 @@
       <c r="I61" s="32"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>15</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="75"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="31" t="s">
         <v>7</v>
       </c>
@@ -3301,7 +3313,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3315,30 +3327,25 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
@@ -3355,39 +3362,44 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11" style="2"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
@@ -3406,28 +3418,28 @@
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="K1" s="72" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="K1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3449,10 +3461,10 @@
       <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="5" t="s">
         <v>155</v>
       </c>
@@ -3472,12 +3484,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3497,10 +3509,10 @@
       <c r="K3" s="11">
         <v>1</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="68"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="7" t="s">
         <v>163</v>
       </c>
@@ -3520,12 +3532,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="7"/>
       <c r="E4" s="9" t="s">
         <v>74</v>
@@ -3537,10 +3549,10 @@
       <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="68"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="7" t="s">
         <v>162</v>
       </c>
@@ -3560,12 +3572,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="7" t="s">
         <v>162</v>
       </c>
@@ -3585,10 +3597,10 @@
       <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="68"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="7" t="s">
         <v>165</v>
       </c>
@@ -3608,12 +3620,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="7"/>
       <c r="E6" s="9" t="s">
         <v>74</v>
@@ -3625,10 +3637,10 @@
       <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="68"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="7" t="s">
         <v>164</v>
       </c>
@@ -3648,13 +3660,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -3669,10 +3681,10 @@
       <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="L7" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="64"/>
+      <c r="L7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="61"/>
       <c r="N7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3686,12 +3698,12 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="7"/>
       <c r="E8" s="9" t="s">
         <v>74</v>
@@ -3703,10 +3715,10 @@
       <c r="K8" s="11">
         <v>6</v>
       </c>
-      <c r="L8" s="67" t="s">
+      <c r="L8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="68"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="4" t="s">
         <v>86</v>
       </c>
@@ -3720,13 +3732,13 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3741,10 +3753,10 @@
       <c r="K9" s="11">
         <v>7</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="68"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="27" t="s">
         <v>168</v>
       </c>
@@ -3764,12 +3776,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="7"/>
       <c r="E10" s="9" t="s">
         <v>74</v>
@@ -3781,10 +3793,10 @@
       <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="68"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="26" t="s">
         <v>238</v>
       </c>
@@ -3804,12 +3816,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="7"/>
       <c r="E11" s="9" t="s">
         <v>74</v>
@@ -3821,10 +3833,10 @@
       <c r="K11" s="11">
         <v>9</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="68"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="26" t="s">
         <v>239</v>
       </c>
@@ -3844,13 +3856,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -3865,10 +3877,10 @@
       <c r="K12" s="11">
         <v>10</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="64"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="9" t="s">
         <v>74</v>
       </c>
@@ -3882,12 +3894,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
         <v>74</v>
@@ -3899,10 +3911,10 @@
       <c r="K13" s="11">
         <v>11</v>
       </c>
-      <c r="L13" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="64"/>
+      <c r="L13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="61"/>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3916,13 +3928,13 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E14" s="9" t="s">
@@ -3937,10 +3949,10 @@
       <c r="K14" s="11">
         <v>12</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="4" t="s">
         <v>86</v>
       </c>
@@ -3951,16 +3963,16 @@
       <c r="Q14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -3973,12 +3985,12 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="7" t="s">
         <v>181</v>
       </c>
@@ -3995,20 +4007,20 @@
       <c r="I16" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="39" t="s">
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E17" s="9" t="s">
@@ -4023,10 +4035,10 @@
       <c r="K17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="73" t="s">
+      <c r="L17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="74"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="5" t="s">
         <v>2</v>
       </c>
@@ -4046,12 +4058,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="7" t="s">
         <v>182</v>
       </c>
@@ -4071,10 +4083,10 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="L18" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="68"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="26" t="s">
         <v>240</v>
       </c>
@@ -4094,12 +4106,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="7"/>
       <c r="E19" s="9" t="s">
         <v>74</v>
@@ -4111,10 +4123,10 @@
       <c r="K19" s="11">
         <v>2</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="68"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="26" t="s">
         <v>241</v>
       </c>
@@ -4134,13 +4146,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -4155,12 +4167,12 @@
       <c r="K20" s="11">
         <v>3</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="L20" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="68"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>235</v>
@@ -4178,12 +4190,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
         <v>74</v>
@@ -4195,12 +4207,12 @@
       <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="68"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>236</v>
@@ -4218,13 +4230,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -4239,10 +4251,10 @@
       <c r="K22" s="11">
         <v>5</v>
       </c>
-      <c r="L22" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="64"/>
+      <c r="L22" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="61"/>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -4256,14 +4268,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K23" s="11">
         <v>6</v>
       </c>
-      <c r="L23" s="67" t="s">
+      <c r="L23" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="68"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="4" t="s">
         <v>86</v>
       </c>
@@ -4277,22 +4289,22 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="K24" s="11">
         <v>7</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="L24" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="68"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="26" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O24" s="26" t="s">
         <v>237</v>
@@ -4310,14 +4322,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="5" t="s">
         <v>155</v>
       </c>
@@ -4339,15 +4351,15 @@
       <c r="K25" s="11">
         <v>8</v>
       </c>
-      <c r="L25" s="67" t="s">
+      <c r="L25" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="68"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32" t="s">
@@ -4360,14 +4372,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="36" t="s">
-        <v>253</v>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="90" t="s">
+        <v>255</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>74</v>
@@ -4381,15 +4393,15 @@
       <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="68"/>
+      <c r="M26" s="63"/>
       <c r="N26" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32" t="s">
@@ -4402,13 +4414,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="36" t="s">
         <v>184</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -4423,15 +4435,15 @@
       <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="M27" s="64"/>
+      <c r="M27" s="61"/>
       <c r="N27" s="26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="32" t="s">
@@ -4444,14 +4456,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="35" t="s">
-        <v>251</v>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="91" t="s">
+        <v>256</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>74</v>
@@ -4465,10 +4477,10 @@
       <c r="K28" s="11">
         <v>11</v>
       </c>
-      <c r="L28" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" s="64"/>
+      <c r="L28" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="61"/>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
@@ -4482,12 +4494,12 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>4</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="7" t="s">
         <v>165</v>
       </c>
@@ -4507,10 +4519,10 @@
       <c r="K29" s="11">
         <v>12</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="L29" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="75"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="4" t="s">
         <v>86</v>
       </c>
@@ -4521,15 +4533,15 @@
       <c r="Q29" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>5</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="7" t="s">
         <v>164</v>
       </c>
@@ -4547,12 +4559,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>6</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="7" t="s">
         <v>185</v>
       </c>
@@ -4565,19 +4577,19 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>7</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="7" t="s">
         <v>168</v>
       </c>
@@ -4597,10 +4609,10 @@
       <c r="K32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="73" t="s">
+      <c r="L32" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="74"/>
+      <c r="M32" s="66"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -4620,14 +4632,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K33" s="11">
         <v>1</v>
       </c>
-      <c r="L33" s="67" t="s">
+      <c r="L33" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="M33" s="68"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="7" t="s">
         <v>169</v>
       </c>
@@ -4647,20 +4659,20 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="72" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="K34" s="11">
         <v>2</v>
       </c>
-      <c r="L34" s="67" t="s">
+      <c r="L34" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="68"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="7" t="s">
         <v>170</v>
       </c>
@@ -4680,14 +4692,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5" t="s">
         <v>155</v>
       </c>
@@ -4709,10 +4721,10 @@
       <c r="K35" s="11">
         <v>3</v>
       </c>
-      <c r="L35" s="67" t="s">
+      <c r="L35" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="68"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="7" t="s">
         <v>171</v>
       </c>
@@ -4732,14 +4744,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="37" t="s">
-        <v>252</v>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="92" t="s">
+        <v>257</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>74</v>
@@ -4753,10 +4765,10 @@
       <c r="K36" s="11">
         <v>4</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="L36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="68"/>
+      <c r="M36" s="63"/>
       <c r="N36" s="7" t="s">
         <v>172</v>
       </c>
@@ -4776,12 +4788,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="26" t="s">
         <v>196</v>
       </c>
@@ -4801,10 +4813,10 @@
       <c r="K37" s="11">
         <v>5</v>
       </c>
-      <c r="L37" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="64"/>
+      <c r="L37" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="61"/>
       <c r="N37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4818,12 +4830,12 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>3</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="26" t="s">
         <v>195</v>
       </c>
@@ -4843,10 +4855,10 @@
       <c r="K38" s="11">
         <v>6</v>
       </c>
-      <c r="L38" s="67" t="s">
+      <c r="L38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="68"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="4" t="s">
         <v>86</v>
       </c>
@@ -4860,13 +4872,13 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>4</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="38" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="35" t="s">
         <v>187</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -4881,10 +4893,10 @@
       <c r="K39" s="11">
         <v>7</v>
       </c>
-      <c r="L39" s="67" t="s">
+      <c r="L39" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="68"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="7" t="s">
         <v>174</v>
       </c>
@@ -4904,14 +4916,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K40" s="11">
         <v>8</v>
       </c>
-      <c r="L40" s="67" t="s">
+      <c r="L40" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="68"/>
+      <c r="M40" s="63"/>
       <c r="N40" s="7" t="s">
         <v>175</v>
       </c>
@@ -4931,20 +4943,20 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="72" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
       <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="67" t="s">
+      <c r="L41" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="M41" s="68"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="9" t="s">
         <v>74</v>
       </c>
@@ -4960,14 +4972,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="5" t="s">
         <v>155</v>
       </c>
@@ -4989,10 +5001,10 @@
       <c r="K42" s="11">
         <v>10</v>
       </c>
-      <c r="L42" s="63" t="s">
+      <c r="L42" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="64"/>
+      <c r="M42" s="61"/>
       <c r="N42" s="9" t="s">
         <v>74</v>
       </c>
@@ -5008,14 +5020,14 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="35" t="s">
-        <v>250</v>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="91" t="s">
+        <v>259</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>74</v>
@@ -5029,10 +5041,10 @@
       <c r="K43" s="11">
         <v>11</v>
       </c>
-      <c r="L43" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="64"/>
+      <c r="L43" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="61"/>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -5046,13 +5058,13 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="39" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -5067,10 +5079,10 @@
       <c r="K44" s="11">
         <v>12</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="75"/>
+      <c r="M44" s="67"/>
       <c r="N44" s="4" t="s">
         <v>86</v>
       </c>
@@ -5084,12 +5096,12 @@
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>3</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="7" t="s">
         <v>189</v>
       </c>
@@ -5107,12 +5119,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>4</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="7" t="s">
         <v>169</v>
       </c>
@@ -5129,19 +5141,19 @@
       <c r="I46" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="K46" s="72" t="s">
+      <c r="K46" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>5</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="7" t="s">
         <v>170</v>
       </c>
@@ -5161,10 +5173,10 @@
       <c r="K47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="73" t="s">
+      <c r="L47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="M47" s="74"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="5" t="s">
         <v>155</v>
       </c>
@@ -5184,13 +5196,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>6</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="39" t="s">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="36" t="s">
         <v>188</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -5205,8 +5217,8 @@
       <c r="K48" s="11">
         <v>1</v>
       </c>
-      <c r="L48" s="67"/>
-      <c r="M48" s="68"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
       <c r="N48" s="7" t="s">
         <v>179</v>
       </c>
@@ -5222,12 +5234,12 @@
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K49" s="11">
         <v>2</v>
       </c>
-      <c r="L49" s="67"/>
-      <c r="M49" s="68"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="63"/>
       <c r="N49" s="7" t="s">
         <v>180</v>
       </c>
@@ -5243,22 +5255,22 @@
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="72" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="73" t="s">
+      <c r="B51" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="74"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="5" t="s">
         <v>155</v>
       </c>
@@ -5278,13 +5290,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>1</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="39" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="36" t="s">
         <v>191</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -5297,14 +5309,14 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>2</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="36" t="s">
-        <v>249</v>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="90" t="s">
+        <v>258</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>74</v>
@@ -5316,12 +5328,12 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>3</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="7" t="s">
         <v>171</v>
       </c>
@@ -5339,12 +5351,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>4</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="68"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="7" t="s">
         <v>172</v>
       </c>
@@ -5362,22 +5374,22 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="69" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="66"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="5" t="s">
         <v>155</v>
       </c>
@@ -5397,14 +5409,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>1</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="35" t="s">
-        <v>251</v>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="91" t="s">
+        <v>256</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>74</v>
@@ -5416,13 +5428,13 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>2</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="39" t="s">
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -5435,12 +5447,12 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>3</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="7" t="s">
         <v>174</v>
       </c>
@@ -5458,12 +5470,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>4</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="7" t="s">
         <v>175</v>
       </c>
@@ -5481,22 +5493,22 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="69" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="71"/>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="69"/>
       <c r="D65" s="5" t="s">
         <v>155</v>
       </c>
@@ -5516,13 +5528,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>1</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="62" t="s">
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="59" t="s">
         <v>246</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -5539,13 +5551,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>2</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="62" t="s">
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="59" t="s">
         <v>247</v>
       </c>
       <c r="E67" s="9" t="s">
@@ -5564,89 +5576,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B58:C58"/>
@@ -5671,6 +5600,89 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="K46:N46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5678,14 +5690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11" style="2"/>
@@ -5706,11 +5718,11 @@
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
-      <c r="N1" s="53"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+    <row r="1" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="50"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="22"/>
       <c r="S1" s="21" t="s">
         <v>131</v>
@@ -5724,204 +5736,204 @@
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="56"/>
-    </row>
-    <row r="2" spans="2:32" ht="18.75" customHeight="1">
-      <c r="B2" s="72" t="s">
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="53"/>
+    </row>
+    <row r="2" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="N2" s="57"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
-      <c r="AF2" s="58"/>
-    </row>
-    <row r="3" spans="2:32" ht="18.75" customHeight="1">
+      <c r="AF2" s="55"/>
+    </row>
+    <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>210</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N3" s="57"/>
+      <c r="N3" s="54"/>
       <c r="O3" s="16" t="s">
         <v>229</v>
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="40" t="s">
+      <c r="R3" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="85" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
       <c r="X3" s="16"/>
-      <c r="Y3" s="40" t="s">
+      <c r="Y3" s="37" t="s">
         <v>134</v>
       </c>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40" t="s">
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AC3" s="40"/>
+      <c r="AC3" s="37"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="AF3" s="58"/>
-    </row>
-    <row r="4" spans="2:32" ht="18.75" customHeight="1">
+      <c r="AF3" s="55"/>
+    </row>
+    <row r="4" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="45" t="s">
+      <c r="N4" s="54"/>
+      <c r="O4" s="42" t="s">
         <v>74</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="R4" s="80"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="82" t="s">
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="81"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="47" t="s">
         <v>138</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="75"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF4" s="58"/>
-    </row>
-    <row r="5" spans="2:32" ht="18.75" customHeight="1">
+      <c r="AF4" s="55"/>
+    </row>
+    <row r="5" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="N5" s="57"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="79" t="s">
+      <c r="Q5" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="82" t="s">
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="V5" s="83"/>
-      <c r="W5" s="84"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
       <c r="X5" s="16"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
-      <c r="AF5" s="58"/>
-    </row>
-    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1">
+      <c r="AF5" s="55"/>
+    </row>
+    <row r="6" spans="2:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
@@ -5933,442 +5945,442 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="24"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="60"/>
-    </row>
-    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1">
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="57"/>
+    </row>
+    <row r="7" spans="2:32" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18.75" customHeight="1">
+    <row r="8" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="64"/>
+      <c r="C8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="61"/>
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="47"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:32" ht="18.75" customHeight="1">
+    <row r="9" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="68"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="47"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:32" ht="18.75" customHeight="1">
+    <row r="10" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="18.75" customHeight="1">
+    <row r="11" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="32"/>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="18.75" customHeight="1">
+    <row r="12" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="68"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="32"/>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="18.75" customHeight="1">
+    <row r="13" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="32"/>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="44" t="s">
         <v>209</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="18.75" customHeight="1">
+    <row r="14" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="64"/>
+      <c r="C14" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="61"/>
       <c r="E14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="32"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:32" ht="18.75" customHeight="1">
+    <row r="15" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G15" s="44"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="40" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="43" t="s">
         <v>210</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11">
         <v>1</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="32"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="64"/>
+      <c r="C23" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="61"/>
       <c r="E23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="47"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="47"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="11">
         <v>7</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <v>8</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="68"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="11">
         <v>9</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="11">
         <v>10</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="64"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="29" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="44" t="s">
         <v>221</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="11">
         <v>11</v>
       </c>
-      <c r="C29" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="64"/>
+      <c r="C29" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="61"/>
       <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="32"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="11">
         <v>12</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G30" s="44"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-    </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6388,15 +6400,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="18.75" customHeight="1">
+    <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="7" t="s">
         <v>142</v>
       </c>
@@ -6419,15 +6431,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="18.75" customHeight="1">
+    <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
@@ -6447,15 +6459,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="18.75" customHeight="1">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11">
         <v>3</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="68"/>
+      <c r="D36" s="63"/>
       <c r="E36" s="7" t="s">
         <v>144</v>
       </c>
@@ -6478,15 +6490,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="18.75" customHeight="1">
+    <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="11">
         <v>4</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="68"/>
+      <c r="D37" s="63"/>
       <c r="E37" s="7" t="s">
         <v>145</v>
       </c>
@@ -6506,15 +6518,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="18.75" customHeight="1">
+    <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="11">
         <v>5</v>
       </c>
-      <c r="C38" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="64"/>
+      <c r="C38" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="61"/>
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
@@ -6528,15 +6540,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="18.75" customHeight="1">
+    <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="11">
         <v>6</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="68"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="4" t="s">
         <v>86</v>
       </c>
@@ -6550,15 +6562,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="18.75" customHeight="1">
+    <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11">
         <v>7</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="27" t="s">
         <v>146</v>
       </c>
@@ -6578,15 +6590,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="18.75" customHeight="1">
+    <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="11">
         <v>8</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="68"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="26" t="s">
         <v>238</v>
       </c>
@@ -6607,15 +6619,15 @@
       </c>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="18.75" customHeight="1">
+    <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11">
         <v>9</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="68"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="26" t="s">
         <v>239</v>
       </c>
@@ -6635,15 +6647,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="18.75" customHeight="1">
+    <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="11">
         <v>10</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="9" t="s">
         <v>74</v>
       </c>
@@ -6659,15 +6671,15 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:17" ht="18.75" customHeight="1">
+    <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="11">
         <v>11</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="64"/>
+      <c r="C44" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="61"/>
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6681,49 +6693,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="18.75" customHeight="1">
+    <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="11">
         <v>12</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="75"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="18.75" customHeight="1">
+    <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:17" ht="18.75" customHeight="1">
+    <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-    </row>
-    <row r="48" spans="1:17" ht="18.75" customHeight="1">
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="74"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
@@ -6744,22 +6756,22 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="N48" s="61" t="s">
+      <c r="N48" s="58" t="s">
         <v>65</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" ht="18.75" customHeight="1">
+    <row r="49" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="11">
         <v>1</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="68"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="26" t="s">
         <v>231</v>
       </c>
@@ -6785,15 +6797,15 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" ht="18.75" customHeight="1">
+    <row r="50" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="68"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="26" t="s">
         <v>232</v>
       </c>
@@ -6819,15 +6831,15 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" ht="18.75" customHeight="1">
+    <row r="51" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="11">
         <v>3</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="68"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="26" t="s">
         <v>235</v>
       </c>
@@ -6853,15 +6865,15 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" ht="18.75" customHeight="1">
+    <row r="52" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="68"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="26" t="s">
         <v>236</v>
       </c>
@@ -6887,15 +6899,15 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" ht="18.75" customHeight="1">
+    <row r="53" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>5</v>
       </c>
-      <c r="C53" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="64"/>
+      <c r="C53" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="61"/>
       <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
@@ -6915,15 +6927,15 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" ht="18.75" customHeight="1">
+    <row r="54" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="11">
         <v>6</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="68"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="4" t="s">
         <v>86</v>
       </c>
@@ -6943,15 +6955,15 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" ht="18.75" customHeight="1">
+    <row r="55" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="11">
         <v>7</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="68"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="26" t="s">
         <v>237</v>
       </c>
@@ -6977,20 +6989,20 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" ht="18.75" customHeight="1">
+    <row r="56" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="11">
         <v>8</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>74</v>
+      <c r="D56" s="63"/>
+      <c r="E56" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>253</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>211</v>
@@ -7009,20 +7021,20 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" ht="18.75" customHeight="1">
+    <row r="57" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="11">
         <v>9</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>74</v>
+      <c r="D57" s="63"/>
+      <c r="E57" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>249</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>211</v>
@@ -7041,20 +7053,20 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1">
+    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="11">
         <v>10</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>74</v>
+      <c r="D58" s="61"/>
+      <c r="E58" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>211</v>
@@ -7073,15 +7085,15 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="6"/>
     </row>
-    <row r="59" spans="1:17" ht="18.75" customHeight="1">
+    <row r="59" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="11">
         <v>11</v>
       </c>
-      <c r="C59" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="64"/>
+      <c r="C59" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="61"/>
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
@@ -7101,23 +7113,23 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="6"/>
     </row>
-    <row r="60" spans="1:17" ht="18.75" customHeight="1">
+    <row r="60" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="11">
         <v>12</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="75"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
         <v>9</v>
@@ -7129,7 +7141,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="6"/>
     </row>
-    <row r="61" spans="1:17" ht="18.75" customHeight="1">
+    <row r="61" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -7138,14 +7150,14 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="6"/>
     </row>
-    <row r="62" spans="1:17" ht="18.75" customHeight="1">
+    <row r="62" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="14"/>
@@ -7153,15 +7165,15 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="6"/>
     </row>
-    <row r="63" spans="1:17" ht="18.75" customHeight="1">
+    <row r="63" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="74"/>
+      <c r="D63" s="66"/>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
@@ -7187,15 +7199,15 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="6"/>
     </row>
-    <row r="64" spans="1:17" ht="18.75" customHeight="1">
+    <row r="64" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>1</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="68"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="7" t="s">
         <v>147</v>
       </c>
@@ -7224,15 +7236,15 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="6"/>
     </row>
-    <row r="65" spans="1:17" ht="18.75" customHeight="1">
+    <row r="65" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="11">
         <v>2</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="68"/>
+      <c r="D65" s="63"/>
       <c r="E65" s="7" t="s">
         <v>148</v>
       </c>
@@ -7258,15 +7270,15 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="6"/>
     </row>
-    <row r="66" spans="1:17" ht="18.75" customHeight="1">
+    <row r="66" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="11">
         <v>3</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="68"/>
+      <c r="D66" s="63"/>
       <c r="E66" s="7" t="s">
         <v>149</v>
       </c>
@@ -7295,15 +7307,15 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="6"/>
     </row>
-    <row r="67" spans="1:17" ht="18.75" customHeight="1">
+    <row r="67" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="68"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="7" t="s">
         <v>150</v>
       </c>
@@ -7329,15 +7341,15 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="6"/>
     </row>
-    <row r="68" spans="1:17" ht="18.75" customHeight="1">
+    <row r="68" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="11">
         <v>5</v>
       </c>
-      <c r="C68" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="64"/>
+      <c r="C68" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="61"/>
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
@@ -7357,15 +7369,15 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="6"/>
     </row>
-    <row r="69" spans="1:17" ht="18.75" customHeight="1">
+    <row r="69" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="11">
         <v>6</v>
       </c>
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="68"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7385,15 +7397,15 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="6"/>
     </row>
-    <row r="70" spans="1:17" ht="18.75" customHeight="1">
+    <row r="70" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="11">
         <v>7</v>
       </c>
-      <c r="C70" s="67" t="s">
+      <c r="C70" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="68"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="7" t="s">
         <v>151</v>
       </c>
@@ -7422,15 +7434,15 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="6"/>
     </row>
-    <row r="71" spans="1:17" ht="18.75" customHeight="1">
+    <row r="71" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="11">
         <v>8</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="68"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="7" t="s">
         <v>152</v>
       </c>
@@ -7456,15 +7468,15 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="6"/>
     </row>
-    <row r="72" spans="1:17" ht="18.75" customHeight="1">
+    <row r="72" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="11">
         <v>9</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="68"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="9" t="s">
         <v>74</v>
       </c>
@@ -7483,15 +7495,15 @@
       <c r="O72" s="16"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="1:17" ht="18.75" customHeight="1">
+    <row r="73" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="11">
         <v>10</v>
       </c>
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="64"/>
+      <c r="D73" s="61"/>
       <c r="E73" s="9" t="s">
         <v>74</v>
       </c>
@@ -7507,15 +7519,15 @@
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="18.75" customHeight="1">
+    <row r="74" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="11">
         <v>11</v>
       </c>
-      <c r="C74" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="64"/>
+      <c r="C74" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="61"/>
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
@@ -7529,48 +7541,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="18.75" customHeight="1">
+    <row r="75" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="11">
         <v>12</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="75"/>
+      <c r="D75" s="67"/>
       <c r="E75" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
       <c r="I75" s="32"/>
       <c r="J75" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B77" s="72" t="s">
+    <row r="77" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
       <c r="I77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18.75" customHeight="1">
+    <row r="78" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="74"/>
+      <c r="D78" s="66"/>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
@@ -7590,14 +7602,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="18.75" customHeight="1">
+    <row r="79" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>1</v>
       </c>
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D79" s="68"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="8" t="s">
         <v>106</v>
       </c>
@@ -7611,14 +7623,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="18.75" customHeight="1">
+    <row r="80" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>2</v>
       </c>
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D80" s="68"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="8" t="s">
         <v>107</v>
       </c>
@@ -7634,14 +7646,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="18.75" customHeight="1">
+    <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>3</v>
       </c>
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="68"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="8" t="s">
         <v>108</v>
       </c>
@@ -7657,14 +7669,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="18.75" customHeight="1">
+    <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>4</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="68"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="8" t="s">
         <v>109</v>
       </c>
@@ -7678,14 +7690,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="18.75" customHeight="1">
+    <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>5</v>
       </c>
-      <c r="C83" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="64"/>
+      <c r="C83" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="61"/>
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
@@ -7699,14 +7711,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="18.75" customHeight="1">
+    <row r="84" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>6</v>
       </c>
-      <c r="C84" s="67" t="s">
+      <c r="C84" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="68"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="4" t="s">
         <v>68</v>
       </c>
@@ -7720,14 +7732,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18.75" customHeight="1">
+    <row r="85" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>7</v>
       </c>
-      <c r="C85" s="67" t="s">
+      <c r="C85" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="68"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="8" t="s">
         <v>110</v>
       </c>
@@ -7741,14 +7753,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="18.75" customHeight="1">
+    <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>8</v>
       </c>
-      <c r="C86" s="67" t="s">
+      <c r="C86" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="68"/>
+      <c r="D86" s="63"/>
       <c r="E86" s="8" t="s">
         <v>111</v>
       </c>
@@ -7764,14 +7776,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="18.75" customHeight="1">
+    <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>9</v>
       </c>
-      <c r="C87" s="67" t="s">
+      <c r="C87" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="D87" s="68"/>
+      <c r="D87" s="63"/>
       <c r="E87" s="8" t="s">
         <v>112</v>
       </c>
@@ -7785,14 +7797,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="18.75" customHeight="1">
+    <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>10</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="64"/>
+      <c r="D88" s="61"/>
       <c r="E88" s="8" t="s">
         <v>113</v>
       </c>
@@ -7802,14 +7814,14 @@
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
     </row>
-    <row r="89" spans="1:14" ht="18.75" customHeight="1">
+    <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>11</v>
       </c>
-      <c r="C89" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="64"/>
+      <c r="C89" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="61"/>
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
@@ -7823,58 +7835,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="18.75" customHeight="1">
+    <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>12</v>
       </c>
-      <c r="C90" s="63" t="s">
+      <c r="C90" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="75"/>
+      <c r="D90" s="67"/>
       <c r="E90" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
       <c r="I90" s="32"/>
       <c r="J90" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="18.75" customHeight="1">
-      <c r="G91" s="41"/>
-    </row>
-    <row r="92" spans="1:14" ht="18.75" customHeight="1">
-      <c r="B92" s="72" t="s">
+    <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="38"/>
+    </row>
+    <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="G92" s="41"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="G92" s="38"/>
       <c r="I92" s="1"/>
       <c r="N92" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="18.75" customHeight="1">
+    <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>225</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="74"/>
+      <c r="D93" s="66"/>
       <c r="E93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="40" t="s">
         <v>156</v>
       </c>
       <c r="G93" s="5" t="s">
@@ -7891,19 +7903,19 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="18.75" customHeight="1">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11">
         <v>1</v>
       </c>
-      <c r="C94" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="64"/>
+      <c r="C94" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="61"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="45" t="s">
+      <c r="F94" s="42" t="s">
         <v>74</v>
       </c>
       <c r="G94" s="11"/>
@@ -7913,21 +7925,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="18.75" customHeight="1">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B95" s="11">
         <v>2</v>
       </c>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="68"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="41" t="s">
         <v>123</v>
       </c>
       <c r="G95" s="11" t="s">
@@ -7943,17 +7955,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="18.75" customHeight="1">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B96" s="11">
         <v>3</v>
       </c>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="68"/>
+      <c r="D96" s="63"/>
       <c r="E96" s="25" t="s">
         <v>124</v>
       </c>
@@ -7973,15 +7985,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="18.75" customHeight="1">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11">
         <v>4</v>
       </c>
-      <c r="C97" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="64"/>
+      <c r="C97" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="61"/>
       <c r="E97" s="3" t="s">
         <v>3</v>
       </c>
@@ -7995,17 +8007,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="18.75" customHeight="1">
+    <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>200</v>
       </c>
       <c r="B98" s="11">
         <v>5</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C98" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="64"/>
+      <c r="D98" s="61"/>
       <c r="E98" s="25" t="s">
         <v>125</v>
       </c>
@@ -8025,17 +8037,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="18.75" customHeight="1">
+    <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>201</v>
       </c>
       <c r="B99" s="11">
         <v>6</v>
       </c>
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="68"/>
+      <c r="D99" s="63"/>
       <c r="E99" s="25" t="s">
         <v>126</v>
       </c>
@@ -8055,15 +8067,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="18.75" customHeight="1">
+    <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11">
         <v>7</v>
       </c>
-      <c r="C100" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="64"/>
+      <c r="C100" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="61"/>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
@@ -8077,17 +8089,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="18.75" customHeight="1">
+    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B101" s="11">
         <v>8</v>
       </c>
-      <c r="C101" s="67" t="s">
+      <c r="C101" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D101" s="68"/>
+      <c r="D101" s="63"/>
       <c r="E101" s="25" t="s">
         <v>120</v>
       </c>
@@ -8107,17 +8119,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="18.75" customHeight="1">
+    <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>203</v>
       </c>
       <c r="B102" s="11">
         <v>9</v>
       </c>
-      <c r="C102" s="67" t="s">
+      <c r="C102" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="68"/>
+      <c r="D102" s="63"/>
       <c r="E102" s="25" t="s">
         <v>121</v>
       </c>
@@ -8137,15 +8149,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="18.75" customHeight="1">
+    <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11">
         <v>10</v>
       </c>
-      <c r="C103" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="64"/>
+      <c r="C103" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="61"/>
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
@@ -8159,17 +8171,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="18.75" customHeight="1">
+    <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>204</v>
       </c>
       <c r="B104" s="11">
         <v>11</v>
       </c>
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D104" s="64"/>
+      <c r="D104" s="61"/>
       <c r="E104" s="28" t="s">
         <v>127</v>
       </c>
@@ -8192,17 +8204,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="18.75" customHeight="1">
+    <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>205</v>
       </c>
       <c r="B105" s="11">
         <v>12</v>
       </c>
-      <c r="C105" s="63" t="s">
+      <c r="C105" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="75"/>
+      <c r="D105" s="67"/>
       <c r="E105" s="9" t="s">
         <v>74</v>
       </c>
@@ -8221,17 +8233,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="18.75" customHeight="1">
+    <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>206</v>
       </c>
       <c r="B106" s="11">
         <v>13</v>
       </c>
-      <c r="C106" s="63" t="s">
+      <c r="C106" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="64"/>
+      <c r="D106" s="61"/>
       <c r="E106" s="8" t="s">
         <v>128</v>
       </c>
@@ -8251,17 +8263,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="18.75" customHeight="1">
+    <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>207</v>
       </c>
       <c r="B107" s="11">
         <v>14</v>
       </c>
-      <c r="C107" s="63" t="s">
+      <c r="C107" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="64"/>
+      <c r="D107" s="61"/>
       <c r="E107" s="8" t="s">
         <v>129</v>
       </c>
@@ -8281,15 +8293,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="18.75" customHeight="1">
+    <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="63" t="s">
+      <c r="C108" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="75"/>
+      <c r="D108" s="67"/>
       <c r="E108" s="4" t="s">
         <v>7</v>
       </c>
@@ -8297,7 +8309,7 @@
         <v>74</v>
       </c>
       <c r="G108" s="11"/>
-      <c r="H108" s="42"/>
+      <c r="H108" s="39"/>
       <c r="I108" s="32"/>
       <c r="J108" s="32" t="s">
         <v>9</v>
@@ -8305,89 +8317,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="Q5:S5"/>
@@ -8412,6 +8341,89 @@
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8419,19 +8431,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8445,7 +8457,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8459,7 +8471,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8473,7 +8485,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8487,7 +8499,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8501,14 +8513,14 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -8517,7 +8529,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
         <v>0</v>
@@ -8537,15 +8549,15 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="87"/>
+      <c r="C8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="84"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8557,15 +8569,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8577,15 +8589,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="7" t="s">
         <v>149</v>
       </c>
@@ -8597,15 +8609,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="7" t="s">
         <v>150</v>
       </c>
@@ -8617,7 +8629,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8631,7 +8643,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8645,7 +8657,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8659,7 +8671,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8673,7 +8685,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8687,7 +8699,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8701,7 +8713,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8715,7 +8727,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8729,7 +8741,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8743,7 +8755,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8757,7 +8769,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8771,7 +8783,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8785,7 +8797,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8799,7 +8811,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8813,7 +8825,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8827,7 +8839,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8841,7 +8853,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8855,7 +8867,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8869,7 +8881,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8883,7 +8895,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8897,7 +8909,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75">
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8911,7 +8923,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8925,7 +8937,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8939,7 +8951,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8967,19 +8979,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8995,7 +9007,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9011,7 +9023,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -9027,7 +9039,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9043,15 +9055,15 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -9061,7 +9073,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="12" t="s">
@@ -9083,16 +9095,16 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="87"/>
+      <c r="D7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="84"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -9105,16 +9117,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
@@ -9127,16 +9139,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
         <v>151</v>
       </c>
@@ -9149,16 +9161,16 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
@@ -9171,7 +9183,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9187,7 +9199,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -9203,7 +9215,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -9219,7 +9231,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -9235,7 +9247,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -9251,7 +9263,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9267,7 +9279,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9283,7 +9295,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -9299,7 +9311,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9315,7 +9327,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9331,7 +9343,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9347,7 +9359,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9363,7 +9375,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9379,7 +9391,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9395,7 +9407,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -9411,7 +9423,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -9427,7 +9439,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -9443,7 +9455,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -9459,7 +9471,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9475,7 +9487,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -9491,7 +9503,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -9507,7 +9519,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9523,7 +9535,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9539,7 +9551,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9555,7 +9567,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9571,7 +9583,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9587,7 +9599,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9603,7 +9615,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9619,7 +9631,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9635,7 +9647,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9651,7 +9663,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9681,19 +9693,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" ht="15.75">
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9707,7 +9719,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9721,14 +9733,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75">
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -9737,7 +9749,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>0</v>
@@ -9757,15 +9769,15 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75">
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="87"/>
+      <c r="D8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="84"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9777,15 +9789,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75">
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
@@ -9797,15 +9809,15 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75">
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="26" t="s">
         <v>153</v>
       </c>
@@ -9817,15 +9829,15 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="11">
         <v>4</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="26" t="s">
         <v>154</v>
       </c>
@@ -9837,7 +9849,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9851,7 +9863,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75">
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9865,7 +9877,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9879,7 +9891,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9907,19 +9919,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9936,7 +9948,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75">
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9953,7 +9965,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75">
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9970,7 +9982,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" ht="15.75">
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9987,15 +9999,15 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="2:16" ht="15.75">
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -10006,7 +10018,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15.75">
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12" t="s">
@@ -10029,16 +10041,16 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15.75">
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="88"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
@@ -10052,16 +10064,16 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15.75">
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
@@ -10075,16 +10087,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16" ht="15.75">
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="9" t="s">
         <v>74</v>
       </c>
@@ -10098,16 +10110,16 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="9" t="s">
         <v>74</v>
       </c>
@@ -10121,16 +10133,16 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
@@ -10144,16 +10156,16 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75">
+    <row r="13" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
@@ -10167,16 +10179,16 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75">
+    <row r="14" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
@@ -10190,16 +10202,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15.75">
+    <row r="15" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="87"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10213,16 +10225,16 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15.75">
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="87"/>
+      <c r="E16" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="84"/>
       <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
@@ -10236,16 +10248,16 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75">
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="9" t="s">
         <v>74</v>
       </c>
@@ -10259,16 +10271,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16" ht="15.75">
+    <row r="18" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="88"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="7" t="s">
         <v>147</v>
       </c>
@@ -10282,16 +10294,16 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15.75">
+    <row r="19" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="88"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="7" t="s">
         <v>148</v>
       </c>
@@ -10305,16 +10317,16 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16" ht="15.75">
+    <row r="20" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="88"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="9" t="s">
         <v>74</v>
       </c>
@@ -10328,16 +10340,16 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75">
+    <row r="21" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="88"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
@@ -10351,16 +10363,16 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16" ht="15.75">
+    <row r="22" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -10376,16 +10388,16 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15.75">
+    <row r="23" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="11">
         <v>16</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="88"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="9" t="s">
         <v>74</v>
       </c>
@@ -10399,7 +10411,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16" ht="15.75">
+    <row r="24" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10416,7 +10428,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15.75">
+    <row r="25" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10433,7 +10445,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16" ht="15.75">
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10450,7 +10462,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75">
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10467,7 +10479,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16" ht="15.75">
+    <row r="28" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10484,7 +10496,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15.75">
+    <row r="29" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10501,7 +10513,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75">
+    <row r="30" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10518,7 +10530,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15.75">
+    <row r="31" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10535,7 +10547,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75">
+    <row r="32" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10552,7 +10564,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15.75">
+    <row r="33" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -10571,6 +10583,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E14:F14"/>
@@ -10581,13 +10600,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10595,19 +10607,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="15.75">
+    <row r="4" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -10627,7 +10639,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15.75">
+    <row r="5" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -10647,7 +10659,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="2:19" ht="15.75">
+    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10667,7 +10679,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="2:19" ht="15.75">
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10687,7 +10699,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="2:19" ht="15.75">
+    <row r="8" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -10707,15 +10719,15 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:19" ht="15.75">
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -10729,7 +10741,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:19" ht="15.75">
+    <row r="10" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="12" t="s">
@@ -10755,16 +10767,16 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" ht="15.75">
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
@@ -10783,16 +10795,16 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" ht="15.75">
+    <row r="12" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="8" t="s">
         <v>107</v>
       </c>
@@ -10811,16 +10823,16 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75">
+    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="8" t="s">
         <v>108</v>
       </c>
@@ -10839,16 +10851,16 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="15.75">
+    <row r="14" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -10867,16 +10879,16 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="15.75">
+    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="87"/>
+      <c r="E15" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="84"/>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -10893,16 +10905,16 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="15.75">
+    <row r="16" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="88"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
@@ -10919,16 +10931,16 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" ht="15.75">
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="11">
         <v>7</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="8" t="s">
         <v>110</v>
       </c>
@@ -10947,16 +10959,16 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" ht="15.75">
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="11">
         <v>8</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="88"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>111</v>
       </c>
@@ -10975,16 +10987,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" ht="15.75">
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="11">
         <v>9</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="88"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="8" t="s">
         <v>112</v>
       </c>
@@ -11003,16 +11015,16 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" ht="15.75">
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="88"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>113</v>
       </c>
@@ -11031,16 +11043,16 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" ht="15.75">
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="11">
         <v>11</v>
       </c>
-      <c r="E21" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="87"/>
+      <c r="E21" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="84"/>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -11057,16 +11069,16 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" ht="15.75">
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="11">
         <v>12</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>68</v>
       </c>
@@ -11083,7 +11095,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" ht="15.75">
+    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11103,7 +11115,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" ht="15.75">
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11123,7 +11135,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" ht="15.75">
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11143,7 +11155,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" ht="15.75">
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -11163,7 +11175,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" ht="15.75">
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -11183,7 +11195,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" ht="15.75">
+    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -11203,7 +11215,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" ht="15.75">
+    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -11223,7 +11235,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" ht="15.75">
+    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -11243,7 +11255,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" ht="15.75">
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -11263,7 +11275,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" ht="15.75">
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11283,7 +11295,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" ht="15.75">
+    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -11303,7 +11315,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75">
+    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -11345,19 +11357,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="15.75">
+    <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11371,7 +11383,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75">
+    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -11385,7 +11397,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75">
+    <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -11399,15 +11411,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75">
+    <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -11415,7 +11427,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75">
+    <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="12" t="s">
         <v>197</v>
@@ -11423,10 +11435,10 @@
       <c r="D7" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="92"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="5" t="s">
         <v>2</v>
       </c>
@@ -11439,16 +11451,16 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75">
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="88"/>
+      <c r="E8" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="85"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -11459,7 +11471,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75">
+    <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="11" t="s">
         <v>198</v>
@@ -11467,10 +11479,10 @@
       <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="88"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="25" t="s">
         <v>123</v>
       </c>
@@ -11483,7 +11495,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75">
+    <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>199</v>
@@ -11491,10 +11503,10 @@
       <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="88"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="25" t="s">
         <v>124</v>
       </c>
@@ -11507,16 +11519,16 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75">
+    <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="88"/>
+      <c r="E11" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="85"/>
       <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
@@ -11527,7 +11539,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75">
+    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="11" t="s">
         <v>200</v>
@@ -11535,10 +11547,10 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="25" t="s">
         <v>125</v>
       </c>
@@ -11551,7 +11563,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75">
+    <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="11" t="s">
         <v>201</v>
@@ -11559,10 +11571,10 @@
       <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="25" t="s">
         <v>126</v>
       </c>
@@ -11575,16 +11587,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
         <v>7</v>
       </c>
-      <c r="E14" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="88"/>
+      <c r="E14" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="85"/>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -11595,7 +11607,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75">
+    <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="11" t="s">
         <v>202</v>
@@ -11603,10 +11615,10 @@
       <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="25" t="s">
         <v>120</v>
       </c>
@@ -11619,7 +11631,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75">
+    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="11" t="s">
         <v>203</v>
@@ -11627,10 +11639,10 @@
       <c r="D16" s="11">
         <v>9</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="25" t="s">
         <v>121</v>
       </c>
@@ -11643,16 +11655,16 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" ht="15.75">
+    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="88"/>
+      <c r="E17" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="85"/>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
@@ -11663,7 +11675,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" ht="15.75">
+    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
         <v>204</v>
@@ -11671,10 +11683,10 @@
       <c r="D18" s="11">
         <v>11</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="88"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
@@ -11687,7 +11699,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75">
+    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>205</v>
@@ -11695,10 +11707,10 @@
       <c r="D19" s="11">
         <v>12</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="88"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="9" t="s">
         <v>74</v>
       </c>
@@ -11711,7 +11723,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" ht="15.75">
+    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="11" t="s">
         <v>206</v>
@@ -11719,10 +11731,10 @@
       <c r="D20" s="11">
         <v>13</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="88"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="8" t="s">
         <v>128</v>
       </c>
@@ -11735,7 +11747,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75">
+    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="11" t="s">
         <v>207</v>
@@ -11743,10 +11755,10 @@
       <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="88"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="8" t="s">
         <v>129</v>
       </c>
@@ -11759,16 +11771,16 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75">
+    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11">
         <v>15</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="88"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -11779,7 +11791,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75">
+    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -11793,7 +11805,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75">
+    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -11807,7 +11819,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75">
+    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11823,16 +11835,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -11840,6 +11842,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
